--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_362.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_362.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d7802561-Reviews-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>201</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Holiday-Inn-Express-Suites-Anaheim-Resort-Area.h9710684.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_362.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_362.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2451 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r589793734-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>7802561</t>
+  </si>
+  <si>
+    <t>589793734</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good choice for Disneyland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was very pleased with my choice of hotels for this Disneyland trip. It’s a couple minutes further (walking) that my last hotel, but the experience was better. It’s roughly a 12 minute walk from the door to Disneyland security. I felt safe walking back by myself at night because of traffic and lighting. The room was comfortable and they are ready to feed a hungry hoard in the mornings. Lobby is spacious and comfortable, and the staff was always friendly and helpful. Parking (valet or self) is $15. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r588905430-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>588905430</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>We were theee for 2 days and honestly the hotel was perfect but I would just recommend one thing that their breakfast should be different in each hotel , the breakfast spread was the same as in what we got in San Francisco which wasn’t bad but than one can get tired eating the same thing in the morning but over and all it was a very very good stay huge rooms and curtious staff what more one needs</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r585873840-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>585873840</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>All the staff members I came in contact with were very friendly and helpful. The hotel is very clean and well laid out. It is any easy walk to Disneyland which is one of the reasons we chose to stay here. Only two negatives and they were very minor. Parking is an extra $15 per day which seems to be the going rate for the area. We arrived late and had to park quite a ways away (it almost seemed like it was in the adjacent hotel parking lot) so the only thing is if they are busy and you arrive late you may not get a parking spot because there doesn’t seem like there is a ton of parking.The only other thing was that our room was facing the expressway which was quite noisey. I’m a light sleeper and even though they had a white noise machine in the room (which was a nice touch) I still had to wear earplugs to drown out the noise which thankfully I had a pair with me.Otherwise this hotel was great and I would definitely recommend and would stay here again. Just request a room not on the expressway side if you can.MoreShow less</t>
+  </si>
+  <si>
+    <t>All the staff members I came in contact with were very friendly and helpful. The hotel is very clean and well laid out. It is any easy walk to Disneyland which is one of the reasons we chose to stay here. Only two negatives and they were very minor. Parking is an extra $15 per day which seems to be the going rate for the area. We arrived late and had to park quite a ways away (it almost seemed like it was in the adjacent hotel parking lot) so the only thing is if they are busy and you arrive late you may not get a parking spot because there doesn’t seem like there is a ton of parking.The only other thing was that our room was facing the expressway which was quite noisey. I’m a light sleeper and even though they had a white noise machine in the room (which was a nice touch) I still had to wear earplugs to drown out the noise which thankfully I had a pair with me.Otherwise this hotel was great and I would definitely recommend and would stay here again. Just request a room not on the expressway side if you can.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r566954183-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>566954183</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>I LOVE THIS HOTEL</t>
+  </si>
+  <si>
+    <t>After a not so fabulous stay in the Thousand Oaks area, this hotel felt like a soft cozy landing on a beach following a boat ride through a horrific storm. It is new-ish and super clean. The beds are wonderful and cozy. The staff is incredibly pleasant. The breakfast was great. I'm just so, so happy and thankful.If you are looking for a place to stay near Disneyland, you won't be disappointed with the Holiday Inn Express. The only negative was that they charge for parking. But, due to the quality of the accommodations, I am happy to pay it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>After a not so fabulous stay in the Thousand Oaks area, this hotel felt like a soft cozy landing on a beach following a boat ride through a horrific storm. It is new-ish and super clean. The beds are wonderful and cozy. The staff is incredibly pleasant. The breakfast was great. I'm just so, so happy and thankful.If you are looking for a place to stay near Disneyland, you won't be disappointed with the Holiday Inn Express. The only negative was that they charge for parking. But, due to the quality of the accommodations, I am happy to pay it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r566575637-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>566575637</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Beautiful big rooms but its a decent walk away</t>
+  </si>
+  <si>
+    <t>We head to Anaheim once every year or few years. This hotel looked beautiful from the photos and the reviews were good so even though it was not as close as we normally like to stay to Disneyland we were looking forward to trying somewhere new. 
+We arrived tired and early from NZ (about 11am) but despite the hotel being really quiet weren't able to get a room early so they held our bags and booked us in, took our ID etc and we were told they would take our suitcases up to the room once it was ready which was a really nice gesture. So we went for a walk and had lunch at downtown Disney. Came back to the hotel about 4pm but had to check in and repeat what we had done when we first arrived. They they rolled the suitcases out from the back room.... which were never taken up to the room...so the first point of customer service contact was all show no follow through. Nothing was said about the hotel gym or pool - if there was a laundry and hours ect - we really were left to look for everything ourselves. 
+The room was really big and there was a lovey lounge area (there was only two of us travelling so more than enough room) however people before us looked like they had been forcing chargers that didn't fit into the charging points...We head to Anaheim once every year or few years. This hotel looked beautiful from the photos and the reviews were good so even though it was not as close as we normally like to stay to Disneyland we were looking forward to trying somewhere new. We arrived tired and early from NZ (about 11am) but despite the hotel being really quiet weren't able to get a room early so they held our bags and booked us in, took our ID etc and we were told they would take our suitcases up to the room once it was ready which was a really nice gesture. So we went for a walk and had lunch at downtown Disney. Came back to the hotel about 4pm but had to check in and repeat what we had done when we first arrived. They they rolled the suitcases out from the back room.... which were never taken up to the room...so the first point of customer service contact was all show no follow through. Nothing was said about the hotel gym or pool - if there was a laundry and hours ect - we really were left to look for everything ourselves. The room was really big and there was a lovey lounge area (there was only two of us travelling so more than enough room) however people before us looked like they had been forcing chargers that didn't fit into the charging points next to the bed so we couldn't use them.The breakfast area was really clean and choices were great for a quick breakfast. It would have been nice to have the tea and coffee near the reception area so once you come home from the park you could grab a quick hot drink. There are no vending machines (they have a small show by receptions but it is expensive) The biggest bug for us was the distance to and from Disneyland. We knew this was not as close as we normally stay but thought the new building/breakfast ect was an insentive but after the long days in the park it was just to far away for us. You can cut a triangle corner off by cutting through a car park but not much. The hotel staff never greeted us when we passed through reception nor the valet at the door - which was noticeable as we would walk past the Tropicana Inn and Suites and could hear them chatting to their customers EVERY EVENING. A quick 'welcome back' would go a long way. Same when we were checking out the key cards were handed back and that was that really. If the hotel staff delivered on friendly service and there was a hotel shuttle (like the candy cane inn) this would be an AMAZING spot but until then we'll pick somewhere closer next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>We head to Anaheim once every year or few years. This hotel looked beautiful from the photos and the reviews were good so even though it was not as close as we normally like to stay to Disneyland we were looking forward to trying somewhere new. 
+We arrived tired and early from NZ (about 11am) but despite the hotel being really quiet weren't able to get a room early so they held our bags and booked us in, took our ID etc and we were told they would take our suitcases up to the room once it was ready which was a really nice gesture. So we went for a walk and had lunch at downtown Disney. Came back to the hotel about 4pm but had to check in and repeat what we had done when we first arrived. They they rolled the suitcases out from the back room.... which were never taken up to the room...so the first point of customer service contact was all show no follow through. Nothing was said about the hotel gym or pool - if there was a laundry and hours ect - we really were left to look for everything ourselves. 
+The room was really big and there was a lovey lounge area (there was only two of us travelling so more than enough room) however people before us looked like they had been forcing chargers that didn't fit into the charging points...We head to Anaheim once every year or few years. This hotel looked beautiful from the photos and the reviews were good so even though it was not as close as we normally like to stay to Disneyland we were looking forward to trying somewhere new. We arrived tired and early from NZ (about 11am) but despite the hotel being really quiet weren't able to get a room early so they held our bags and booked us in, took our ID etc and we were told they would take our suitcases up to the room once it was ready which was a really nice gesture. So we went for a walk and had lunch at downtown Disney. Came back to the hotel about 4pm but had to check in and repeat what we had done when we first arrived. They they rolled the suitcases out from the back room.... which were never taken up to the room...so the first point of customer service contact was all show no follow through. Nothing was said about the hotel gym or pool - if there was a laundry and hours ect - we really were left to look for everything ourselves. The room was really big and there was a lovey lounge area (there was only two of us travelling so more than enough room) however people before us looked like they had been forcing chargers that didn't fit into the charging points next to the bed so we couldn't use them.The breakfast area was really clean and choices were great for a quick breakfast. It would have been nice to have the tea and coffee near the reception area so once you come home from the park you could grab a quick hot drink. There are no vending machines (they have a small show by receptions but it is expensive) The biggest bug for us was the distance to and from Disneyland. We knew this was not as close as we normally stay but thought the new building/breakfast ect was an insentive but after the long days in the park it was just to far away for us. You can cut a triangle corner off by cutting through a car park but not much. The hotel staff never greeted us when we passed through reception nor the valet at the door - which was noticeable as we would walk past the Tropicana Inn and Suites and could hear them chatting to their customers EVERY EVENING. A quick 'welcome back' would go a long way. Same when we were checking out the key cards were handed back and that was that really. If the hotel staff delivered on friendly service and there was a hotel shuttle (like the candy cane inn) this would be an AMAZING spot but until then we'll pick somewhere closer next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r561796926-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>561796926</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Excellent! Location, Cleanliness, Pool &amp; Breakfast = GREAT!</t>
+  </si>
+  <si>
+    <t>I have been to Disneyland many times and stayed in an array of places and I have to say I would stay here again. The location was fantastic - an easy walk to the park and right next to Mimi's which is a great restaurant for a family dinner. The hotel was clean and bright with Disney movies playing in the lobby. The cleaning service of our room was A+ every time. The pool area was clean and relaxing and had a great little spray area for the kids. The breakfast had something for all and though it's not gourmet or extravagant, it filled our bellies each morning and we were happy. And finally, the front lobby staff were always friendly, no matter who was on shift and they always wished us a good day, and welcomed us back. Absolutely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I have been to Disneyland many times and stayed in an array of places and I have to say I would stay here again. The location was fantastic - an easy walk to the park and right next to Mimi's which is a great restaurant for a family dinner. The hotel was clean and bright with Disney movies playing in the lobby. The cleaning service of our room was A+ every time. The pool area was clean and relaxing and had a great little spray area for the kids. The breakfast had something for all and though it's not gourmet or extravagant, it filled our bellies each morning and we were happy. And finally, the front lobby staff were always friendly, no matter who was on shift and they always wished us a good day, and welcomed us back. Absolutely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r548855758-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>548855758</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Live review...</t>
+  </si>
+  <si>
+    <t>So this will be interesting. I'm going to do a live review of this property.I'm a little hot right now, but I realize I am so I'm going to try and keep that in mind.Arrived last night and was greeted by very friendly staff. Got our room and it is quite a nice set up with 2 queen beds and a large sitting area.Then came 11pm. After being up since 4am, flying and then visiting LA, a family came back to their room and were yelling and screaming. Banging doors and walls. Hotel claims to have a quiet time and 2 strike policy. Took everything in my power to not going banging on doors and I called the front desk. I know the hotel doesn't have complete control over their guests but I will go out of my way to book Holiday Inn because of the rooms and staff. They said they apologized and would take care of it.Rest of the night was fairly quiet...until 5:30. When they were at it again. Spoke to front desk this morning and we're going to move rooms. Hopefully things improve....to be continued.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>So this will be interesting. I'm going to do a live review of this property.I'm a little hot right now, but I realize I am so I'm going to try and keep that in mind.Arrived last night and was greeted by very friendly staff. Got our room and it is quite a nice set up with 2 queen beds and a large sitting area.Then came 11pm. After being up since 4am, flying and then visiting LA, a family came back to their room and were yelling and screaming. Banging doors and walls. Hotel claims to have a quiet time and 2 strike policy. Took everything in my power to not going banging on doors and I called the front desk. I know the hotel doesn't have complete control over their guests but I will go out of my way to book Holiday Inn because of the rooms and staff. They said they apologized and would take care of it.Rest of the night was fairly quiet...until 5:30. When they were at it again. Spoke to front desk this morning and we're going to move rooms. Hopefully things improve....to be continued.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r547450608-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>547450608</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Good; A couple of flaws</t>
+  </si>
+  <si>
+    <t>Overall a nice property. Not my favorite Disney area hotel, but a good option. There are a couple of design flaws that really bothered me.
+1: we stayed in the grand suite, which is one of their larger rooms. The unfortunate part was, it’s just one big room. Although there are seating areas, there is nothing that separates the beds from the living area. Would be really nice to separate those two spaces. As it is with kids—you all go to bed at the same time. Rally makes a large room like this pointless. 
+2: The bathroom is just a sliding door, that does not lock. Again, with families, bathroom door that locks is pretty important.
+3: Our room faces the freeway. We were able to fall asleep to the sound of semi trucks, honking horns, and emergency cars on the freeway all night long. It’s very loud! 
+4: Parking lot is awful. 95% of the spaces are reserved for valet, So you are sort of forced to ballet. The good news is, valet and self parking are the same price, so we just got used to Valet’ing every night.
+Overall, a nice hotel which could be better with a few tweaks. Nice breakfast, great staff, nice pool/hot tub/splash pad area. Close to Disney, reasonable price, modern and clean decor, nice beds. Just wish with a large family of 4 kids the rooms could make more sense. If only designers...Overall a nice property. Not my favorite Disney area hotel, but a good option. There are a couple of design flaws that really bothered me.1: we stayed in the grand suite, which is one of their larger rooms. The unfortunate part was, it’s just one big room. Although there are seating areas, there is nothing that separates the beds from the living area. Would be really nice to separate those two spaces. As it is with kids—you all go to bed at the same time. Rally makes a large room like this pointless. 2: The bathroom is just a sliding door, that does not lock. Again, with families, bathroom door that locks is pretty important.3: Our room faces the freeway. We were able to fall asleep to the sound of semi trucks, honking horns, and emergency cars on the freeway all night long. It’s very loud! 4: Parking lot is awful. 95% of the spaces are reserved for valet, So you are sort of forced to ballet. The good news is, valet and self parking are the same price, so we just got used to Valet’ing every night.Overall, a nice hotel which could be better with a few tweaks. Nice breakfast, great staff, nice pool/hot tub/splash pad area. Close to Disney, reasonable price, modern and clean decor, nice beds. Just wish with a large family of 4 kids the rooms could make more sense. If only designers knew the challenges of traveling with kids...MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Overall a nice property. Not my favorite Disney area hotel, but a good option. There are a couple of design flaws that really bothered me.
+1: we stayed in the grand suite, which is one of their larger rooms. The unfortunate part was, it’s just one big room. Although there are seating areas, there is nothing that separates the beds from the living area. Would be really nice to separate those two spaces. As it is with kids—you all go to bed at the same time. Rally makes a large room like this pointless. 
+2: The bathroom is just a sliding door, that does not lock. Again, with families, bathroom door that locks is pretty important.
+3: Our room faces the freeway. We were able to fall asleep to the sound of semi trucks, honking horns, and emergency cars on the freeway all night long. It’s very loud! 
+4: Parking lot is awful. 95% of the spaces are reserved for valet, So you are sort of forced to ballet. The good news is, valet and self parking are the same price, so we just got used to Valet’ing every night.
+Overall, a nice hotel which could be better with a few tweaks. Nice breakfast, great staff, nice pool/hot tub/splash pad area. Close to Disney, reasonable price, modern and clean decor, nice beds. Just wish with a large family of 4 kids the rooms could make more sense. If only designers...Overall a nice property. Not my favorite Disney area hotel, but a good option. There are a couple of design flaws that really bothered me.1: we stayed in the grand suite, which is one of their larger rooms. The unfortunate part was, it’s just one big room. Although there are seating areas, there is nothing that separates the beds from the living area. Would be really nice to separate those two spaces. As it is with kids—you all go to bed at the same time. Rally makes a large room like this pointless. 2: The bathroom is just a sliding door, that does not lock. Again, with families, bathroom door that locks is pretty important.3: Our room faces the freeway. We were able to fall asleep to the sound of semi trucks, honking horns, and emergency cars on the freeway all night long. It’s very loud! 4: Parking lot is awful. 95% of the spaces are reserved for valet, So you are sort of forced to ballet. The good news is, valet and self parking are the same price, so we just got used to Valet’ing every night.Overall, a nice hotel which could be better with a few tweaks. Nice breakfast, great staff, nice pool/hot tub/splash pad area. Close to Disney, reasonable price, modern and clean decor, nice beds. Just wish with a large family of 4 kids the rooms could make more sense. If only designers knew the challenges of traveling with kids...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r547254488-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>547254488</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Quite decent hotel next to Disneyland</t>
+  </si>
+  <si>
+    <t>The high ceiling is quite nice and its walking distance to Disneyland gate makes it easy schedule your time around activities at the park. You can probably get back to get a siesta and dash back in to catch some night shows etc. The breakfast is decent, not a lot of options but expected for this range of hotels. The pool is rather small. Lots of kids though!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r544090239-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>544090239</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Another wonderful stay at this hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is a fantastic place to stay, especially if you are visiting the Disney Parks. The main entrance to Disneyland and California Adventure Park is just a short walk from the hotel. By far, the most noticeable thing about this hotel is the kindness and attention we receive from the staff. Led by the manager, Akul, the staff is super courteous and energetic at all hours of the day. We have stayed at this Holiday Inn Express many times since it opened and every time it has been great. The location is a plus, but it is the staff that keeps us coming back. We use the valet parking and it is fast and convenient. Even the members of the house keeping crew are kind and helpful. The amenities are great and are family friendly. Rooms are spacious and there is a nice pool and hot tub. The free breakfast is well staffed and has lots of food options. For business or pleasure, we highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is a fantastic place to stay, especially if you are visiting the Disney Parks. The main entrance to Disneyland and California Adventure Park is just a short walk from the hotel. By far, the most noticeable thing about this hotel is the kindness and attention we receive from the staff. Led by the manager, Akul, the staff is super courteous and energetic at all hours of the day. We have stayed at this Holiday Inn Express many times since it opened and every time it has been great. The location is a plus, but it is the staff that keeps us coming back. We use the valet parking and it is fast and convenient. Even the members of the house keeping crew are kind and helpful. The amenities are great and are family friendly. Rooms are spacious and there is a nice pool and hot tub. The free breakfast is well staffed and has lots of food options. For business or pleasure, we highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r543719386-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>543719386</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing service, perfect location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here with a group of 4 plus a one year old. The service could not be better. Found a room that was available for us far before check in, pulled milk from the kitchen for us (free of charge) late at night for the baby, brought a crib to the room, stored our luggage all day after check out. Only about 1/2 mile from Disneyland the location is awesome. Room was new, clean, large! FREE breakfast was tasty and filling! Going to make this my regular hotel for Disneyland! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r541647988-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>541647988</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Spacious room, clean environment</t>
+  </si>
+  <si>
+    <t>Newer hotel in the area, clean, convenient (about 10mins walk to main gate). Our room was very spacious at 650sq ft for our family of 5. Negatives: has shared parking lot with hotels/motels in the area, rather confusing; front desk staff needs more customer service training (over promised, under delivered); bathroom lacked towel racks/hooks; no place to hang wet towels/clothing except on the shower curtain rod.  Overall it is what is expected of a budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Newer hotel in the area, clean, convenient (about 10mins walk to main gate). Our room was very spacious at 650sq ft for our family of 5. Negatives: has shared parking lot with hotels/motels in the area, rather confusing; front desk staff needs more customer service training (over promised, under delivered); bathroom lacked towel racks/hooks; no place to hang wet towels/clothing except on the shower curtain rod.  Overall it is what is expected of a budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r537495009-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>537495009</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Large, clean rooms and super quiet..</t>
+  </si>
+  <si>
+    <t>Large, clean rooms and super quiet..Beds were comfortable and the pillows..and ac that actually works really well...I like it cold at night..I had no noise issues. We could see the fireworks from our room and loved it! See more of my travels at @jolieannephoto on instagram.The pool was great although a little chilly. Nice, small gym. That was my only complaint. My 13 year old son runs cross country and he was not allowed to run on the treadmill without a parent but there was no where I could sit to watch him run in place for an hour.The breakfast was awesome. I had my greek yogurt, scrambled eggs and pork sausage to stick with my low sugar diet and my boys had cinnamon rolls, fruit, yogurt, pancakes...etc..seating was nice in the dining area too.Staff was super nice and I loved that valet is included in the parking fee. There were plenty of luggage carts. From the 2nd floor elevator to the ticket entrance at Disney it was a 18 minute walk and I do not walk fast. We hit up the Mcdonalds every night on the way back for some cheap food but  Mimis, Panera, Dennys etc are in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Large, clean rooms and super quiet..Beds were comfortable and the pillows..and ac that actually works really well...I like it cold at night..I had no noise issues. We could see the fireworks from our room and loved it! See more of my travels at @jolieannephoto on instagram.The pool was great although a little chilly. Nice, small gym. That was my only complaint. My 13 year old son runs cross country and he was not allowed to run on the treadmill without a parent but there was no where I could sit to watch him run in place for an hour.The breakfast was awesome. I had my greek yogurt, scrambled eggs and pork sausage to stick with my low sugar diet and my boys had cinnamon rolls, fruit, yogurt, pancakes...etc..seating was nice in the dining area too.Staff was super nice and I loved that valet is included in the parking fee. There were plenty of luggage carts. From the 2nd floor elevator to the ticket entrance at Disney it was a 18 minute walk and I do not walk fast. We hit up the Mcdonalds every night on the way back for some cheap food but  Mimis, Panera, Dennys etc are in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r536214165-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>536214165</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Fantastic hotel in fantastic location</t>
+  </si>
+  <si>
+    <t>We stayed here for 6 days while we enjoyed the Las Angeles experience. It was brilliant. So close to Disneyland that we walked each day and didn't need to worry about parking. 
+Also close enough to walk to a strip of restaurants including places like the Cheesecake factory. Plus things like chemists and souvenir shops all close as well.
+The rooms are wonderful. I would highly recommend getting the room we had which is right on the end of the hotel, and has a circular area with living room. The Penthouse suite. it sounds expensive, but wasn't that much more than a standard room and is soooooo worth it!
+It gave us so much more room and allowed us to see Fireworks from Disneyland when they were on.
+The part I loved the most was being able to do our washing in the laundry area for a reasonable price instead of having to pay for it to be outsourced. The washing machine was huge. It allowed me to do a single load of 4 people from a week of travelling. Brilliant.
+I also enjoyed the breakfast which is part of your hotel room cost. It wasn't flash, and it didn't have a huge amount of variety, but it had what is needed at breakfast and was quick and easy. We were able to grab a bite to eat without worrying about cost, before heading out for the day which was...We stayed here for 6 days while we enjoyed the Las Angeles experience. It was brilliant. So close to Disneyland that we walked each day and didn't need to worry about parking. Also close enough to walk to a strip of restaurants including places like the Cheesecake factory. Plus things like chemists and souvenir shops all close as well.The rooms are wonderful. I would highly recommend getting the room we had which is right on the end of the hotel, and has a circular area with living room. The Penthouse suite. it sounds expensive, but wasn't that much more than a standard room and is soooooo worth it!It gave us so much more room and allowed us to see Fireworks from Disneyland when they were on.The part I loved the most was being able to do our washing in the laundry area for a reasonable price instead of having to pay for it to be outsourced. The washing machine was huge. It allowed me to do a single load of 4 people from a week of travelling. Brilliant.I also enjoyed the breakfast which is part of your hotel room cost. It wasn't flash, and it didn't have a huge amount of variety, but it had what is needed at breakfast and was quick and easy. We were able to grab a bite to eat without worrying about cost, before heading out for the day which was great.The pool was excellent. The kids enjoyed it a lot, and there was even a small water feature  for the kids to run around in. Perfect to keep them entertained and still have some down time.Back to the room, it was clean and tidy. Looked new. And the cleaners did a good job of making beds etc. I had heard reviews that people were worried about walking back to the hotel after a day at Disneyland, but have no idea why they would think this. It is very close and well lit. Howard Johnson's is just across the road, and another hotel just in front of it, so there were always people about. The road itself was clean and tidy and it was just a nice place to be. We had no reason to worry at all!To park your car is $15 per day whether you do it yourself or have it valet. The people manning the valet station were friendly and helpful and always quick. The main reception was staffed by wonderful people too. Always with a smile on their face and remembering us. So much nicer than many other places I've stayed. We used this hotel as our base and then did day trips to Universal Studios and Santa Monica. Depending on the day and traffic you'll get varying times to get to these places. But it still made it worth staying here in one place than moving around.There is only one downside to this hotel that I can think of, its proximity to the freeway. But we didn't notice much noise, so it didn't affect us. Considering how loud all of America seems to be (there is always noise somewhere), this was nothing!Wifi was part of the package, and was easy to use.I really loved this hotel and I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 6 days while we enjoyed the Las Angeles experience. It was brilliant. So close to Disneyland that we walked each day and didn't need to worry about parking. 
+Also close enough to walk to a strip of restaurants including places like the Cheesecake factory. Plus things like chemists and souvenir shops all close as well.
+The rooms are wonderful. I would highly recommend getting the room we had which is right on the end of the hotel, and has a circular area with living room. The Penthouse suite. it sounds expensive, but wasn't that much more than a standard room and is soooooo worth it!
+It gave us so much more room and allowed us to see Fireworks from Disneyland when they were on.
+The part I loved the most was being able to do our washing in the laundry area for a reasonable price instead of having to pay for it to be outsourced. The washing machine was huge. It allowed me to do a single load of 4 people from a week of travelling. Brilliant.
+I also enjoyed the breakfast which is part of your hotel room cost. It wasn't flash, and it didn't have a huge amount of variety, but it had what is needed at breakfast and was quick and easy. We were able to grab a bite to eat without worrying about cost, before heading out for the day which was...We stayed here for 6 days while we enjoyed the Las Angeles experience. It was brilliant. So close to Disneyland that we walked each day and didn't need to worry about parking. Also close enough to walk to a strip of restaurants including places like the Cheesecake factory. Plus things like chemists and souvenir shops all close as well.The rooms are wonderful. I would highly recommend getting the room we had which is right on the end of the hotel, and has a circular area with living room. The Penthouse suite. it sounds expensive, but wasn't that much more than a standard room and is soooooo worth it!It gave us so much more room and allowed us to see Fireworks from Disneyland when they were on.The part I loved the most was being able to do our washing in the laundry area for a reasonable price instead of having to pay for it to be outsourced. The washing machine was huge. It allowed me to do a single load of 4 people from a week of travelling. Brilliant.I also enjoyed the breakfast which is part of your hotel room cost. It wasn't flash, and it didn't have a huge amount of variety, but it had what is needed at breakfast and was quick and easy. We were able to grab a bite to eat without worrying about cost, before heading out for the day which was great.The pool was excellent. The kids enjoyed it a lot, and there was even a small water feature  for the kids to run around in. Perfect to keep them entertained and still have some down time.Back to the room, it was clean and tidy. Looked new. And the cleaners did a good job of making beds etc. I had heard reviews that people were worried about walking back to the hotel after a day at Disneyland, but have no idea why they would think this. It is very close and well lit. Howard Johnson's is just across the road, and another hotel just in front of it, so there were always people about. The road itself was clean and tidy and it was just a nice place to be. We had no reason to worry at all!To park your car is $15 per day whether you do it yourself or have it valet. The people manning the valet station were friendly and helpful and always quick. The main reception was staffed by wonderful people too. Always with a smile on their face and remembering us. So much nicer than many other places I've stayed. We used this hotel as our base and then did day trips to Universal Studios and Santa Monica. Depending on the day and traffic you'll get varying times to get to these places. But it still made it worth staying here in one place than moving around.There is only one downside to this hotel that I can think of, its proximity to the freeway. But we didn't notice much noise, so it didn't affect us. Considering how loud all of America seems to be (there is always noise somewhere), this was nothing!Wifi was part of the package, and was easy to use.I really loved this hotel and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r533163863-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>533163863</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Fantastic stay</t>
+  </si>
+  <si>
+    <t>Can't beat the location at this hotel - just a 5/10 minute walk to Disneyland. Everything was impeccably clean and we really enjoyed the daily complimentary breakfast. Staff were lovely and the place looks very new and clean.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r529749033-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>529749033</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Great find!</t>
+  </si>
+  <si>
+    <t>We booked the Holiday Inn Express and Suites in Anaheim since it was a great price, is so close to Disneyland and included a hot breakfast.  Our stay was terrific from the time we arrived starting with the very friendly and helpful staff.  They went above and beyond!  We enjoyed the large rooms (we had two adjoining rooms) with fridge, coffee maker and microwave as well as the pool and water feature (for the kids).  This is a great family hotel and will stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r527445863-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>527445863</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Great lication</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights,  we had noisy neighbours the first night &amp; the staff made arrangements to move us immediately, the next nights were perfect.  Rooms are large, very clean &amp; beds are comfortable.  Standard breakfast is offered.   The staff were wonderful , we were greeted by every member we passed .  Easy walking distance to Disneyland.  Will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r527384581-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>527384581</t>
+  </si>
+  <si>
+    <t>STAY AWAY!</t>
+  </si>
+  <si>
+    <t>Our travel plans changed and when I called to cancel our reservation, I was told that I would be charged the full amount of the hotel room.  Basically there is no option to cancel.  BEWARE! It's a scam.  Holiday Inn became a nightmare. STAY AWAY!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Our travel plans changed and when I called to cancel our reservation, I was told that I would be charged the full amount of the hotel room.  Basically there is no option to cancel.  BEWARE! It's a scam.  Holiday Inn became a nightmare. STAY AWAY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r521981701-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>521981701</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Perfect for Disneyland Trip</t>
+  </si>
+  <si>
+    <t>We (family of 4) stayed at this hotel for 3 nights during a trip to Disneyland.  I typically stay at the large chain hotels (IHG, Hilton, Starwood, or Hyatt) so I know what to expect.  This hotel did NOT let me down.  The distance to the Disneyland gates is great; just a short walk of less than 10 minutes.  The hotel is very clean.  The room we stayed in was VERY large for our family (considering we had a crib in the room).  The breakfast area was large so plenty of room for a lot of guests.  The food options were what  you expect out of a HIX (the staff could probably clean up tables a little faster; minor inconvenience).  They offer valet parking, but since you can walk to Disney, we just self-parked and left the car until departure.  Oh yeah, there were available outlets all over the place in the room (SCORE!).  For future trips to Disneyland, this is now my go-to hotel due to 1) price (cost (or points) is reasonable for HIX), 2 location, 3) cleanliness/size..  Well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We (family of 4) stayed at this hotel for 3 nights during a trip to Disneyland.  I typically stay at the large chain hotels (IHG, Hilton, Starwood, or Hyatt) so I know what to expect.  This hotel did NOT let me down.  The distance to the Disneyland gates is great; just a short walk of less than 10 minutes.  The hotel is very clean.  The room we stayed in was VERY large for our family (considering we had a crib in the room).  The breakfast area was large so plenty of room for a lot of guests.  The food options were what  you expect out of a HIX (the staff could probably clean up tables a little faster; minor inconvenience).  They offer valet parking, but since you can walk to Disney, we just self-parked and left the car until departure.  Oh yeah, there were available outlets all over the place in the room (SCORE!).  For future trips to Disneyland, this is now my go-to hotel due to 1) price (cost (or points) is reasonable for HIX), 2 location, 3) cleanliness/size..  Well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r519500721-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>519500721</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Great Family Vacation</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel from August 22 - 27.  We picked this hotel because of previous great experiences with Holiday Inn Express Hotels, the location to Disneyland and the breakfast.  It was myself, husband, 18 month old and 6 year old.  I reached out to the hotel a few weeks before our trip to see if they could help us decorate the room for our daughter's birthday.  They responded very quickly and helped us surprise our daughter with birthday decorations for the room.  She was so excited and it was the perfect way to kick off our trip.  We had 2 queen bed room with a pull out sofa bed.  It was the perfect size and we had plenty of room for our stuff and a big stroller.  The beds were comfortable and plenty of pillows to choose from...after spending all day in the parks it was nice to come back and crash.  This hotel was a quick 10 minute (if that!) walk to Disneyland.  We were able to partially see the fireworks from our room.  Having been to Disney World multiple times, it was nice to not have to unload the kids from the stroller and fold it up to get on a bus...especially after the end of a long day!  The breakfast was fantastic, we found plenty of seating.  The front desk staff was always pleasant, greeting us in the morning and on our way back each...We stayed at the hotel from August 22 - 27.  We picked this hotel because of previous great experiences with Holiday Inn Express Hotels, the location to Disneyland and the breakfast.  It was myself, husband, 18 month old and 6 year old.  I reached out to the hotel a few weeks before our trip to see if they could help us decorate the room for our daughter's birthday.  They responded very quickly and helped us surprise our daughter with birthday decorations for the room.  She was so excited and it was the perfect way to kick off our trip.  We had 2 queen bed room with a pull out sofa bed.  It was the perfect size and we had plenty of room for our stuff and a big stroller.  The beds were comfortable and plenty of pillows to choose from...after spending all day in the parks it was nice to come back and crash.  This hotel was a quick 10 minute (if that!) walk to Disneyland.  We were able to partially see the fireworks from our room.  Having been to Disney World multiple times, it was nice to not have to unload the kids from the stroller and fold it up to get on a bus...especially after the end of a long day!  The breakfast was fantastic, we found plenty of seating.  The front desk staff was always pleasant, greeting us in the morning and on our way back each night.  They'd say hi to our kids and truly made our trip hassle free.  I had a box of diapers shipped out a few days before our trip and our rental stroller was delivered a few hours before we got there.  We loved the little touches of Disney throughout the hotel.  I cannot say enough good things about this hotel, when we make our return trip to Disneyland we will definitely be booking this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel from August 22 - 27.  We picked this hotel because of previous great experiences with Holiday Inn Express Hotels, the location to Disneyland and the breakfast.  It was myself, husband, 18 month old and 6 year old.  I reached out to the hotel a few weeks before our trip to see if they could help us decorate the room for our daughter's birthday.  They responded very quickly and helped us surprise our daughter with birthday decorations for the room.  She was so excited and it was the perfect way to kick off our trip.  We had 2 queen bed room with a pull out sofa bed.  It was the perfect size and we had plenty of room for our stuff and a big stroller.  The beds were comfortable and plenty of pillows to choose from...after spending all day in the parks it was nice to come back and crash.  This hotel was a quick 10 minute (if that!) walk to Disneyland.  We were able to partially see the fireworks from our room.  Having been to Disney World multiple times, it was nice to not have to unload the kids from the stroller and fold it up to get on a bus...especially after the end of a long day!  The breakfast was fantastic, we found plenty of seating.  The front desk staff was always pleasant, greeting us in the morning and on our way back each...We stayed at the hotel from August 22 - 27.  We picked this hotel because of previous great experiences with Holiday Inn Express Hotels, the location to Disneyland and the breakfast.  It was myself, husband, 18 month old and 6 year old.  I reached out to the hotel a few weeks before our trip to see if they could help us decorate the room for our daughter's birthday.  They responded very quickly and helped us surprise our daughter with birthday decorations for the room.  She was so excited and it was the perfect way to kick off our trip.  We had 2 queen bed room with a pull out sofa bed.  It was the perfect size and we had plenty of room for our stuff and a big stroller.  The beds were comfortable and plenty of pillows to choose from...after spending all day in the parks it was nice to come back and crash.  This hotel was a quick 10 minute (if that!) walk to Disneyland.  We were able to partially see the fireworks from our room.  Having been to Disney World multiple times, it was nice to not have to unload the kids from the stroller and fold it up to get on a bus...especially after the end of a long day!  The breakfast was fantastic, we found plenty of seating.  The front desk staff was always pleasant, greeting us in the morning and on our way back each night.  They'd say hi to our kids and truly made our trip hassle free.  I had a box of diapers shipped out a few days before our trip and our rental stroller was delivered a few hours before we got there.  We loved the little touches of Disney throughout the hotel.  I cannot say enough good things about this hotel, when we make our return trip to Disneyland we will definitely be booking this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r517166905-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>517166905</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Second Stay, still FABULOUS</t>
+  </si>
+  <si>
+    <t>What a great hotel with a TOP NOTCH staff that went out of their way to make sure we were fully accommodated in every way.  This hotel is extremely clean with up to date rooms and one of the best in the area for the price range.  Breakfast is always great, the dining room is huge and is fully staffed.  Love their nighttime quiet policy!I can't say enough nice things about this hotel and it is primarily because of the staff.  They are organized, efficient and go above and beyond the norm.  It is also a modern and well decorated hotel.  LOVE THIS PLACE!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r504908823-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>504908823</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Best Stay By Far!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Location, Great Views, Great Staff, Clean Rooms and an amazing pool. The guy at the front desk Matt was the best, he was friendly, Professional, and helped us out with all our questions. He upgraded us from a regular room to a penthouse suite at no extra cost. The Spanish guy with glasses that works valet on the evening shift was great as well. Very professional, Friendly, and he answered all my questions I had with no problems. Because of Him and Matt, I will definitely go back and stay there again. I just hope they are still working there next time I go to California. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r503934980-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>503934980</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Just came home from 3 nights at this hotel.  I rented the Grande Suite.Pros:  Very spacious comfortable room.  At first I was concerned that the bed was very hard, but surprisingly I slept great.  The room does face the highway but I never heard a sound.  Breakfast was perfect for us.  It was in a large comfortable room.   All of the staff were very friendly.  Cons: THE BATHROOM.   I did not like how the bathroom was right next to the bed.  And it was barn door style and didn't lock.  I did not see any bathroom photos on the site and was surprised that the door was so odd.  There was no way to open and close the door quietly.   The walk to Disneyland was farther than I expected, about 15 minutes.   I assumed (my fault) that I would be able to cut through hotels to Harbor Blvd.   Nope.  We had to walk around.  Harbor Blvd is fine, but I did not feel safe walking down Manchester at midnight.   I am not sure if I would stay here again due to the walk in areas I don't feel safe.  I don't know the bathroom door situation in the other rooms, but I would definitely not rent the Grande Suite again because of the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just came home from 3 nights at this hotel.  I rented the Grande Suite.Pros:  Very spacious comfortable room.  At first I was concerned that the bed was very hard, but surprisingly I slept great.  The room does face the highway but I never heard a sound.  Breakfast was perfect for us.  It was in a large comfortable room.   All of the staff were very friendly.  Cons: THE BATHROOM.   I did not like how the bathroom was right next to the bed.  And it was barn door style and didn't lock.  I did not see any bathroom photos on the site and was surprised that the door was so odd.  There was no way to open and close the door quietly.   The walk to Disneyland was farther than I expected, about 15 minutes.   I assumed (my fault) that I would be able to cut through hotels to Harbor Blvd.   Nope.  We had to walk around.  Harbor Blvd is fine, but I did not feel safe walking down Manchester at midnight.   I am not sure if I would stay here again due to the walk in areas I don't feel safe.  I don't know the bathroom door situation in the other rooms, but I would definitely not rent the Grande Suite again because of the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r502525990-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>502525990</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Great Visit</t>
+  </si>
+  <si>
+    <t>Typically have stated at Grand Californian or Disneyland Hotel.  Thought we would give this a try.  Room great, free breakfast solid, staff friendly, location really good.  Walk to park entrances is similar in time to walk from Disneyland Hotel.  Ty at the front desk about as good as it gets.  Very helpful, friendly, energetic and proud of his hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r500069736-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>500069736</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Perfect location for Disneyland or California Adventure stay, would definitely stay again</t>
+  </si>
+  <si>
+    <t>My family of four decided to visit Anaheim to visit California adventure theme park and read a lot of reviews (Trip advisor, Expedia, Yelp, etc). Our requirements were close to theme park, double queen beds, coach/chaise lounge, free Wi-Fi in Room vs just lobby, free continental breakfast, gym onsite, microwave and mini refrigerator in room, clean and easy parking.
+We narrowed it down to Holiday Inn Express &amp; Suites which is a short 6-7min walk from Disney park. There is a $15+tax per night charge for either self or valet parking. Disney parking is $20. So you can park and walk to Disney, our van was safe here for one night and during the day. The valet is convenient, nothing was taken from our van and no dings or scratches on the vehicle. They do move the vehicles to self parking if you chose valet service. 
+The in check in was fast, friendly and a delight. They have a very large breakfast bar with complementary tea, coffee, hot chocolate available at all times and breakfast starting at 6.30am (oatmeal, bagels, English muffin, fresh fruit, chobani/ yoplait yogurt, bread, peanut butter, cream cheese, jams) on the ground floor along with a fitness room (2 adjustable benches, abdominal ball, free weights 5-50 lb dumbbells, 3 cardio machines-treadmill, elliptical and bike) plus large tv, towels and a cold/hot water dispenser). This is a nice addition if you want to get your pump on...My family of four decided to visit Anaheim to visit California adventure theme park and read a lot of reviews (Trip advisor, Expedia, Yelp, etc). Our requirements were close to theme park, double queen beds, coach/chaise lounge, free Wi-Fi in Room vs just lobby, free continental breakfast, gym onsite, microwave and mini refrigerator in room, clean and easy parking.We narrowed it down to Holiday Inn Express &amp; Suites which is a short 6-7min walk from Disney park. There is a $15+tax per night charge for either self or valet parking. Disney parking is $20. So you can park and walk to Disney, our van was safe here for one night and during the day. The valet is convenient, nothing was taken from our van and no dings or scratches on the vehicle. They do move the vehicles to self parking if you chose valet service. The in check in was fast, friendly and a delight. They have a very large breakfast bar with complementary tea, coffee, hot chocolate available at all times and breakfast starting at 6.30am (oatmeal, bagels, English muffin, fresh fruit, chobani/ yoplait yogurt, bread, peanut butter, cream cheese, jams) on the ground floor along with a fitness room (2 adjustable benches, abdominal ball, free weights 5-50 lb dumbbells, 3 cardio machines-treadmill, elliptical and bike) plus large tv, towels and a cold/hot water dispenser). This is a nice addition if you want to get your pump on after the drive up or early morning workout prior to the park. You will need your key card. They also have an outdoor pool and you can see the Disney fireworks at 9pm if your room faces the park. We chose a room with two queen beds, chaise lounge, which was perfect. Very large, comfortable. Beds were firm. It comfortable, pillows were decent, and AC worked like a champ. Mini refrigerator was very quiet, did not make a rattle when it turned on, they even had a mini sink in room which was very nice. In room safe in closet was very handy if you are staying multiple nights. Bathroom has the usual toiletries (bar soap, lotion, shampoo, conditioner, facial tissues). Hairdryer in bathroom. Living room had a nice sofa, chaise lounge, coffee table, flatscreen tv with HBO, office table and chair. Bedroom was very clean, inviting and comfortable after a long drive or after a long day at the park. Staff were generally helpful when asked questions. I was really impressed with the location, level of comfort, amenities here and would easily stay here again if visiting Disney parks. 5 stars overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family of four decided to visit Anaheim to visit California adventure theme park and read a lot of reviews (Trip advisor, Expedia, Yelp, etc). Our requirements were close to theme park, double queen beds, coach/chaise lounge, free Wi-Fi in Room vs just lobby, free continental breakfast, gym onsite, microwave and mini refrigerator in room, clean and easy parking.
+We narrowed it down to Holiday Inn Express &amp; Suites which is a short 6-7min walk from Disney park. There is a $15+tax per night charge for either self or valet parking. Disney parking is $20. So you can park and walk to Disney, our van was safe here for one night and during the day. The valet is convenient, nothing was taken from our van and no dings or scratches on the vehicle. They do move the vehicles to self parking if you chose valet service. 
+The in check in was fast, friendly and a delight. They have a very large breakfast bar with complementary tea, coffee, hot chocolate available at all times and breakfast starting at 6.30am (oatmeal, bagels, English muffin, fresh fruit, chobani/ yoplait yogurt, bread, peanut butter, cream cheese, jams) on the ground floor along with a fitness room (2 adjustable benches, abdominal ball, free weights 5-50 lb dumbbells, 3 cardio machines-treadmill, elliptical and bike) plus large tv, towels and a cold/hot water dispenser). This is a nice addition if you want to get your pump on...My family of four decided to visit Anaheim to visit California adventure theme park and read a lot of reviews (Trip advisor, Expedia, Yelp, etc). Our requirements were close to theme park, double queen beds, coach/chaise lounge, free Wi-Fi in Room vs just lobby, free continental breakfast, gym onsite, microwave and mini refrigerator in room, clean and easy parking.We narrowed it down to Holiday Inn Express &amp; Suites which is a short 6-7min walk from Disney park. There is a $15+tax per night charge for either self or valet parking. Disney parking is $20. So you can park and walk to Disney, our van was safe here for one night and during the day. The valet is convenient, nothing was taken from our van and no dings or scratches on the vehicle. They do move the vehicles to self parking if you chose valet service. The in check in was fast, friendly and a delight. They have a very large breakfast bar with complementary tea, coffee, hot chocolate available at all times and breakfast starting at 6.30am (oatmeal, bagels, English muffin, fresh fruit, chobani/ yoplait yogurt, bread, peanut butter, cream cheese, jams) on the ground floor along with a fitness room (2 adjustable benches, abdominal ball, free weights 5-50 lb dumbbells, 3 cardio machines-treadmill, elliptical and bike) plus large tv, towels and a cold/hot water dispenser). This is a nice addition if you want to get your pump on after the drive up or early morning workout prior to the park. You will need your key card. They also have an outdoor pool and you can see the Disney fireworks at 9pm if your room faces the park. We chose a room with two queen beds, chaise lounge, which was perfect. Very large, comfortable. Beds were firm. It comfortable, pillows were decent, and AC worked like a champ. Mini refrigerator was very quiet, did not make a rattle when it turned on, they even had a mini sink in room which was very nice. In room safe in closet was very handy if you are staying multiple nights. Bathroom has the usual toiletries (bar soap, lotion, shampoo, conditioner, facial tissues). Hairdryer in bathroom. Living room had a nice sofa, chaise lounge, coffee table, flatscreen tv with HBO, office table and chair. Bedroom was very clean, inviting and comfortable after a long drive or after a long day at the park. Staff were generally helpful when asked questions. I was really impressed with the location, level of comfort, amenities here and would easily stay here again if visiting Disney parks. 5 stars overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r499679280-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>499679280</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location; great staff; comfortable bed </t>
+  </si>
+  <si>
+    <t>I would love to give this place 5 stars for the staff, comfortable and clean rooms, and relatively short walking distance to Disneyland and California Adventure. Unfortunately, breakfast made me lower my rating to 4 stars.  The breakfast was standard Holiday Inn Express food (not great but ok). The problem, though, is that this hotel placed pancakes on top of the eggs so that my daughter could not eat them due to a gluten-food allergy.  The serving utensil was also being used for both items by some guests. Other hotels of the exact same brand had a pancake machine for guests to make their own pancakes (which eliminates this problem).  Also, during our travels one Holiday Inn Express provided wrapped gluten-free bagels.  Not so at this hotel.  It is disappointing because we state our allergy upfront in reservation notes, and it's in my guest profile.  Plus, we were given a list when we checked in of gluten-free items on the buffet...but the list doesn't work if cross-contamination occurs.  My suggestion is to at least provide single-serve gluten-free Chex or gluten-free Lucky Charms cereal, gluten-free bread upon request (very common at other hotels we have stayed at), and keep gluten/wheat items from having direct contact with gluten-free items. MoreShow less</t>
+  </si>
+  <si>
+    <t>I would love to give this place 5 stars for the staff, comfortable and clean rooms, and relatively short walking distance to Disneyland and California Adventure. Unfortunately, breakfast made me lower my rating to 4 stars.  The breakfast was standard Holiday Inn Express food (not great but ok). The problem, though, is that this hotel placed pancakes on top of the eggs so that my daughter could not eat them due to a gluten-food allergy.  The serving utensil was also being used for both items by some guests. Other hotels of the exact same brand had a pancake machine for guests to make their own pancakes (which eliminates this problem).  Also, during our travels one Holiday Inn Express provided wrapped gluten-free bagels.  Not so at this hotel.  It is disappointing because we state our allergy upfront in reservation notes, and it's in my guest profile.  Plus, we were given a list when we checked in of gluten-free items on the buffet...but the list doesn't work if cross-contamination occurs.  My suggestion is to at least provide single-serve gluten-free Chex or gluten-free Lucky Charms cereal, gluten-free bread upon request (very common at other hotels we have stayed at), and keep gluten/wheat items from having direct contact with gluten-free items. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r497572681-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>497572681</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Clean but overpriced</t>
+  </si>
+  <si>
+    <t>We checked in for two nights staying in a two queen enchanted suite. The room wasn't very big and had a small half wall divider to split the sofa bed area which was a hand lengths away from the other queen bed. When we opened the sofa bed we found dirty sheets on it! So disgusting I called housekeeping and they came up with some new ones right away. The other beds were clean. I found no signs of bed bugs upon my searching for them by the headboards and under mattresses. (I always do a check upon my arrival at a property) The rest of the room was clean but there was a bug stain on the chair in the room and furniture looked worn for being a newer property. The breakfast area was clean and had a variety if good items to choose from. They have a small outdoor pool but it was clean. This property is a good location within walking distance of Disney. I was charged a rate of $230 a night for a small room which they called a suite. The room was not very sound proof and we heard people above us all night long and again in the mornings.I was online the second night and saw they were offering the same room type for $159. Parking around the back of the other connecting hotel is $15 a day. To park in their lot...We checked in for two nights staying in a two queen enchanted suite. The room wasn't very big and had a small half wall divider to split the sofa bed area which was a hand lengths away from the other queen bed. When we opened the sofa bed we found dirty sheets on it! So disgusting I called housekeeping and they came up with some new ones right away. The other beds were clean. I found no signs of bed bugs upon my searching for them by the headboards and under mattresses. (I always do a check upon my arrival at a property) The rest of the room was clean but there was a bug stain on the chair in the room and furniture looked worn for being a newer property. The breakfast area was clean and had a variety if good items to choose from. They have a small outdoor pool but it was clean. This property is a good location within walking distance of Disney. I was charged a rate of $230 a night for a small room which they called a suite. The room was not very sound proof and we heard people above us all night long and again in the mornings.I was online the second night and saw they were offering the same room type for $159. Parking around the back of the other connecting hotel is $15 a day. To park in their lot you have to valet park which is a real joke since the parking lot isn't very big but they reserve it for valet.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>We checked in for two nights staying in a two queen enchanted suite. The room wasn't very big and had a small half wall divider to split the sofa bed area which was a hand lengths away from the other queen bed. When we opened the sofa bed we found dirty sheets on it! So disgusting I called housekeeping and they came up with some new ones right away. The other beds were clean. I found no signs of bed bugs upon my searching for them by the headboards and under mattresses. (I always do a check upon my arrival at a property) The rest of the room was clean but there was a bug stain on the chair in the room and furniture looked worn for being a newer property. The breakfast area was clean and had a variety if good items to choose from. They have a small outdoor pool but it was clean. This property is a good location within walking distance of Disney. I was charged a rate of $230 a night for a small room which they called a suite. The room was not very sound proof and we heard people above us all night long and again in the mornings.I was online the second night and saw they were offering the same room type for $159. Parking around the back of the other connecting hotel is $15 a day. To park in their lot...We checked in for two nights staying in a two queen enchanted suite. The room wasn't very big and had a small half wall divider to split the sofa bed area which was a hand lengths away from the other queen bed. When we opened the sofa bed we found dirty sheets on it! So disgusting I called housekeeping and they came up with some new ones right away. The other beds were clean. I found no signs of bed bugs upon my searching for them by the headboards and under mattresses. (I always do a check upon my arrival at a property) The rest of the room was clean but there was a bug stain on the chair in the room and furniture looked worn for being a newer property. The breakfast area was clean and had a variety if good items to choose from. They have a small outdoor pool but it was clean. This property is a good location within walking distance of Disney. I was charged a rate of $230 a night for a small room which they called a suite. The room was not very sound proof and we heard people above us all night long and again in the mornings.I was online the second night and saw they were offering the same room type for $159. Parking around the back of the other connecting hotel is $15 a day. To park in their lot you have to valet park which is a real joke since the parking lot isn't very big but they reserve it for valet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r491481349-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>491481349</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>The best Holiday inn express I ever stayed in</t>
+  </si>
+  <si>
+    <t>This place is amazing. I travel a lot and this hotel was clean, looked brand new, staff very helpful and happy, and excellently situated! I was amazed at how comfortable the king bed was and I slept like a baby!! Also quiet rooms unlike some HI's where you can hear the guy in the next room sneeze!  Nice modern lounge area to plug in and work (had a meeting with a colleague there).  Breakfast is the only thing which I think let's down HI's as that would have made this hotel A1, to be able to order eggs etc - here you get the standard cereal etc. I walked to Mimi's Cafe around the corner from the hotel for a higher quality breakfast experience. Wifi also very strong here.  I would definitely bring my family here if we were to go to Disneyland in the future - it's literally 4-5 mins walk around the corner. And, the pool area looked great with nice loungers etc. Congratulations on such a nice hotel experience you give your guests. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This place is amazing. I travel a lot and this hotel was clean, looked brand new, staff very helpful and happy, and excellently situated! I was amazed at how comfortable the king bed was and I slept like a baby!! Also quiet rooms unlike some HI's where you can hear the guy in the next room sneeze!  Nice modern lounge area to plug in and work (had a meeting with a colleague there).  Breakfast is the only thing which I think let's down HI's as that would have made this hotel A1, to be able to order eggs etc - here you get the standard cereal etc. I walked to Mimi's Cafe around the corner from the hotel for a higher quality breakfast experience. Wifi also very strong here.  I would definitely bring my family here if we were to go to Disneyland in the future - it's literally 4-5 mins walk around the corner. And, the pool area looked great with nice loungers etc. Congratulations on such a nice hotel experience you give your guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r488997351-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>488997351</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Room was excellent. Big, clean, with a lot of light. Food was great, lot of food available. Great to stay if you visit Disneyland. Staff was really pulite and helpfull (thanks to all of them once more).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Room was excellent. Big, clean, with a lot of light. Food was great, lot of food available. Great to stay if you visit Disneyland. Staff was really pulite and helpfull (thanks to all of them once more).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r488298542-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>488298542</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for Disney vacation, would come again</t>
+  </si>
+  <si>
+    <t>I recently finished a week long stay here with grandparents and a child and would highly recommend to families to come back again#1: Short walk to Disney, ~15min. to the main security gate on a busy, well lit street. There is only a small section when you walk off Harbor past the Courtyard that isn't as busy, well-lite as would be ideal#2: Large, clean, up to date rooms and Hotel.  The whole family loved it#3: Staff was very friendly.  They helped me get access to the hotel next door to do laundry when there's was broken#4: Breakfast bar was great.  That said, I recommend the management opening up a 6am.  6:30am is on the later side for those wanting to start at the parks early.#5: Several restaurants nearby where you can walk and the Anaheim Garden Walk Mall is a ~5-8min. drive away, easy to do takeoutMoreShow less</t>
+  </si>
+  <si>
+    <t>I recently finished a week long stay here with grandparents and a child and would highly recommend to families to come back again#1: Short walk to Disney, ~15min. to the main security gate on a busy, well lit street. There is only a small section when you walk off Harbor past the Courtyard that isn't as busy, well-lite as would be ideal#2: Large, clean, up to date rooms and Hotel.  The whole family loved it#3: Staff was very friendly.  They helped me get access to the hotel next door to do laundry when there's was broken#4: Breakfast bar was great.  That said, I recommend the management opening up a 6am.  6:30am is on the later side for those wanting to start at the parks early.#5: Several restaurants nearby where you can walk and the Anaheim Garden Walk Mall is a ~5-8min. drive away, easy to do takeoutMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r487546691-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>487546691</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great Stay! Wonderful Service!</t>
+  </si>
+  <si>
+    <t>We stayed here two nights out of our 17 day vacation traveling across country from Missouri to CA and back again. The valet staff was extremely prompt and very professional and pleasant to work with. The front desk staff were excellent ambassadors for Holiday Inn Express. They answered all of our questions and were extremely friendly and professional!! The rooms were superb!! I had a quiet room. It was very clean and the beds were very tightly and neatly made. The floors were clean and so was the bathroom!!! Also they had an ample selection of great channels on the TV and the internet was at pristine speed!!! We were not Disneyland goers and were there instead to visit family, so I was concerned that being so close to Disney that there would be a lot of noise and children, but I never heard anything while I was in the room. I had a wonderful night sleep both nights!!! Also there is good access for the freeway (by the way, I never heard any noise from the freeway...I was on the back side of the hotel). I would strongly recommend this hotel for anyone staying in the area....it is worth the little bit extra you will pay for the room!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here two nights out of our 17 day vacation traveling across country from Missouri to CA and back again. The valet staff was extremely prompt and very professional and pleasant to work with. The front desk staff were excellent ambassadors for Holiday Inn Express. They answered all of our questions and were extremely friendly and professional!! The rooms were superb!! I had a quiet room. It was very clean and the beds were very tightly and neatly made. The floors were clean and so was the bathroom!!! Also they had an ample selection of great channels on the TV and the internet was at pristine speed!!! We were not Disneyland goers and were there instead to visit family, so I was concerned that being so close to Disney that there would be a lot of noise and children, but I never heard anything while I was in the room. I had a wonderful night sleep both nights!!! Also there is good access for the freeway (by the way, I never heard any noise from the freeway...I was on the back side of the hotel). I would strongly recommend this hotel for anyone staying in the area....it is worth the little bit extra you will pay for the room!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r483460036-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>483460036</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Loved this hotel!  Excellent front desk staff, public areas were extremely clean and room was modern, comfortable and spotless.  A close walk to the Disney attractions.  Hotel has a quiet policy between 10 PM and 7 AM that is well posted and much appreciated.  I wish more hotels did this!  Only complaint was that some breakfast items were not hot enough, but the selection was typical for a Holiday Inn Express and was well stocked.  Very large breakfast area with plenty of seating.  24 hour coffee was always hot and full.  Everyone we encountered at this hotel was extremely nice and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved this hotel!  Excellent front desk staff, public areas were extremely clean and room was modern, comfortable and spotless.  A close walk to the Disney attractions.  Hotel has a quiet policy between 10 PM and 7 AM that is well posted and much appreciated.  I wish more hotels did this!  Only complaint was that some breakfast items were not hot enough, but the selection was typical for a Holiday Inn Express and was well stocked.  Very large breakfast area with plenty of seating.  24 hour coffee was always hot and full.  Everyone we encountered at this hotel was extremely nice and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r482193864-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>482193864</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Walk to Disney. Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>The location is great for a close walk to Disneyland (less than 10 mins). Friendly staff that recognized IHG status and upgraded to beautiful suite with an entire wall of windows which happened to look perfectly in the direction of the nightly fireworks at Disneyland. Very clean and well kept hotel. Nice, buffet-style, free breakfast with many an array of options both hot and cold. Nice private pool with splash-pad and hot tub. My one, and only, complaint is the parking. $15 per day regardless of hotel status. Overall, a great choice for Disneyland area hotel. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is great for a close walk to Disneyland (less than 10 mins). Friendly staff that recognized IHG status and upgraded to beautiful suite with an entire wall of windows which happened to look perfectly in the direction of the nightly fireworks at Disneyland. Very clean and well kept hotel. Nice, buffet-style, free breakfast with many an array of options both hot and cold. Nice private pool with splash-pad and hot tub. My one, and only, complaint is the parking. $15 per day regardless of hotel status. Overall, a great choice for Disneyland area hotel. Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r478072872-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>478072872</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Good Disneyland Hotel</t>
+  </si>
+  <si>
+    <t>We stayed there earlier this month during our trip to Disneyland. First off, we did not spend much time there accept to sleep. All in all, a good experience. The walk to Disney is about 7-10 minutes...but after a long day of walking, it seemed longer. The breakfast area is well stocked and big. We had one of the largest rooms in sqft. The maid service was good. We did not like the sliding door in front of the bathroom as it did not give much in a sense of privacy. But, its whats "in" now and this is a newer hotel. We had a stroller delivered and picked up from the hotel without issue. I did wish that breakfast would start at 6AM instead of 0630. When you have your early day at Disney (7AM), you want hurry up and eat and get there. We did have an issue with the second TV in our room that was not resolved and the first night and the maintenance guy never came back. But, we never used the TVs after the first night. We enjoyed our stay and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2017</t>
+  </si>
+  <si>
+    <t>We stayed there earlier this month during our trip to Disneyland. First off, we did not spend much time there accept to sleep. All in all, a good experience. The walk to Disney is about 7-10 minutes...but after a long day of walking, it seemed longer. The breakfast area is well stocked and big. We had one of the largest rooms in sqft. The maid service was good. We did not like the sliding door in front of the bathroom as it did not give much in a sense of privacy. But, its whats "in" now and this is a newer hotel. We had a stroller delivered and picked up from the hotel without issue. I did wish that breakfast would start at 6AM instead of 0630. When you have your early day at Disney (7AM), you want hurry up and eat and get there. We did have an issue with the second TV in our room that was not resolved and the first night and the maintenance guy never came back. But, we never used the TVs after the first night. We enjoyed our stay and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r477858878-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>477858878</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Excellence Service from Front Desk Agent</t>
+  </si>
+  <si>
+    <t>After checking in, we found a small minor setback within our room. I want to commend Front Desk Agent Nick (Friday, 4/21) for his quality hospitable service; and having us upgraded to an awesome suite. Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>After checking in, we found a small minor setback within our room. I want to commend Front Desk Agent Nick (Friday, 4/21) for his quality hospitable service; and having us upgraded to an awesome suite. Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r474335189-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>474335189</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Room was big and hotel was clean. Service was good and staff was helpful. Very convenient and close to Disneyland. Onsite laundry was very convenient. Breakfast was simple but good enough for us. Overall, it was one of the best HIE we've stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Room was big and hotel was clean. Service was good and staff was helpful. Very convenient and close to Disneyland. Onsite laundry was very convenient. Breakfast was simple but good enough for us. Overall, it was one of the best HIE we've stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r471993140-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>471993140</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>So Clean and Close to Disney</t>
+  </si>
+  <si>
+    <t>Loved this hotel! So clean. Great breakfast. Staff is friendly and helpful. Disney is in walking distance. Will stay here again. Hope to get a room on the Disney side next time. The other side of the hotel is next to a busy highway. A little loud. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded April 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel! So clean. Great breakfast. Staff is friendly and helpful. Disney is in walking distance. Will stay here again. Hope to get a room on the Disney side next time. The other side of the hotel is next to a busy highway. A little loud. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r467428643-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>467428643</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Great for disneyland</t>
+  </si>
+  <si>
+    <t>New hotel, the reception staff and car valets were all friendly and helpful, rooms were really nice as hotel is fairly new, only a 10 minute walk from Disney. We ordered food in from Panda House - hotel had menus, it was excellent !MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>New hotel, the reception staff and car valets were all friendly and helpful, rooms were really nice as hotel is fairly new, only a 10 minute walk from Disney. We ordered food in from Panda House - hotel had menus, it was excellent !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r466396432-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>466396432</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>What a great value for this area</t>
+  </si>
+  <si>
+    <t>Really taken back by what Holiday Inn  Express is offering up.  Really great rooms, reasonable price and breakfast.  The Staff was friendly and very helpful. This hotel is in a resort area but a really great find for business travelers. I will certainly look for this these properties in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Really taken back by what Holiday Inn  Express is offering up.  Really great rooms, reasonable price and breakfast.  The Staff was friendly and very helpful. This hotel is in a resort area but a really great find for business travelers. I will certainly look for this these properties in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r463960566-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>463960566</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect for Disneyland </t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn for 3 nights in February and loved it! We were 3 adults staying in a 2 queen bed (enchanted) suite and it was perfect with the pull out sofa bed. The rooms are a decent size with enough room for everyone and our luggage.The hotel is new so everything feels clean and welcoming. The breakfast is included and offers anything you could need to get your day started.It's about a 10-15 min walk to the gates of Disneyland with lots of families and people walking back and forth at all times it was very safe. The reason I only gave 4 stars is because we had a room with an adjoining door and on the second night we could hear everything our neighbor was saying as if they were in the room with us. On the last night of our stay someone got checked into the room at 3am and we woken up by them moving around and chatting for an hour which was very disappointing.The bathroom only has one hook for a single towel and when they encourage you not to get new towels everyday it would be nice to have somewhere to hang them.Other than that the hotel was great and I would stay again if I could request a room that didn't have an adjoining door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn for 3 nights in February and loved it! We were 3 adults staying in a 2 queen bed (enchanted) suite and it was perfect with the pull out sofa bed. The rooms are a decent size with enough room for everyone and our luggage.The hotel is new so everything feels clean and welcoming. The breakfast is included and offers anything you could need to get your day started.It's about a 10-15 min walk to the gates of Disneyland with lots of families and people walking back and forth at all times it was very safe. The reason I only gave 4 stars is because we had a room with an adjoining door and on the second night we could hear everything our neighbor was saying as if they were in the room with us. On the last night of our stay someone got checked into the room at 3am and we woken up by them moving around and chatting for an hour which was very disappointing.The bathroom only has one hook for a single towel and when they encourage you not to get new towels everyday it would be nice to have somewhere to hang them.Other than that the hotel was great and I would stay again if I could request a room that didn't have an adjoining door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r463359517-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>463359517</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Great stay with family for a visit to Disneyland!!</t>
+  </si>
+  <si>
+    <t>Had an extremely great experience and stay here for our trip to Disneyland. Property is brand new and it shows, our room was pristine and spacious!! All areas of the hotel from the pool to the breakfast areas were very clean and well-maintained. Everyone from the housekeeping staff to the front desk were great, We are glad we took Tyler's advice and took Uber to LAX, it ended up being very economical. Will definitely stay here again for future visits!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Had an extremely great experience and stay here for our trip to Disneyland. Property is brand new and it shows, our room was pristine and spacious!! All areas of the hotel from the pool to the breakfast areas were very clean and well-maintained. Everyone from the housekeeping staff to the front desk were great, We are glad we took Tyler's advice and took Uber to LAX, it ended up being very economical. Will definitely stay here again for future visits!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r462333653-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>462333653</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Great rooms &amp; breakfast</t>
+  </si>
+  <si>
+    <t>We had he queen suite rooms which were very spacious and clean. Small fridge with microwave and Keurig coffee machine in room was very useful. Newly remodeled. Very comfortable beds.Breakfast room was very nice and plenty of room. Nice hot breakfast buffet was included. Make your own pancakes, scrambled eggs, veggie omelette (pre-made), sausage, breads, pastries etc. made for a great start to the day. Staff was very friendly and accommodating.Pool was heated - even enough for kids on a chilly February day.....small but nice and clean. Small "sprinkler" area for kids to play in water area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had he queen suite rooms which were very spacious and clean. Small fridge with microwave and Keurig coffee machine in room was very useful. Newly remodeled. Very comfortable beds.Breakfast room was very nice and plenty of room. Nice hot breakfast buffet was included. Make your own pancakes, scrambled eggs, veggie omelette (pre-made), sausage, breads, pastries etc. made for a great start to the day. Staff was very friendly and accommodating.Pool was heated - even enough for kids on a chilly February day.....small but nice and clean. Small "sprinkler" area for kids to play in water area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r458955076-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>458955076</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>3 night family trip to Disneyland</t>
+  </si>
+  <si>
+    <t>Great hotel. Highly recommend it. We stayed 3 nights for a trip to Disneyland with our 3 and 5 year olds. The staff was so friendly and helpful. Valet remembered us every time but still checked IDs for safety. My 3 and 5 year olds had no problem with the walk from Disneyland to the hotel. One of the days we decided to drive to Disneyland instead of walk since it was supposed to rain at the end of the day and it took 3x as long to get to the parking garage, park, walk to the tram, walk through downtown Disney and get to the gate. Walking from the hotel is so much better/faster. We even walked back to hotel from the park around 3pm and let the kids nap and eat and then walked back that evening for another round of fun. It was perfect. The included breakfast was great. Coffee available all the time in the lobby. The room was very spacious, we had a sectional, desk, 2 queen beds, a kitchenette with sink, microwave and mini fridge that came in handy. There are lots of restaurants within walking distance and a target down the road you can drive or ride the ART shuttle to. We would be happy to stay there again and will if we ever decide to visit Disneyland again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel. Highly recommend it. We stayed 3 nights for a trip to Disneyland with our 3 and 5 year olds. The staff was so friendly and helpful. Valet remembered us every time but still checked IDs for safety. My 3 and 5 year olds had no problem with the walk from Disneyland to the hotel. One of the days we decided to drive to Disneyland instead of walk since it was supposed to rain at the end of the day and it took 3x as long to get to the parking garage, park, walk to the tram, walk through downtown Disney and get to the gate. Walking from the hotel is so much better/faster. We even walked back to hotel from the park around 3pm and let the kids nap and eat and then walked back that evening for another round of fun. It was perfect. The included breakfast was great. Coffee available all the time in the lobby. The room was very spacious, we had a sectional, desk, 2 queen beds, a kitchenette with sink, microwave and mini fridge that came in handy. There are lots of restaurants within walking distance and a target down the road you can drive or ride the ART shuttle to. We would be happy to stay there again and will if we ever decide to visit Disneyland again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r457913137-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>457913137</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Special treatment and a great location</t>
+  </si>
+  <si>
+    <t>My husband and I stayed two nights here last weekend, and we had such a great time. Some friends set up our vacation, and they chose this hotel for us because of its close proximity to Disneyland. We loved being so close to the park, and the special treatment I received on my birthday. Our friends called to ask if the hotel staff could do something special for my birthday, so we came back and found the room decorated with balloons, a happy birthday sign, and a bag of chocolate. The staff was wonderfully friendly!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed two nights here last weekend, and we had such a great time. Some friends set up our vacation, and they chose this hotel for us because of its close proximity to Disneyland. We loved being so close to the park, and the special treatment I received on my birthday. Our friends called to ask if the hotel staff could do something special for my birthday, so we came back and found the room decorated with balloons, a happy birthday sign, and a bag of chocolate. The staff was wonderfully friendly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r457390384-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>457390384</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Our new favorite hotel for Disneyland!</t>
+  </si>
+  <si>
+    <t>Pros: Great stay! Excellent value. Friendly staff. Clean comfortable large room with nice, well thought out amenities. Very quiet. We appreciated the "2 strike" noise policy posted at elevators. USB ports on the nightstand outlets offered plenty of convenient charging options for devices. Breakfast exceeded expectations with offerings and service. Staff was constantly replenishing and cleaning up at breakfast. Perfect location - 10 minute walk from main gate, so no need to wait for a shuttle. Plenty of self parking was available during our stay during the off season.Cons: This is very minor. Guest laundry has only one washer and one dryer. We tried three different times to wash clothes and it was in use every time. We ended up purchasing additional clothes for our youngest child instead. Just be aware that although this hotel does offer guest laundry, it may very well not be available and pack accordingly. Overall, an excellent property. We will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Pros: Great stay! Excellent value. Friendly staff. Clean comfortable large room with nice, well thought out amenities. Very quiet. We appreciated the "2 strike" noise policy posted at elevators. USB ports on the nightstand outlets offered plenty of convenient charging options for devices. Breakfast exceeded expectations with offerings and service. Staff was constantly replenishing and cleaning up at breakfast. Perfect location - 10 minute walk from main gate, so no need to wait for a shuttle. Plenty of self parking was available during our stay during the off season.Cons: This is very minor. Guest laundry has only one washer and one dryer. We tried three different times to wash clothes and it was in use every time. We ended up purchasing additional clothes for our youngest child instead. Just be aware that although this hotel does offer guest laundry, it may very well not be available and pack accordingly. Overall, an excellent property. We will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r452510121-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>452510121</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>We booked an Enchanted 2 Queen Suite, which easily sleeps 4 with 2 queen beds and a foldout couch bed. It was so quiet and the beds were excellent. We probably got the best sleep we've ever had in a hotel. Breakfast options are enough to have something different every morning for a few days. From here, it's about an 8-10 minute walk to Disneyland. So convenient not to have to take a shuttle! Shower had good water pressure and it was nice having a tub and a quiet fridge. We could see the top of Space Mountain from our room and apart from the Disneyland fireworks, we didn't hear any outside noise the whole night. Another plus, towels are provided at the pool. This hotel posts a 2 strike noise policy at the elevators, which I love! Would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>We booked an Enchanted 2 Queen Suite, which easily sleeps 4 with 2 queen beds and a foldout couch bed. It was so quiet and the beds were excellent. We probably got the best sleep we've ever had in a hotel. Breakfast options are enough to have something different every morning for a few days. From here, it's about an 8-10 minute walk to Disneyland. So convenient not to have to take a shuttle! Shower had good water pressure and it was nice having a tub and a quiet fridge. We could see the top of Space Mountain from our room and apart from the Disneyland fireworks, we didn't hear any outside noise the whole night. Another plus, towels are provided at the pool. This hotel posts a 2 strike noise policy at the elevators, which I love! Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r452031834-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>452031834</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel for Disneyland trip</t>
+  </si>
+  <si>
+    <t>My wife and 2 kids chose to stay here as opposed to the Disneyland Resort and were not disappointed. 
+Checked in and learned all guests must valet their vehicle. $15/day but that was no problem. I came and went a few times over the next 3 days and the valet literally ran to my vehicle every time. 
+The room had 2 queen beds and a sleeper couch. Plenty of room for 2 adults and probably up to 3-4 kids. Satellite TV, WiFi, nice bathroom. Room was in nice condition and we had plenty of pillows (a deal breaker for me and hotels). 
+Complimentary breakfast buffet starting at 6:30. Wide range of hot items, cold cereal, eggs prepared 3 different ways, bagels, fruits (which are wrapped and can be taken), etc. 
+Could walk from the hotel to the security check gates at Disneyland in 20 minutes. Even if you park in the satellite lot that shuttles you to your car, you could walk from the shuttle pickup location to the room in less time than it would take the shuttle to get to your car. 
+Lastly, you can buy an additional day of parking for your last day at Disneyland for the $15 valet charge, and that only applies if you're there past 1 pm. But it's $22 (I think) to park in the Toy Story lot and it was more inconvenient. 
+***NOTE*** If you're using your Magic Morning on check...My wife and 2 kids chose to stay here as opposed to the Disneyland Resort and were not disappointed. Checked in and learned all guests must valet their vehicle. $15/day but that was no problem. I came and went a few times over the next 3 days and the valet literally ran to my vehicle every time. The room had 2 queen beds and a sleeper couch. Plenty of room for 2 adults and probably up to 3-4 kids. Satellite TV, WiFi, nice bathroom. Room was in nice condition and we had plenty of pillows (a deal breaker for me and hotels). Complimentary breakfast buffet starting at 6:30. Wide range of hot items, cold cereal, eggs prepared 3 different ways, bagels, fruits (which are wrapped and can be taken), etc. Could walk from the hotel to the security check gates at Disneyland in 20 minutes. Even if you park in the satellite lot that shuttles you to your car, you could walk from the shuttle pickup location to the room in less time than it would take the shuttle to get to your car. Lastly, you can buy an additional day of parking for your last day at Disneyland for the $15 valet charge, and that only applies if you're there past 1 pm. But it's $22 (I think) to park in the Toy Story lot and it was more inconvenient. ***NOTE*** If you're using your Magic Morning on check out day, I HIGHLY recommend just parking at the hotel so you can arrive at the park on your own terms. We lost 20 minutes of our early hour because we didn't just pay the extra day of valet at the hotel and I regret that decision. We parked in the Toy Story lot which opens at 8 (and we still had to shuttle over after that) and that was also the time we could've gone into the park. Great hotel, great amenities, budget conscious, would absolutely recommend to anyone doing a multi-day stay at Disneyland or just travelling with family. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>My wife and 2 kids chose to stay here as opposed to the Disneyland Resort and were not disappointed. 
+Checked in and learned all guests must valet their vehicle. $15/day but that was no problem. I came and went a few times over the next 3 days and the valet literally ran to my vehicle every time. 
+The room had 2 queen beds and a sleeper couch. Plenty of room for 2 adults and probably up to 3-4 kids. Satellite TV, WiFi, nice bathroom. Room was in nice condition and we had plenty of pillows (a deal breaker for me and hotels). 
+Complimentary breakfast buffet starting at 6:30. Wide range of hot items, cold cereal, eggs prepared 3 different ways, bagels, fruits (which are wrapped and can be taken), etc. 
+Could walk from the hotel to the security check gates at Disneyland in 20 minutes. Even if you park in the satellite lot that shuttles you to your car, you could walk from the shuttle pickup location to the room in less time than it would take the shuttle to get to your car. 
+Lastly, you can buy an additional day of parking for your last day at Disneyland for the $15 valet charge, and that only applies if you're there past 1 pm. But it's $22 (I think) to park in the Toy Story lot and it was more inconvenient. 
+***NOTE*** If you're using your Magic Morning on check...My wife and 2 kids chose to stay here as opposed to the Disneyland Resort and were not disappointed. Checked in and learned all guests must valet their vehicle. $15/day but that was no problem. I came and went a few times over the next 3 days and the valet literally ran to my vehicle every time. The room had 2 queen beds and a sleeper couch. Plenty of room for 2 adults and probably up to 3-4 kids. Satellite TV, WiFi, nice bathroom. Room was in nice condition and we had plenty of pillows (a deal breaker for me and hotels). Complimentary breakfast buffet starting at 6:30. Wide range of hot items, cold cereal, eggs prepared 3 different ways, bagels, fruits (which are wrapped and can be taken), etc. Could walk from the hotel to the security check gates at Disneyland in 20 minutes. Even if you park in the satellite lot that shuttles you to your car, you could walk from the shuttle pickup location to the room in less time than it would take the shuttle to get to your car. Lastly, you can buy an additional day of parking for your last day at Disneyland for the $15 valet charge, and that only applies if you're there past 1 pm. But it's $22 (I think) to park in the Toy Story lot and it was more inconvenient. ***NOTE*** If you're using your Magic Morning on check out day, I HIGHLY recommend just parking at the hotel so you can arrive at the park on your own terms. We lost 20 minutes of our early hour because we didn't just pay the extra day of valet at the hotel and I regret that decision. We parked in the Toy Story lot which opens at 8 (and we still had to shuttle over after that) and that was also the time we could've gone into the park. Great hotel, great amenities, budget conscious, would absolutely recommend to anyone doing a multi-day stay at Disneyland or just travelling with family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r452020182-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>452020182</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Good for first-timers going to Disneyland.Close to the parks and makes good time for a family with a short time.Nice hot tub as well.As said before, Great for Families who just want a magical time.Amazing hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Good for first-timers going to Disneyland.Close to the parks and makes good time for a family with a short time.Nice hot tub as well.As said before, Great for Families who just want a magical time.Amazing hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r446376595-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>446376595</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Nice New Hotel</t>
+  </si>
+  <si>
+    <t>We took a quick trip to Disneyland and decided to stay at this Holiday Inn Express. It's new, even smells new when you walk into the room. Breakfast is your typical Holiday Inn fare. The beds were comfortable. The rooms were quiet, for the most part. They have signs posted saying quiet time is from 10 pm to 7 am, and people seemed to honor that but they are definitely noisy (letting kids run down the halls, banging on doors to other rooms, and slamming doors) as soon as it hits 7 am. Everyone is nice. You pay for parking. It's $15 whether you self park or valet park. I highly recommend valet. The valet attendants were nice. There was one that was slacking a bit but it was fine. He was always in the back room. You are about a 15 minute walk from the main gate of Disneyland. It's only a long walk when you have been at the park for 10 hours then have to walk back, then it seems like it takes forever. We enjoyed this property. Very nice, quiet for the most part, friendly staff, clean, comfy. The one suggestion I would make is to have towel racks in the bathroom. There were three of us in our room and there is one hook on the door. There is no place to hang towels. I just thought that was strange. Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>We took a quick trip to Disneyland and decided to stay at this Holiday Inn Express. It's new, even smells new when you walk into the room. Breakfast is your typical Holiday Inn fare. The beds were comfortable. The rooms were quiet, for the most part. They have signs posted saying quiet time is from 10 pm to 7 am, and people seemed to honor that but they are definitely noisy (letting kids run down the halls, banging on doors to other rooms, and slamming doors) as soon as it hits 7 am. Everyone is nice. You pay for parking. It's $15 whether you self park or valet park. I highly recommend valet. The valet attendants were nice. There was one that was slacking a bit but it was fine. He was always in the back room. You are about a 15 minute walk from the main gate of Disneyland. It's only a long walk when you have been at the park for 10 hours then have to walk back, then it seems like it takes forever. We enjoyed this property. Very nice, quiet for the most part, friendly staff, clean, comfy. The one suggestion I would make is to have towel racks in the bathroom. There were three of us in our room and there is one hook on the door. There is no place to hang towels. I just thought that was strange. Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r445654449-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>445654449</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Not a great place for families, light sleepers, or if you want to use the hot tub.</t>
+  </si>
+  <si>
+    <t>I was very disappointed with this hotel.
+Here are my reasons why.
+1. Open porn channels. REALLY? I do not want my kids to happen upon porn and I do not know any families that do.  If you are a family friendly hotel then do away with the porn channel or at the least advise families and give them the option to block it. For this 1 reason alone, I will never return to this hotel nor will I reccommend it.
+2. Hot tub water was extremely dirty.  You would come out smelling like dirty feet.
+3. Bathroom has a sliding door that can not be locked. Terrible for privacy.
+4. The noise from I-5 in the room was horrendous.  I felt like my bed was in the middle of the freeway.  Terrible sleep.
+5. Was strongly encouraged to pay for Valet parking and was told that it was hard to find 
+parking spots that are close by.  I declined and found there were always plenty of spots to park on the other side of the motel next door and it was only a 30 second walk to the front door of the hotel. I would much rather have been told how easy it was to park where I did and save on the valet rather than the valet that was working the front desk try to pad his wallet. I appreciate customer service that looks out for the customer...I was very disappointed with this hotel.Here are my reasons why.1. Open porn channels. REALLY? I do not want my kids to happen upon porn and I do not know any families that do.  If you are a family friendly hotel then do away with the porn channel or at the least advise families and give them the option to block it. For this 1 reason alone, I will never return to this hotel nor will I reccommend it.2. Hot tub water was extremely dirty.  You would come out smelling like dirty feet.3. Bathroom has a sliding door that can not be locked. Terrible for privacy.4. The noise from I-5 in the room was horrendous.  I felt like my bed was in the middle of the freeway.  Terrible sleep.5. Was strongly encouraged to pay for Valet parking and was told that it was hard to find parking spots that are close by.  I declined and found there were always plenty of spots to park on the other side of the motel next door and it was only a 30 second walk to the front door of the hotel. I would much rather have been told how easy it was to park where I did and save on the valet rather than the valet that was working the front desk try to pad his wallet. I appreciate customer service that looks out for the customer and not themselves. Positives1. Kitchen Staff is awesome2. Hotel is close to DisneylandMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>I was very disappointed with this hotel.
+Here are my reasons why.
+1. Open porn channels. REALLY? I do not want my kids to happen upon porn and I do not know any families that do.  If you are a family friendly hotel then do away with the porn channel or at the least advise families and give them the option to block it. For this 1 reason alone, I will never return to this hotel nor will I reccommend it.
+2. Hot tub water was extremely dirty.  You would come out smelling like dirty feet.
+3. Bathroom has a sliding door that can not be locked. Terrible for privacy.
+4. The noise from I-5 in the room was horrendous.  I felt like my bed was in the middle of the freeway.  Terrible sleep.
+5. Was strongly encouraged to pay for Valet parking and was told that it was hard to find 
+parking spots that are close by.  I declined and found there were always plenty of spots to park on the other side of the motel next door and it was only a 30 second walk to the front door of the hotel. I would much rather have been told how easy it was to park where I did and save on the valet rather than the valet that was working the front desk try to pad his wallet. I appreciate customer service that looks out for the customer...I was very disappointed with this hotel.Here are my reasons why.1. Open porn channels. REALLY? I do not want my kids to happen upon porn and I do not know any families that do.  If you are a family friendly hotel then do away with the porn channel or at the least advise families and give them the option to block it. For this 1 reason alone, I will never return to this hotel nor will I reccommend it.2. Hot tub water was extremely dirty.  You would come out smelling like dirty feet.3. Bathroom has a sliding door that can not be locked. Terrible for privacy.4. The noise from I-5 in the room was horrendous.  I felt like my bed was in the middle of the freeway.  Terrible sleep.5. Was strongly encouraged to pay for Valet parking and was told that it was hard to find parking spots that are close by.  I declined and found there were always plenty of spots to park on the other side of the motel next door and it was only a 30 second walk to the front door of the hotel. I would much rather have been told how easy it was to park where I did and save on the valet rather than the valet that was working the front desk try to pad his wallet. I appreciate customer service that looks out for the customer and not themselves. Positives1. Kitchen Staff is awesome2. Hotel is close to DisneylandMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r445082713-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>445082713</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Fabulous!!</t>
+  </si>
+  <si>
+    <t>Excellent front desk staff, both helpful and friendly.  Our room was clean and quiet even with families in the rooms surrounding us.  The breakfast was actually wonderful quality with a large variety of selections.The walk to Disney was around 7/8 minutes to the Disneyland street entrance and another 7/8 minutes to the actual entrance to the parks.  We walked back to the hotel each evening around 11:30pm and there were quite a few families walking around also which made us feel safer.  It was a nice area to be around.  We actually took a kiddo nap break from the parks each afternoon and it was a quick enough walk to do so easily.  Many people around were scrambling for busses and it was nice to not have to worry about catching one and unloading all our gear from our double stroller.Parking is the same price whether or not you use valet or not and it was a shared lot with the motel next door.  We also used the self service laundry rooms and had no trouble with washing and drying our clothes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent front desk staff, both helpful and friendly.  Our room was clean and quiet even with families in the rooms surrounding us.  The breakfast was actually wonderful quality with a large variety of selections.The walk to Disney was around 7/8 minutes to the Disneyland street entrance and another 7/8 minutes to the actual entrance to the parks.  We walked back to the hotel each evening around 11:30pm and there were quite a few families walking around also which made us feel safer.  It was a nice area to be around.  We actually took a kiddo nap break from the parks each afternoon and it was a quick enough walk to do so easily.  Many people around were scrambling for busses and it was nice to not have to worry about catching one and unloading all our gear from our double stroller.Parking is the same price whether or not you use valet or not and it was a shared lot with the motel next door.  We also used the self service laundry rooms and had no trouble with washing and drying our clothes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r443292862-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>443292862</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Great option for a Disneyland visit with kids</t>
+  </si>
+  <si>
+    <t>We stayed here with our 5 and 7 yr old sons and had a great time. 
+The rooms were quite large and comfortable- we had two queen beds then a couch area that could have been used as a bed if needed. We also had a little kitchen area with a fridge, microwave, coffee maker and some cabinet space. The only thing that was awkward was the bathroom door was right up against the entry door so you had to be careful not to bump doors.
+Breakfast is served each morning from 6:30-9:30 every morning and they really had a nice selection. The offered scrambled eggs, sausage patties and sausage and biscuits every morning along with oatmeal, cereals, yogurts, fresh fruit, toast, bagels and cinnamon rolls. They had free coffee/tea/hot chocolate available around the clock. 
+The hotel is about a 10-15 minute walk to the gates of Disneyland. On our early entry morning, we were able to grab a quick breakfast to go at 6:30, walk to DL (with a 5 and 7 yr old!), clear security and get in line at the gate by 6:50!
+The only drawback was the valet parking. I'm not sure why it's needed, as the lot is right there in front of the door. It was awkward to have to remember the parking ticket and walk down to the valet guys every time you wanted to get something out of your car.
+All in...We stayed here with our 5 and 7 yr old sons and had a great time. The rooms were quite large and comfortable- we had two queen beds then a couch area that could have been used as a bed if needed. We also had a little kitchen area with a fridge, microwave, coffee maker and some cabinet space. The only thing that was awkward was the bathroom door was right up against the entry door so you had to be careful not to bump doors.Breakfast is served each morning from 6:30-9:30 every morning and they really had a nice selection. The offered scrambled eggs, sausage patties and sausage and biscuits every morning along with oatmeal, cereals, yogurts, fresh fruit, toast, bagels and cinnamon rolls. They had free coffee/tea/hot chocolate available around the clock. The hotel is about a 10-15 minute walk to the gates of Disneyland. On our early entry morning, we were able to grab a quick breakfast to go at 6:30, walk to DL (with a 5 and 7 yr old!), clear security and get in line at the gate by 6:50!The only drawback was the valet parking. I'm not sure why it's needed, as the lot is right there in front of the door. It was awkward to have to remember the parking ticket and walk down to the valet guys every time you wanted to get something out of your car.All in all, though, this hotel is a gem! It's super clean and very close to Disneyland. The free breakfast saved us both money and time every morning.  We would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here with our 5 and 7 yr old sons and had a great time. 
+The rooms were quite large and comfortable- we had two queen beds then a couch area that could have been used as a bed if needed. We also had a little kitchen area with a fridge, microwave, coffee maker and some cabinet space. The only thing that was awkward was the bathroom door was right up against the entry door so you had to be careful not to bump doors.
+Breakfast is served each morning from 6:30-9:30 every morning and they really had a nice selection. The offered scrambled eggs, sausage patties and sausage and biscuits every morning along with oatmeal, cereals, yogurts, fresh fruit, toast, bagels and cinnamon rolls. They had free coffee/tea/hot chocolate available around the clock. 
+The hotel is about a 10-15 minute walk to the gates of Disneyland. On our early entry morning, we were able to grab a quick breakfast to go at 6:30, walk to DL (with a 5 and 7 yr old!), clear security and get in line at the gate by 6:50!
+The only drawback was the valet parking. I'm not sure why it's needed, as the lot is right there in front of the door. It was awkward to have to remember the parking ticket and walk down to the valet guys every time you wanted to get something out of your car.
+All in...We stayed here with our 5 and 7 yr old sons and had a great time. The rooms were quite large and comfortable- we had two queen beds then a couch area that could have been used as a bed if needed. We also had a little kitchen area with a fridge, microwave, coffee maker and some cabinet space. The only thing that was awkward was the bathroom door was right up against the entry door so you had to be careful not to bump doors.Breakfast is served each morning from 6:30-9:30 every morning and they really had a nice selection. The offered scrambled eggs, sausage patties and sausage and biscuits every morning along with oatmeal, cereals, yogurts, fresh fruit, toast, bagels and cinnamon rolls. They had free coffee/tea/hot chocolate available around the clock. The hotel is about a 10-15 minute walk to the gates of Disneyland. On our early entry morning, we were able to grab a quick breakfast to go at 6:30, walk to DL (with a 5 and 7 yr old!), clear security and get in line at the gate by 6:50!The only drawback was the valet parking. I'm not sure why it's needed, as the lot is right there in front of the door. It was awkward to have to remember the parking ticket and walk down to the valet guys every time you wanted to get something out of your car.All in all, though, this hotel is a gem! It's super clean and very close to Disneyland. The free breakfast saved us both money and time every morning.  We would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r441953824-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>441953824</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New favorite Disneyland home base!</t>
+  </si>
+  <si>
+    <t>We have stayed at the Anaheim Fairfield Inn a few times in the past.  The HI Express, next door (facing I-5) is hands down superior.  What it lacks (an extra 5 minute walk to Disneyland when compared to Fairfield) is more than made up with a great free breakfast, better nightly rates, and the comfortable rooms.  The noise from I-5 was not noticeable to me but our AC was on most the time at night.  Front desk staff accommodated us quickly with extra pillows and blankets.  Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at the Anaheim Fairfield Inn a few times in the past.  The HI Express, next door (facing I-5) is hands down superior.  What it lacks (an extra 5 minute walk to Disneyland when compared to Fairfield) is more than made up with a great free breakfast, better nightly rates, and the comfortable rooms.  The noise from I-5 was not noticeable to me but our AC was on most the time at night.  Front desk staff accommodated us quickly with extra pillows and blankets.  Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r435460129-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>435460129</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel, very clean, not too close to Disney that it's wild and crazy but close enough for a rental car to go enjoy the day. Nice and clean. Staff was super friendly. We also seen a Disney shuttle and airport shuttle service. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel, very clean, not too close to Disney that it's wild and crazy but close enough for a rental car to go enjoy the day. Nice and clean. Staff was super friendly. We also seen a Disney shuttle and airport shuttle service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r430918321-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>430918321</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel but crappy Accounting</t>
+  </si>
+  <si>
+    <t>The hotel room was nice, comfortable bed and nice staff.  My only problem is the accounting process.  When I checked in, my confirmation was under one name with me as a secondary guest.  I asked that my room be changed to my name, using my IHG Reward Club number, and gave my credit card to associate for my room.  The front desk manager assured me he would update my room. Day two, I asked to confirm the changes had been made and I was assured all was all in order.  At check out, my VISA was charged however, I did not get the IHG Reward Club points. When I called to follow up, I was told the reservation had not been updated and someone else received my points.  I will never allow anyone else to make my reservations for me again, because IHG is not capable of dealing with business travelers.  This was not a complex issue, however IHG made it that way.  Very disappointed, I was cheated out of my points.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>The hotel room was nice, comfortable bed and nice staff.  My only problem is the accounting process.  When I checked in, my confirmation was under one name with me as a secondary guest.  I asked that my room be changed to my name, using my IHG Reward Club number, and gave my credit card to associate for my room.  The front desk manager assured me he would update my room. Day two, I asked to confirm the changes had been made and I was assured all was all in order.  At check out, my VISA was charged however, I did not get the IHG Reward Club points. When I called to follow up, I was told the reservation had not been updated and someone else received my points.  I will never allow anyone else to make my reservations for me again, because IHG is not capable of dealing with business travelers.  This was not a complex issue, however IHG made it that way.  Very disappointed, I was cheated out of my points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r430630991-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>430630991</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Close to Disneyland</t>
+  </si>
+  <si>
+    <t>Stayed one night after a long flight from Sydney Australia. Checked in around 8:30am room not ready as expected so spent a few hours in Disneyland. The staff were great and helpful. Returned at 2pm and got to the room it was nice and clean and well worth the price. Would be the first place I would look for the next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night after a long flight from Sydney Australia. Checked in around 8:30am room not ready as expected so spent a few hours in Disneyland. The staff were great and helpful. Returned at 2pm and got to the room it was nice and clean and well worth the price. Would be the first place I would look for the next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r428991900-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>428991900</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabulous </t>
+  </si>
+  <si>
+    <t>We had a great time here. Excellent rooms, great pool, very clean and such friendly staff. The hotel is very new and modern and the breakfasts were great too. A pleasure to stay here. Will be back again. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great time here. Excellent rooms, great pool, very clean and such friendly staff. The hotel is very new and modern and the breakfasts were great too. A pleasure to stay here. Will be back again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r426112401-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>426112401</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Wonderful hotel with great staff</t>
+  </si>
+  <si>
+    <t>What a great experience at this Holiday Inn Express.  Rooms were very clean and spacious.  Beds were very comfortable and staff was very friendly and accommodating.   About a 10-15 min walk to the gates and very accessible.  Would definitely stay here again.   Pricing was reasonable considering the surrounding hotels.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>What a great experience at this Holiday Inn Express.  Rooms were very clean and spacious.  Beds were very comfortable and staff was very friendly and accommodating.   About a 10-15 min walk to the gates and very accessible.  Would definitely stay here again.   Pricing was reasonable considering the surrounding hotels.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r425627354-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>425627354</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Great location !</t>
+  </si>
+  <si>
+    <t>Staff members where great and very helpful . Great location for Disney only a five min walk . Close to restaurants . Breakfast bit disappointing not many options , but still enjoyable. Room was clean and very modern . Great for family's MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded October 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2016</t>
+  </si>
+  <si>
+    <t>Staff members where great and very helpful . Great location for Disney only a five min walk . Close to restaurants . Breakfast bit disappointing not many options , but still enjoyable. Room was clean and very modern . Great for family's More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r422887306-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>422887306</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Penthouse listing inaccurate</t>
+  </si>
+  <si>
+    <t>I booked the Penthouse Suite for my family of 5 for a 4 night stay, eight months ago.  The listing says that it accommodates 6 people, after a few months I called to see how does it fit 6 people when there are only two beds, and the very long couch is curved.  I was told that it only accommodates 4, and I could not have 5 stay there.  They offered to give me a much smaller room without the views and perks of the penthouse for $20 per night credit.  My family was so excited about having the fireworks views since we will be arriving after dark on our first night.  I could do better than $20 off by rebooking it myself.  So basically I was offered nothing for their error.  (Site still says accommodates 6, and I made them aware 3 months ago.)This is actually my second time trying to stay there, last year I booked in October, but the hotel was not built yet, and they had to cancel my reservation just a few weeks out, which left me with very limited choices for our trip.  The management needs to get their act together.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>I booked the Penthouse Suite for my family of 5 for a 4 night stay, eight months ago.  The listing says that it accommodates 6 people, after a few months I called to see how does it fit 6 people when there are only two beds, and the very long couch is curved.  I was told that it only accommodates 4, and I could not have 5 stay there.  They offered to give me a much smaller room without the views and perks of the penthouse for $20 per night credit.  My family was so excited about having the fireworks views since we will be arriving after dark on our first night.  I could do better than $20 off by rebooking it myself.  So basically I was offered nothing for their error.  (Site still says accommodates 6, and I made them aware 3 months ago.)This is actually my second time trying to stay there, last year I booked in October, but the hotel was not built yet, and they had to cancel my reservation just a few weeks out, which left me with very limited choices for our trip.  The management needs to get their act together.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r421315084-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>421315084</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Best hotel!</t>
+  </si>
+  <si>
+    <t>we just got back from a 7 night stay there and I just had to share it was amazing!!  It's a new hotel, opened in February so everything is still shiney and new feeling.   The staff were so nice, totally above and beyond.   It was about a ten minute walk to the park which you can cross and walk alone (not in the pack of people) on harbor.   The best part about the hotel is free breakfast!  The downside is if you have a car they charge to park and the towels were a bit rough.   This hotel really met all of our wants so I had to share. :)  We will be back next year!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>we just got back from a 7 night stay there and I just had to share it was amazing!!  It's a new hotel, opened in February so everything is still shiney and new feeling.   The staff were so nice, totally above and beyond.   It was about a ten minute walk to the park which you can cross and walk alone (not in the pack of people) on harbor.   The best part about the hotel is free breakfast!  The downside is if you have a car they charge to park and the towels were a bit rough.   This hotel really met all of our wants so I had to share. :)  We will be back next year!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r420004601-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>420004601</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Trying a new hotel - so close...</t>
+  </si>
+  <si>
+    <t>We travel.  A lot. We are pretty easy going, but expect quality and value. We stay in wide range of price points, from inexpensive to the Four Seasons and the Ritz. The LO LOVES hotels. First of all, make sure you have the correct Holiday Inn, there's like 4 of them around. This is a pretty new property near Disneyland. The lobby is clean and new.  There's only valet parking and you have to pay for it. The room (king with sofa bed) is clean and comfortable, if a bit expensive for what I expect from IHG. It was quiet for the LO to nap. The weird thing about this hotel is that there is no tub/shower, only a shower. It was tough because the LO only wants to take a bath. The breakfast is surprisingly good.  I've eaten at a lot of Holiday Inn's and I prefer not to eat anything but oatmeal or cereal. This property was a welcome change. Maybe the whole chain is changing. The eggs were fresher and lighter, the sausage (link and patty) were decent. I actually sat down for a breakfast snack. Well worth it.  We'll be backMoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>We travel.  A lot. We are pretty easy going, but expect quality and value. We stay in wide range of price points, from inexpensive to the Four Seasons and the Ritz. The LO LOVES hotels. First of all, make sure you have the correct Holiday Inn, there's like 4 of them around. This is a pretty new property near Disneyland. The lobby is clean and new.  There's only valet parking and you have to pay for it. The room (king with sofa bed) is clean and comfortable, if a bit expensive for what I expect from IHG. It was quiet for the LO to nap. The weird thing about this hotel is that there is no tub/shower, only a shower. It was tough because the LO only wants to take a bath. The breakfast is surprisingly good.  I've eaten at a lot of Holiday Inn's and I prefer not to eat anything but oatmeal or cereal. This property was a welcome change. Maybe the whole chain is changing. The eggs were fresher and lighter, the sausage (link and patty) were decent. I actually sat down for a breakfast snack. Well worth it.  We'll be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r419980016-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>419980016</t>
+  </si>
+  <si>
+    <t>Great Disney stay</t>
+  </si>
+  <si>
+    <t>This hotel is in good walking distance to the parks about a 10 minute stroll. It's reasonably new so it is very clean and up to date. Breakfast is good and included all you can eat. The pancakes more than satisfied the kids. Staff are friendly and the choice of pillows is great, I always find it hard in hotels to get good pillows but this hotel has plenty to choose from.  Only complaint was the aircon is a bit fidely it's either off or cold. Pool is sufficient as well. Let's be honest the only reason you are here is for Disneyland and this hotel is amongst so many but if your looking for a cheaper option which includes breakfast it ticks all the boxes. We would consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in good walking distance to the parks about a 10 minute stroll. It's reasonably new so it is very clean and up to date. Breakfast is good and included all you can eat. The pancakes more than satisfied the kids. Staff are friendly and the choice of pillows is great, I always find it hard in hotels to get good pillows but this hotel has plenty to choose from.  Only complaint was the aircon is a bit fidely it's either off or cold. Pool is sufficient as well. Let's be honest the only reason you are here is for Disneyland and this hotel is amongst so many but if your looking for a cheaper option which includes breakfast it ticks all the boxes. We would consider staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r418480601-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>418480601</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Disneyland trip</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for our trip to Disneyland.  When we checked in, the front desk staff was very nice, they even gave us a room upgrade since we were platinum members.  The rooms are very clean spacious and has everything you would need including a fridge and microwave.  Location was excellent.  You can easily walk to Disneyland.  It is as convenient as staying at the Disneyland Hotel at 1/5th the price.  It is a newer hotel so you don't have to stay in a dump like some of the motels around the park.  I considered not writing a review because I wanted to keep this place a secret, but the people here are great and they deserve a good review.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for our trip to Disneyland.  When we checked in, the front desk staff was very nice, they even gave us a room upgrade since we were platinum members.  The rooms are very clean spacious and has everything you would need including a fridge and microwave.  Location was excellent.  You can easily walk to Disneyland.  It is as convenient as staying at the Disneyland Hotel at 1/5th the price.  It is a newer hotel so you don't have to stay in a dump like some of the motels around the park.  I considered not writing a review because I wanted to keep this place a secret, but the people here are great and they deserve a good review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r417767884-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>417767884</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Recently stayed here. The front desk staff were very friendly. Check-in went smoothly. The hotel is a quick walk to Disneyland and there are numerous restaurants around the area to enjoy. Rooms are large and clean. My only disappointment was the breakfast area had no cinnamon rolls due to an out of order warmer. Hopefully one is on its way! Overall great stay and I will be staying here again for my next Disney trip! MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Recently stayed here. The front desk staff were very friendly. Check-in went smoothly. The hotel is a quick walk to Disneyland and there are numerous restaurants around the area to enjoy. Rooms are large and clean. My only disappointment was the breakfast area had no cinnamon rolls due to an out of order warmer. Hopefully one is on its way! Overall great stay and I will be staying here again for my next Disney trip! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r417763745-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>417763745</t>
+  </si>
+  <si>
+    <t>Disneyland HI Express</t>
+  </si>
+  <si>
+    <t>This hotel is just a 5 minute walk to Disneyland.  The proximity is great for families with young children.  We even had a front row seat to the Disney fireworks from our hotel room window.  It does face the Santa Ana Freeway, but you can not hear the traffic from inside the hotel.  This is a brand new hotel so it was very clean and updated.  The breakfast room is very large, which did make it a bit noisy, but the breakfast was excellent.  The staff was very accommodating and friendly.  I would stay here again.    MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is just a 5 minute walk to Disneyland.  The proximity is great for families with young children.  We even had a front row seat to the Disney fireworks from our hotel room window.  It does face the Santa Ana Freeway, but you can not hear the traffic from inside the hotel.  This is a brand new hotel so it was very clean and updated.  The breakfast room is very large, which did make it a bit noisy, but the breakfast was excellent.  The staff was very accommodating and friendly.  I would stay here again.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r417509471-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>417509471</t>
+  </si>
+  <si>
+    <t>Great place to stay very close to Disneyland</t>
+  </si>
+  <si>
+    <t>Stayed here to do the Disneyland Half Marathon. Was so impressed with the facilities and service.  Danny set us up in a room away from the freeway so it was quite and was so welcoming.  The room was large enough that 4 people did not feel in each others way.  The room and bathroom were clean, the bed comfy, pillows comfortable, air at just the right temp. The cleaning staff was exceptional and checked on us later in the day to make sure all was satisfactory.  The breakfast was delicious and substantial.  Upon coming back from the Half marathon they had a goody bag of fruit, granola bar and water for our enjoyment.  The staff was really helpful, when we needed something out of the car they brought it to us and expected nothing in return.  The walk to the front gates of Disneyland was only a 10min walk, which really was a bonus after doing all the races we did!  We will definitely stay here again when coming to Disneyland!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here to do the Disneyland Half Marathon. Was so impressed with the facilities and service.  Danny set us up in a room away from the freeway so it was quite and was so welcoming.  The room was large enough that 4 people did not feel in each others way.  The room and bathroom were clean, the bed comfy, pillows comfortable, air at just the right temp. The cleaning staff was exceptional and checked on us later in the day to make sure all was satisfactory.  The breakfast was delicious and substantial.  Upon coming back from the Half marathon they had a goody bag of fruit, granola bar and water for our enjoyment.  The staff was really helpful, when we needed something out of the car they brought it to us and expected nothing in return.  The walk to the front gates of Disneyland was only a 10min walk, which really was a bonus after doing all the races we did!  We will definitely stay here again when coming to Disneyland!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r417193005-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>417193005</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Only a few minutes walk to Disney. This hotel is very friendly, clean. Room are very large 2 queen bed sand sofa. They supply a free breakfast which is adaquate. Pool area nice and clean. Would highly recommend a stay here very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Only a few minutes walk to Disney. This hotel is very friendly, clean. Room are very large 2 queen bed sand sofa. They supply a free breakfast which is adaquate. Pool area nice and clean. Would highly recommend a stay here very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r416778192-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>416778192</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel Near Disneyland</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel located at a 15 minutes or less walk to Disneyland.  The staff is very polite and the room was very comfortable.  The breakfast was also included and it was very good.  If you prefer not to drive, there are several options to visit other areas outside of Anaheim.  You can use the city and the state transportation systems.  You can also use Uber, Lyft, and Super Shuttle, among other companies.  I used Lyft to get from the LAX airport to the hotel.  I used Uber to go to Irvine, Los Angeles, and Newport Beach. I also used Super Shuttle to go to the LAX airport.  There are also several restaurants at a walking distance from the hotel.  Great hotel with a very nice staff and at a great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel located at a 15 minutes or less walk to Disneyland.  The staff is very polite and the room was very comfortable.  The breakfast was also included and it was very good.  If you prefer not to drive, there are several options to visit other areas outside of Anaheim.  You can use the city and the state transportation systems.  You can also use Uber, Lyft, and Super Shuttle, among other companies.  I used Lyft to get from the LAX airport to the hotel.  I used Uber to go to Irvine, Los Angeles, and Newport Beach. I also used Super Shuttle to go to the LAX airport.  There are also several restaurants at a walking distance from the hotel.  Great hotel with a very nice staff and at a great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r411212639-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>411212639</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Nice new hotel next to Disneyland</t>
+  </si>
+  <si>
+    <t>This is a new hotel, open about 1 year. Our room was spacious – with a couch that could serve as bed if necessary. The bathroom was spacious and functioned well, although the clothing hook on the bathroom door was at a height that nearly hit my eye when I opened the bathroom door and leaned out. There is a small sink adjacent to the room refrigerator which was convenient when more than one person needed a sink. The room seemed well-insulated from external noises. Air conditioning was effective and relatively quiet. Beds were very comfortable and room was quiet. Wi-Fi was fine for our basic needs.
+The breakfast room was spacious with good variety of hot foods, including sausage or bacon, biscuits and gravy, scrambled eggs, warm cinnamon buns, cold cereal, bananas and apples, mini-muffins, yogurt and juice. The room was never crowded before 730AM. Coffee was available 24-7. Having the breakfast gave us lots of energy for Disneyland and saved us money and time over having to eat at a sit-down restaurant.
+Staff were friendly. The room price was better than for nearby hotels, especially when including the free breakfast and lower price for parking. The hotel is a bit further from Disneyland entrance than other hotels along Harbor Blvd, but it is still only a 15 minute walk to the park. On hot afternoons, it was nice having a McDonalds in between the park and hotel for...This is a new hotel, open about 1 year. Our room was spacious – with a couch that could serve as bed if necessary. The bathroom was spacious and functioned well, although the clothing hook on the bathroom door was at a height that nearly hit my eye when I opened the bathroom door and leaned out. There is a small sink adjacent to the room refrigerator which was convenient when more than one person needed a sink. The room seemed well-insulated from external noises. Air conditioning was effective and relatively quiet. Beds were very comfortable and room was quiet. Wi-Fi was fine for our basic needs.The breakfast room was spacious with good variety of hot foods, including sausage or bacon, biscuits and gravy, scrambled eggs, warm cinnamon buns, cold cereal, bananas and apples, mini-muffins, yogurt and juice. The room was never crowded before 730AM. Coffee was available 24-7. Having the breakfast gave us lots of energy for Disneyland and saved us money and time over having to eat at a sit-down restaurant.Staff were friendly. The room price was better than for nearby hotels, especially when including the free breakfast and lower price for parking. The hotel is a bit further from Disneyland entrance than other hotels along Harbor Blvd, but it is still only a 15 minute walk to the park. On hot afternoons, it was nice having a McDonalds in between the park and hotel for a quick refreshing treat. Our west-facing room on the 2nd floor had a view of the fireworks despite having another hotel between us and Disneyland. The hotel was comfortable and a good value for Disneyland-area lodging.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>This is a new hotel, open about 1 year. Our room was spacious – with a couch that could serve as bed if necessary. The bathroom was spacious and functioned well, although the clothing hook on the bathroom door was at a height that nearly hit my eye when I opened the bathroom door and leaned out. There is a small sink adjacent to the room refrigerator which was convenient when more than one person needed a sink. The room seemed well-insulated from external noises. Air conditioning was effective and relatively quiet. Beds were very comfortable and room was quiet. Wi-Fi was fine for our basic needs.
+The breakfast room was spacious with good variety of hot foods, including sausage or bacon, biscuits and gravy, scrambled eggs, warm cinnamon buns, cold cereal, bananas and apples, mini-muffins, yogurt and juice. The room was never crowded before 730AM. Coffee was available 24-7. Having the breakfast gave us lots of energy for Disneyland and saved us money and time over having to eat at a sit-down restaurant.
+Staff were friendly. The room price was better than for nearby hotels, especially when including the free breakfast and lower price for parking. The hotel is a bit further from Disneyland entrance than other hotels along Harbor Blvd, but it is still only a 15 minute walk to the park. On hot afternoons, it was nice having a McDonalds in between the park and hotel for...This is a new hotel, open about 1 year. Our room was spacious – with a couch that could serve as bed if necessary. The bathroom was spacious and functioned well, although the clothing hook on the bathroom door was at a height that nearly hit my eye when I opened the bathroom door and leaned out. There is a small sink adjacent to the room refrigerator which was convenient when more than one person needed a sink. The room seemed well-insulated from external noises. Air conditioning was effective and relatively quiet. Beds were very comfortable and room was quiet. Wi-Fi was fine for our basic needs.The breakfast room was spacious with good variety of hot foods, including sausage or bacon, biscuits and gravy, scrambled eggs, warm cinnamon buns, cold cereal, bananas and apples, mini-muffins, yogurt and juice. The room was never crowded before 730AM. Coffee was available 24-7. Having the breakfast gave us lots of energy for Disneyland and saved us money and time over having to eat at a sit-down restaurant.Staff were friendly. The room price was better than for nearby hotels, especially when including the free breakfast and lower price for parking. The hotel is a bit further from Disneyland entrance than other hotels along Harbor Blvd, but it is still only a 15 minute walk to the park. On hot afternoons, it was nice having a McDonalds in between the park and hotel for a quick refreshing treat. Our west-facing room on the 2nd floor had a view of the fireworks despite having another hotel between us and Disneyland. The hotel was comfortable and a good value for Disneyland-area lodging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r411073434-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>411073434</t>
+  </si>
+  <si>
+    <t>Perfect stay after a long day at Disneyland</t>
+  </si>
+  <si>
+    <t>After reading reviews on Trip Advisor I decided to book our one night stay at the Holiday Inn. The three of us were pleasantly surprised with our room and the hotel grounds. We were exhausted from our Disney day and were happy that breakfast was served until 9:30, this allowed us to sleep in a little. Looking forward to staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading reviews on Trip Advisor I decided to book our one night stay at the Holiday Inn. The three of us were pleasantly surprised with our room and the hotel grounds. We were exhausted from our Disney day and were happy that breakfast was served until 9:30, this allowed us to sleep in a little. Looking forward to staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r410040300-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>410040300</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Great home base for Disney</t>
+  </si>
+  <si>
+    <t>This hotel was clean, well laid out, with amazing firm beds. The location is great-- it was an easy walk to come back to the hotel mid-day to relax and then return to the parks for the evening. Breakfast was a zoo during prime time, but we made a point of going down as soon as we woke up to avoid the crowds.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was clean, well laid out, with amazing firm beds. The location is great-- it was an easy walk to come back to the hotel mid-day to relax and then return to the parks for the evening. Breakfast was a zoo during prime time, but we made a point of going down as soon as we woke up to avoid the crowds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r404729121-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>404729121</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Fantastic 9 night stay</t>
+  </si>
+  <si>
+    <t>Just came back from a wonderful 9 night stay at this hotel.  I think it would be very difficult to do better then this property if visiting Disneyland and the other SoCal or LA sights.
+We arrived and were greeted by a nice and professional front desk person and got checked in very quickly.  Was fortunate to get an upgrade to a "Enchanted Suite".  Room was very good size, did not have a separate living area as such, but 2 queen beds and a large L-shaped couch which doubled as a pull out.  Basically had the pull out open the entire time and still had plenty of space to move around.  Rooms was exceptionally clean and well equipped.  Many lamps, good iron and ironing board, kurig machine, good sized mini fridge, microwave, USB plugs, ect.  Had a nice large HD TV with tons and tons of channels, including some premium movie channels.  More channels actually than I had ever seen at a hotel.  Temperature was easily controlled.  Bathroom was regular sized the a curved shower curtain and lots of hot (or cool after a day at the park!) water.  I'd say the only thing that was lacking in the room is drawer space, but I assume that most people don't stay here as long as we did.
+Like all HI Expresses, this hotel offered a few breakfast, and it was the standard HI Express fare.  The only thing that they...Just came back from a wonderful 9 night stay at this hotel.  I think it would be very difficult to do better then this property if visiting Disneyland and the other SoCal or LA sights.We arrived and were greeted by a nice and professional front desk person and got checked in very quickly.  Was fortunate to get an upgrade to a "Enchanted Suite".  Room was very good size, did not have a separate living area as such, but 2 queen beds and a large L-shaped couch which doubled as a pull out.  Basically had the pull out open the entire time and still had plenty of space to move around.  Rooms was exceptionally clean and well equipped.  Many lamps, good iron and ironing board, kurig machine, good sized mini fridge, microwave, USB plugs, ect.  Had a nice large HD TV with tons and tons of channels, including some premium movie channels.  More channels actually than I had ever seen at a hotel.  Temperature was easily controlled.  Bathroom was regular sized the a curved shower curtain and lots of hot (or cool after a day at the park!) water.  I'd say the only thing that was lacking in the room is drawer space, but I assume that most people don't stay here as long as we did.Like all HI Expresses, this hotel offered a few breakfast, and it was the standard HI Express fare.  The only thing that they seems to change was that they would alternate the bacon and the sausage.  Tons of choices, but.. did get a little monotonous after 10 mornings.. staff were super nice and kept everything fully stocked all the time.  And the breakfast area is very large, we never had an issue getting a table.The common spaces were also beautiful and very modern.  There is a big lounge right in front of the front desk which has a TV running mostly kids movies.  By the front desk is also where the business centers is.  I was presently surprised to see that the computers and printers worked perfectly, and obviously they keep them "clean", as I saved something on the desktop and forgot to remove it, and it was gone the next morning.  Near front desk is also where they have the "vending" items (no vending machines) which I know is the new trend at hotels.  The was quite a bit of variety, only thing missing was ice cream items.  Hotel also had a really nice pool area with incredibly comfortable loungers (I could have slept over night there lol) a fairly deep pool (up to 5ft), very hot hot tub and a small kids spray park.  Hotel also had a small gym and laundry facilities.  (see pics)From a location perspective, hotel is perfect.  It's a quick 8 minute walk to Disney and there are quite a few restaurants on the way there (or back) including the yummy pizza press.  Hotel is also close to the on-ramps for highway 5, so it's convenient if you are heading south to the beaches or north toward LA or Universal.We had a car for 4 of the days and did the valet parking.  $15 a day which is in line with other hotels in the area.  All valet staff were very pleasant and my car was always ready when I got down.  They have a very simple way of managing the cars, you text your car number some 10 minutes before you are ready to go and they text you back to let you know your car is ready.And all the front desk staff that I came across were really outstanding.  Very courteous and knowledgeable.  I'd always get a "have a great day" on the way out and a "how was your day?" on the way back.  Everyone seemed genuinely happy to be working there.      So there you have it, again great new hotel that I would absolutely recommend.  I've included quite a few photos as they seemed to be lacking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Just came back from a wonderful 9 night stay at this hotel.  I think it would be very difficult to do better then this property if visiting Disneyland and the other SoCal or LA sights.
+We arrived and were greeted by a nice and professional front desk person and got checked in very quickly.  Was fortunate to get an upgrade to a "Enchanted Suite".  Room was very good size, did not have a separate living area as such, but 2 queen beds and a large L-shaped couch which doubled as a pull out.  Basically had the pull out open the entire time and still had plenty of space to move around.  Rooms was exceptionally clean and well equipped.  Many lamps, good iron and ironing board, kurig machine, good sized mini fridge, microwave, USB plugs, ect.  Had a nice large HD TV with tons and tons of channels, including some premium movie channels.  More channels actually than I had ever seen at a hotel.  Temperature was easily controlled.  Bathroom was regular sized the a curved shower curtain and lots of hot (or cool after a day at the park!) water.  I'd say the only thing that was lacking in the room is drawer space, but I assume that most people don't stay here as long as we did.
+Like all HI Expresses, this hotel offered a few breakfast, and it was the standard HI Express fare.  The only thing that they...Just came back from a wonderful 9 night stay at this hotel.  I think it would be very difficult to do better then this property if visiting Disneyland and the other SoCal or LA sights.We arrived and were greeted by a nice and professional front desk person and got checked in very quickly.  Was fortunate to get an upgrade to a "Enchanted Suite".  Room was very good size, did not have a separate living area as such, but 2 queen beds and a large L-shaped couch which doubled as a pull out.  Basically had the pull out open the entire time and still had plenty of space to move around.  Rooms was exceptionally clean and well equipped.  Many lamps, good iron and ironing board, kurig machine, good sized mini fridge, microwave, USB plugs, ect.  Had a nice large HD TV with tons and tons of channels, including some premium movie channels.  More channels actually than I had ever seen at a hotel.  Temperature was easily controlled.  Bathroom was regular sized the a curved shower curtain and lots of hot (or cool after a day at the park!) water.  I'd say the only thing that was lacking in the room is drawer space, but I assume that most people don't stay here as long as we did.Like all HI Expresses, this hotel offered a few breakfast, and it was the standard HI Express fare.  The only thing that they seems to change was that they would alternate the bacon and the sausage.  Tons of choices, but.. did get a little monotonous after 10 mornings.. staff were super nice and kept everything fully stocked all the time.  And the breakfast area is very large, we never had an issue getting a table.The common spaces were also beautiful and very modern.  There is a big lounge right in front of the front desk which has a TV running mostly kids movies.  By the front desk is also where the business centers is.  I was presently surprised to see that the computers and printers worked perfectly, and obviously they keep them "clean", as I saved something on the desktop and forgot to remove it, and it was gone the next morning.  Near front desk is also where they have the "vending" items (no vending machines) which I know is the new trend at hotels.  The was quite a bit of variety, only thing missing was ice cream items.  Hotel also had a really nice pool area with incredibly comfortable loungers (I could have slept over night there lol) a fairly deep pool (up to 5ft), very hot hot tub and a small kids spray park.  Hotel also had a small gym and laundry facilities.  (see pics)From a location perspective, hotel is perfect.  It's a quick 8 minute walk to Disney and there are quite a few restaurants on the way there (or back) including the yummy pizza press.  Hotel is also close to the on-ramps for highway 5, so it's convenient if you are heading south to the beaches or north toward LA or Universal.We had a car for 4 of the days and did the valet parking.  $15 a day which is in line with other hotels in the area.  All valet staff were very pleasant and my car was always ready when I got down.  They have a very simple way of managing the cars, you text your car number some 10 minutes before you are ready to go and they text you back to let you know your car is ready.And all the front desk staff that I came across were really outstanding.  Very courteous and knowledgeable.  I'd always get a "have a great day" on the way out and a "how was your day?" on the way back.  Everyone seemed genuinely happy to be working there.      So there you have it, again great new hotel that I would absolutely recommend.  I've included quite a few photos as they seemed to be lacking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r404166486-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>404166486</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Nice place. I wish the rest of Holiday Inns were like this</t>
+  </si>
+  <si>
+    <t>Clean/ new place. Professional staff. If i come again, i use here. For future: It was useful if they have kettle inside. Some ppl don't drink coffee but tea. They use paper made plates and glasses for breakfast. it is good. But I suggest them to totally replace the plastic knives and spoons and other glasses with paper bags. Please be environmentally friendly it goes a long way. I understand this is H I policy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded August 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2016</t>
+  </si>
+  <si>
+    <t>Clean/ new place. Professional staff. If i come again, i use here. For future: It was useful if they have kettle inside. Some ppl don't drink coffee but tea. They use paper made plates and glasses for breakfast. it is good. But I suggest them to totally replace the plastic knives and spoons and other glasses with paper bags. Please be environmentally friendly it goes a long way. I understand this is H I policy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r403829071-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>403829071</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Nice New Hotel!  Great for families visiting Disneyland.</t>
+  </si>
+  <si>
+    <t>I really liked this hotel.  It was new, clean and had breakfast included.  It is a bit of a walk to the park for younger families and the shuttle is a short walk away.  The room was spacious and had a great bed, I liked the room layout and the furnishings and art.  There is quite a bit of noise from the freeway that you can hear in the room and they could use some white noise machines or offer earplugs. The breakfast was scrambled eggs, sausage, yogurt, toast and jam, juice milk and coffee.  Its all pre-made or steam cooked but its quick and easy.  The front desk staff were nice as well as the fellows parking the cars.  I plan on staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>I really liked this hotel.  It was new, clean and had breakfast included.  It is a bit of a walk to the park for younger families and the shuttle is a short walk away.  The room was spacious and had a great bed, I liked the room layout and the furnishings and art.  There is quite a bit of noise from the freeway that you can hear in the room and they could use some white noise machines or offer earplugs. The breakfast was scrambled eggs, sausage, yogurt, toast and jam, juice milk and coffee.  Its all pre-made or steam cooked but its quick and easy.  The front desk staff were nice as well as the fellows parking the cars.  I plan on staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r400259736-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>400259736</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, new and clean</t>
+  </si>
+  <si>
+    <t>New hotel, nice and very clean. Rooms very spacious and beds are really comfortable. Easy walk to Disneyland's main entrance. Staff are friendly; we were checked in by Rebecca who checked us in very quickly. We stayed for 6 nights at one of the Enchanted 2 Queen Suites, I called a couple of days prior to arrival and spoke to Savannah, I asked her if we could request a room on a higher floor not facing the freeway. She explained they can't guarantee anything as the rooms are assigned on the day of arrival, however that she would put a request on our reservation, she even said there are few of those rooms that have a view of the fireworks. I was so pleased to be put on a room that had a great view of the fireworks! We just had to open the curtains, turn the lights off, lay on the sofa and enjoy them......THANKS SO MUCH Savannah!!
+The rooms have modern amenities like MANY plugs (really needed now days with every member of the family carrying at least two electronic devices), there are even two USB plugs directly on the wall between the beds. 
+We truly enjoyed our stay and would definitely stay there again, however there are a few things I guess they could improve. The most important, the laundry room!! there is only ONE washer and ONE dryer for the entire hotel. Another thing is the...New hotel, nice and very clean. Rooms very spacious and beds are really comfortable. Easy walk to Disneyland's main entrance. Staff are friendly; we were checked in by Rebecca who checked us in very quickly. We stayed for 6 nights at one of the Enchanted 2 Queen Suites, I called a couple of days prior to arrival and spoke to Savannah, I asked her if we could request a room on a higher floor not facing the freeway. She explained they can't guarantee anything as the rooms are assigned on the day of arrival, however that she would put a request on our reservation, she even said there are few of those rooms that have a view of the fireworks. I was so pleased to be put on a room that had a great view of the fireworks! We just had to open the curtains, turn the lights off, lay on the sofa and enjoy them......THANKS SO MUCH Savannah!!The rooms have modern amenities like MANY plugs (really needed now days with every member of the family carrying at least two electronic devices), there are even two USB plugs directly on the wall between the beds. We truly enjoyed our stay and would definitely stay there again, however there are a few things I guess they could improve. The most important, the laundry room!! there is only ONE washer and ONE dryer for the entire hotel. Another thing is the lighting in the rooms, there is one lamp between the beds, however no reading lights above the beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>New hotel, nice and very clean. Rooms very spacious and beds are really comfortable. Easy walk to Disneyland's main entrance. Staff are friendly; we were checked in by Rebecca who checked us in very quickly. We stayed for 6 nights at one of the Enchanted 2 Queen Suites, I called a couple of days prior to arrival and spoke to Savannah, I asked her if we could request a room on a higher floor not facing the freeway. She explained they can't guarantee anything as the rooms are assigned on the day of arrival, however that she would put a request on our reservation, she even said there are few of those rooms that have a view of the fireworks. I was so pleased to be put on a room that had a great view of the fireworks! We just had to open the curtains, turn the lights off, lay on the sofa and enjoy them......THANKS SO MUCH Savannah!!
+The rooms have modern amenities like MANY plugs (really needed now days with every member of the family carrying at least two electronic devices), there are even two USB plugs directly on the wall between the beds. 
+We truly enjoyed our stay and would definitely stay there again, however there are a few things I guess they could improve. The most important, the laundry room!! there is only ONE washer and ONE dryer for the entire hotel. Another thing is the...New hotel, nice and very clean. Rooms very spacious and beds are really comfortable. Easy walk to Disneyland's main entrance. Staff are friendly; we were checked in by Rebecca who checked us in very quickly. We stayed for 6 nights at one of the Enchanted 2 Queen Suites, I called a couple of days prior to arrival and spoke to Savannah, I asked her if we could request a room on a higher floor not facing the freeway. She explained they can't guarantee anything as the rooms are assigned on the day of arrival, however that she would put a request on our reservation, she even said there are few of those rooms that have a view of the fireworks. I was so pleased to be put on a room that had a great view of the fireworks! We just had to open the curtains, turn the lights off, lay on the sofa and enjoy them......THANKS SO MUCH Savannah!!The rooms have modern amenities like MANY plugs (really needed now days with every member of the family carrying at least two electronic devices), there are even two USB plugs directly on the wall between the beds. We truly enjoyed our stay and would definitely stay there again, however there are a few things I guess they could improve. The most important, the laundry room!! there is only ONE washer and ONE dryer for the entire hotel. Another thing is the lighting in the rooms, there is one lamp between the beds, however no reading lights above the beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r400220180-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>400220180</t>
+  </si>
+  <si>
+    <t>If we go to Disneyland California again, I'll book this hotel in a heartbeat!</t>
+  </si>
+  <si>
+    <t>+ modern hotel+ 10 minute walk from the Disneyland-entrance+ crispy clean rooms+ good matrasses+ WiFi works fineN selfservice breakfast: toast, waffles, cereals, fruit, yoghurt etc.N bathroom with shower and bathN Valetparking available- not much of a view from the roomMoreShow less</t>
+  </si>
+  <si>
+    <t>+ modern hotel+ 10 minute walk from the Disneyland-entrance+ crispy clean rooms+ good matrasses+ WiFi works fineN selfservice breakfast: toast, waffles, cereals, fruit, yoghurt etc.N bathroom with shower and bathN Valetparking available- not much of a view from the roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r400202279-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>400202279</t>
+  </si>
+  <si>
+    <t>Room and clean, but could be improved..</t>
+  </si>
+  <si>
+    <t>We stayed here at the end of July 2016 for 3 nights. It's a relatively new hotel from what we could tell. The room was spacious and we used the pool and gym which were good. It was a good base for visiting Disneyland for 2 days.Breakfast was included, however this let the hotel down. Everything was plastic or served in plastic. The plates, the cutlery, all the food &amp; condiments were served in plastic. Unfortunately the breakfast tasted like plastic too.We felt that environmentally, this was very poor of the hotel to choose this path in serving breakfast and could be improved on compared to Holiday Inn Express' we have stayed in, in other countries.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here at the end of July 2016 for 3 nights. It's a relatively new hotel from what we could tell. The room was spacious and we used the pool and gym which were good. It was a good base for visiting Disneyland for 2 days.Breakfast was included, however this let the hotel down. Everything was plastic or served in plastic. The plates, the cutlery, all the food &amp; condiments were served in plastic. Unfortunately the breakfast tasted like plastic too.We felt that environmentally, this was very poor of the hotel to choose this path in serving breakfast and could be improved on compared to Holiday Inn Express' we have stayed in, in other countries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r397136638-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>397136638</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Modern hotel close to Disneyland</t>
+  </si>
+  <si>
+    <t>New hotel only 10 minute walk from Disneyland. Room was spacious and front desk staff friendly and helpful.Hotel room was spacious, modern and clean.Breakfast could be better organised as there a long queue to access the food which was on only one side of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>New hotel only 10 minute walk from Disneyland. Room was spacious and front desk staff friendly and helpful.Hotel room was spacious, modern and clean.Breakfast could be better organised as there a long queue to access the food which was on only one side of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r394500697-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>394500697</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>I LOVE THIS HOTEL!!!</t>
+  </si>
+  <si>
+    <t>This is a great hotel. I went with my family to Disneyland and it wasn't long at all. I had a great vacation here. The staff of super nice an the free breakfast is great. I would gladly recommend. Thanks Holiday Inn!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded July 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2016</t>
+  </si>
+  <si>
+    <t>This is a great hotel. I went with my family to Disneyland and it wasn't long at all. I had a great vacation here. The staff of super nice an the free breakfast is great. I would gladly recommend. Thanks Holiday Inn!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r393252946-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>393252946</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Had a great time visiting!</t>
+  </si>
+  <si>
+    <t>My family loved this hotel! The hotel is brand new, beds were comfy, the free breakfast is great! The pool is really nice and relaxing. The staff was great! This park is within walking distance to Disneyland. My only complaint is they charge $15+tax for parking. It ends up costing the same as parking at Disneyland but it does save the hassle of the parking garage and the trams. I definitely would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family loved this hotel! The hotel is brand new, beds were comfy, the free breakfast is great! The pool is really nice and relaxing. The staff was great! This park is within walking distance to Disneyland. My only complaint is they charge $15+tax for parking. It ends up costing the same as parking at Disneyland but it does save the hassle of the parking garage and the trams. I definitely would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r382602932-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>382602932</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Disneyland Weekend</t>
+  </si>
+  <si>
+    <t>We stayed here last weekend for a surprise birthday trip for my son. Customer service was great. The GM checked us in and got us a room even though we arrived at 11am. One morning when I sat down with my 1-year-old one of the breakfast staff was there almost instantly with a high chair without me even asking. The room cam with plenty of outlets for all the gadgets, a refrigerator, microwave, coffee machine, and a sink outside the bathroom. These are all the things that a modern hotel room should include now and they have it. Some have complained about the noise, but we faced the freeway and I didn't notice it at all. The location is fantastic, you can get out without having to drive right next to Disneyland and avoid traffic. The walk to disneyland is shorter than the walk from Disneyland's own parking structure, so location was really great. We will be returning on future trips!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here last weekend for a surprise birthday trip for my son. Customer service was great. The GM checked us in and got us a room even though we arrived at 11am. One morning when I sat down with my 1-year-old one of the breakfast staff was there almost instantly with a high chair without me even asking. The room cam with plenty of outlets for all the gadgets, a refrigerator, microwave, coffee machine, and a sink outside the bathroom. These are all the things that a modern hotel room should include now and they have it. Some have complained about the noise, but we faced the freeway and I didn't notice it at all. The location is fantastic, you can get out without having to drive right next to Disneyland and avoid traffic. The walk to disneyland is shorter than the walk from Disneyland's own parking structure, so location was really great. We will be returning on future trips!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r379727556-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>379727556</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Birthday Trip To DisneyLand For The Wife</t>
+  </si>
+  <si>
+    <t>We had an amazing experience staying at this hotel.  We were checked in by Rebecca and Miquel who were so accommodating and friendly. We requested a crib and since we checked in at right around 5 pm we told them we were going to go eat and would just get it on our way back in from dinner; since we are season pass holders we decided after dinner to just go ahead and go to Disney for the parades and fireworks. WE were not expecting there to be a crib waiting for us. However once we got to our room not only was there a crib there but it was already set up and they even had a little blanket for our 14 month old girl. When we checked in I told them we were visiting for my wife's Birthday which was the next day.  The morning of my wife's birthday as the party of 6 was all getting ready we hear a knock at the door and the hotel had brought up a red velvet cupcake and a birthday card for my wife. completely unexpected but so special to her. 
+The breakfast is a great starter for your day, the one minute pancake and warm cinnamon rolls were amazing. The only negative about the breakfast, and I only say this to give some advice with the summer coming up and business will be booming for this hotel, is there...We had an amazing experience staying at this hotel.  We were checked in by Rebecca and Miquel who were so accommodating and friendly. We requested a crib and since we checked in at right around 5 pm we told them we were going to go eat and would just get it on our way back in from dinner; since we are season pass holders we decided after dinner to just go ahead and go to Disney for the parades and fireworks. WE were not expecting there to be a crib waiting for us. However once we got to our room not only was there a crib there but it was already set up and they even had a little blanket for our 14 month old girl. When we checked in I told them we were visiting for my wife's Birthday which was the next day.  The morning of my wife's birthday as the party of 6 was all getting ready we hear a knock at the door and the hotel had brought up a red velvet cupcake and a birthday card for my wife. completely unexpected but so special to her. The breakfast is a great starter for your day, the one minute pancake and warm cinnamon rolls were amazing. The only negative about the breakfast, and I only say this to give some advice with the summer coming up and business will be booming for this hotel, is there were no high chairs. I hope when we come back in September that this has changed as it is very hard to get a toddler to sit still to eat her breakfast.  (But this in no way deserved to remove a star from a wonderful hotel). We stayed on the 3rd floor room 310 (Enchanted room) which is directly across from the elevators and not only could we not hear the freeway, other guest in their room or running in the halls we also could not hear the elevator or the families waiting in the foyer for the elevator. I have stayed at 4 different hotels in Disney this year and the walls have been so thin I could hear in one hotel the person snoring, another hotel I actually knew what time families were going to leave and arrive back at the hotel (good thing I am not a criminal) the fact that this hotel was so quiet has now officially made it our Disney Hotel. Our room was well sized for 5 adults and a toddler. there were 2 places to place the crib plus her stroller. plenty of drawer and cubicle space and hangers for a 3-4 day trip. Bathroom was big enough for 2 ladies to get ready in the morning.Parking, a lot of reviews have complained about paying for parking, I do not understand that if the hotels did not charge for parking then the Disney guest would just park at your hotel taking away your ability to park 10-15 dollars a day is the standard I have seen and some hotels charge up to 18. There was ample parking and the valet greeter was very accommodating.  During our stay we had the opportunity to interact with Rebecca, Miguel, Danny, Akul and Nick and all were polite, friendly, professional and gave great customer service.There is a little drink and food shoppe next to the check in area for any snack items or medicines you may need and they can be charged to the room. Finally the walk to Disneyland was awesome 10 minutes no crowds easy walk. A piece of advice to anyone going to Disney for the first time. While Captain Kidds Buffet sounds like a great idea being as it is directly across from Disneyland cross walk, go to McDonalds or Ihop and save your money because that place was disgusting, the staff was rude and actually pushed over my daughter stroller when I put it where they told me to , after we even collapsed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>We had an amazing experience staying at this hotel.  We were checked in by Rebecca and Miquel who were so accommodating and friendly. We requested a crib and since we checked in at right around 5 pm we told them we were going to go eat and would just get it on our way back in from dinner; since we are season pass holders we decided after dinner to just go ahead and go to Disney for the parades and fireworks. WE were not expecting there to be a crib waiting for us. However once we got to our room not only was there a crib there but it was already set up and they even had a little blanket for our 14 month old girl. When we checked in I told them we were visiting for my wife's Birthday which was the next day.  The morning of my wife's birthday as the party of 6 was all getting ready we hear a knock at the door and the hotel had brought up a red velvet cupcake and a birthday card for my wife. completely unexpected but so special to her. 
+The breakfast is a great starter for your day, the one minute pancake and warm cinnamon rolls were amazing. The only negative about the breakfast, and I only say this to give some advice with the summer coming up and business will be booming for this hotel, is there...We had an amazing experience staying at this hotel.  We were checked in by Rebecca and Miquel who were so accommodating and friendly. We requested a crib and since we checked in at right around 5 pm we told them we were going to go eat and would just get it on our way back in from dinner; since we are season pass holders we decided after dinner to just go ahead and go to Disney for the parades and fireworks. WE were not expecting there to be a crib waiting for us. However once we got to our room not only was there a crib there but it was already set up and they even had a little blanket for our 14 month old girl. When we checked in I told them we were visiting for my wife's Birthday which was the next day.  The morning of my wife's birthday as the party of 6 was all getting ready we hear a knock at the door and the hotel had brought up a red velvet cupcake and a birthday card for my wife. completely unexpected but so special to her. The breakfast is a great starter for your day, the one minute pancake and warm cinnamon rolls were amazing. The only negative about the breakfast, and I only say this to give some advice with the summer coming up and business will be booming for this hotel, is there were no high chairs. I hope when we come back in September that this has changed as it is very hard to get a toddler to sit still to eat her breakfast.  (But this in no way deserved to remove a star from a wonderful hotel). We stayed on the 3rd floor room 310 (Enchanted room) which is directly across from the elevators and not only could we not hear the freeway, other guest in their room or running in the halls we also could not hear the elevator or the families waiting in the foyer for the elevator. I have stayed at 4 different hotels in Disney this year and the walls have been so thin I could hear in one hotel the person snoring, another hotel I actually knew what time families were going to leave and arrive back at the hotel (good thing I am not a criminal) the fact that this hotel was so quiet has now officially made it our Disney Hotel. Our room was well sized for 5 adults and a toddler. there were 2 places to place the crib plus her stroller. plenty of drawer and cubicle space and hangers for a 3-4 day trip. Bathroom was big enough for 2 ladies to get ready in the morning.Parking, a lot of reviews have complained about paying for parking, I do not understand that if the hotels did not charge for parking then the Disney guest would just park at your hotel taking away your ability to park 10-15 dollars a day is the standard I have seen and some hotels charge up to 18. There was ample parking and the valet greeter was very accommodating.  During our stay we had the opportunity to interact with Rebecca, Miguel, Danny, Akul and Nick and all were polite, friendly, professional and gave great customer service.There is a little drink and food shoppe next to the check in area for any snack items or medicines you may need and they can be charged to the room. Finally the walk to Disneyland was awesome 10 minutes no crowds easy walk. A piece of advice to anyone going to Disney for the first time. While Captain Kidds Buffet sounds like a great idea being as it is directly across from Disneyland cross walk, go to McDonalds or Ihop and save your money because that place was disgusting, the staff was rude and actually pushed over my daughter stroller when I put it where they told me to , after we even collapsed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r378767093-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>378767093</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Modern, clean and Quiet</t>
+  </si>
+  <si>
+    <t>Stayed here with our two little girls on a trip to disneyland. The walk to and from Disney was about 15 minutes, only a few hotels closer. It's off the path so not a lot of traffic or people walking around making noise which made for a quiet stay. The hotel room was very new and clean. I had no worries about cleanliness and they even provided my baby with a crib, so one less thing to bring with us! Breakfast is free and definitely enough to fill you up before heading out to Disneyland. Staff was polite and helpful too.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with our two little girls on a trip to disneyland. The walk to and from Disney was about 15 minutes, only a few hotels closer. It's off the path so not a lot of traffic or people walking around making noise which made for a quiet stay. The hotel room was very new and clean. I had no worries about cleanliness and they even provided my baby with a crib, so one less thing to bring with us! Breakfast is free and definitely enough to fill you up before heading out to Disneyland. Staff was polite and helpful too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r376246960-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>376246960</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Very Nice New Hotel Near Disneyland</t>
+  </si>
+  <si>
+    <t>The hotel is a short walking distance to Disneyland.  We stayed in the penthouse suite which was very roomy but it would have been nice if the living area was actually separated by a partial wall so that we didn't have to whisper while my granddaughter was sleeping.  The room had big windows from which we could see the Disney fireworks.  A big con was that the suite did not have a bathtub only a large shower. Made it difficult to bath a 2 year old.  There was a kitchenette but it had no utencils, plates or dishcloths.  The suite had a couple of tables but they were not really suitable to sit around and eat a meal.  There were not much in the way of closet or dresser space for a room that size.  Breakfast was fine.  Valet parking was good (fee is $15 per day for parking).  The front desk staff (especially Akul) was friendly and helpful. The hotel was very new so it was nice that all the areas were clean and fresh.  I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is a short walking distance to Disneyland.  We stayed in the penthouse suite which was very roomy but it would have been nice if the living area was actually separated by a partial wall so that we didn't have to whisper while my granddaughter was sleeping.  The room had big windows from which we could see the Disney fireworks.  A big con was that the suite did not have a bathtub only a large shower. Made it difficult to bath a 2 year old.  There was a kitchenette but it had no utencils, plates or dishcloths.  The suite had a couple of tables but they were not really suitable to sit around and eat a meal.  There were not much in the way of closet or dresser space for a room that size.  Breakfast was fine.  Valet parking was good (fee is $15 per day for parking).  The front desk staff (especially Akul) was friendly and helpful. The hotel was very new so it was nice that all the areas were clean and fresh.  I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r374898245-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>374898245</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Perfect Stay on Business</t>
+  </si>
+  <si>
+    <t>Clean &amp; New hotel. The staff here was awesome! Savannah especially! Very professional with a good sense of leadership! Made my stay absolutely perfect! Will definitely stay here again when travelling on business!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, Guest Relations Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; New hotel. The staff here was awesome! Savannah especially! Very professional with a good sense of leadership! Made my stay absolutely perfect! Will definitely stay here again when travelling on business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r373144207-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>373144207</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Disneyland Trip</t>
+  </si>
+  <si>
+    <t>We were on the quiet side away from the freeway. Room was nice, people next door were pretty noisy and could hear everything they were saying. They had small children which was understandable but took no measures to keep them quiet! Room itself was clean and had everything we needed. Breakfast was good. Great walking distance to Disneyland and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>We were on the quiet side away from the freeway. Room was nice, people next door were pretty noisy and could hear everything they were saying. They had small children which was understandable but took no measures to keep them quiet! Room itself was clean and had everything we needed. Breakfast was good. Great walking distance to Disneyland and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r371853884-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>371853884</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>New and Close to Disneyland</t>
+  </si>
+  <si>
+    <t>This is a new hotel that is about a 10 minute walk to the front gate of Disneyland. The lobby is very nicely set up and the front desk clerk that check us in was very nice and accommodating. They let us checked in early and we were given the exact room that we reserved. The room was a large 2 queen bedroom with a pull out couch and everything had a very clean and modern feel to it. The pool is very nice and a good stop for relaxing entertainment before or after Disneyland. The breakfast was good and the staff was very friendly and tried to meet request the best that they could. The business center was beneficial and worked well to get checked into our flight. I would stay at this hotel again in a heart beat and even though this hotel isn't rated high yet take note that the negative reviews were about the hotel not opening on-time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>This is a new hotel that is about a 10 minute walk to the front gate of Disneyland. The lobby is very nicely set up and the front desk clerk that check us in was very nice and accommodating. They let us checked in early and we were given the exact room that we reserved. The room was a large 2 queen bedroom with a pull out couch and everything had a very clean and modern feel to it. The pool is very nice and a good stop for relaxing entertainment before or after Disneyland. The breakfast was good and the staff was very friendly and tried to meet request the best that they could. The business center was beneficial and worked well to get checked into our flight. I would stay at this hotel again in a heart beat and even though this hotel isn't rated high yet take note that the negative reviews were about the hotel not opening on-time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r371834196-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>371834196</t>
+  </si>
+  <si>
+    <t>Nice, Clean Hotel</t>
+  </si>
+  <si>
+    <t>Although I only stayed one night, I really enjoyed my experience at this hotel. The hotel is clean with new, very modern, furnishings. The staff was all very friendly and helpful. It is within walking distance of the Disneyland Resort, however ART picks up at the Howard Johnson across the street if a shuttle is needed. This hotel is great for couples and families, however young children might get bored with the pool as compared to other pools and water playgrounds at some of the other area hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>Although I only stayed one night, I really enjoyed my experience at this hotel. The hotel is clean with new, very modern, furnishings. The staff was all very friendly and helpful. It is within walking distance of the Disneyland Resort, however ART picks up at the Howard Johnson across the street if a shuttle is needed. This hotel is great for couples and families, however young children might get bored with the pool as compared to other pools and water playgrounds at some of the other area hotels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r371575226-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>371575226</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent Brand New Hotel</t>
+  </si>
+  <si>
+    <t>New hotel, opened February 2016. We transferred here from another Holiday Inn a few miles away. The staff were very helpful in finding us a good room at short notice. The room was large with 2 queen beds, separate large seating area with coffee table &amp; sink, fridge,microwave &amp; coffee maker.(no kettle) Disposable plates, cutlery inc. All very clean. Beds very comfortable and choice of pillows. Coffee available from restaurant all day foc. Standard breakfast choice but always well presented hot &amp; plentiful. Lovely outside pool although not heated, pleasant seating area. Excellent friendly staff. Within walking distance of Disney, tour booking office &amp; plenty choice restaurants. Taxi service available to take you on excursions or out to dinner, we also used them to return us to the airport. Ask at reception for Rafael or Fernando. Also printers available to print your return boarding cards.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>New hotel, opened February 2016. We transferred here from another Holiday Inn a few miles away. The staff were very helpful in finding us a good room at short notice. The room was large with 2 queen beds, separate large seating area with coffee table &amp; sink, fridge,microwave &amp; coffee maker.(no kettle) Disposable plates, cutlery inc. All very clean. Beds very comfortable and choice of pillows. Coffee available from restaurant all day foc. Standard breakfast choice but always well presented hot &amp; plentiful. Lovely outside pool although not heated, pleasant seating area. Excellent friendly staff. Within walking distance of Disney, tour booking office &amp; plenty choice restaurants. Taxi service available to take you on excursions or out to dinner, we also used them to return us to the airport. Ask at reception for Rafael or Fernando. Also printers available to print your return boarding cards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r370248977-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>370248977</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>recent stay with a group</t>
+  </si>
+  <si>
+    <t>Not all rooms were available at predetermined check in time. At breakfast, a few times staff needed to be notified to refill empty food containers. Rooms were clean, safe, and of decent size.Gym had no water fountain nor fan. Reasonable distance to walk to Disneyland. Quiet and safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Not all rooms were available at predetermined check in time. At breakfast, a few times staff needed to be notified to refill empty food containers. Rooms were clean, safe, and of decent size.Gym had no water fountain nor fan. Reasonable distance to walk to Disneyland. Quiet and safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r369986224-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>369986224</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>A weekend at Disneyland</t>
+  </si>
+  <si>
+    <t>My sister used to work for holiday inn and badly wanted to try this new hotel and it's extremely close to the parks so we walked everyday. That was great. As a gift my sister paid for my room but we checked in first and I put my card down for incidentals in the room. I told them that my sister is paying for both rooms on her card and that she will be arriving shortly. When she arrived she paid for both rooms and we thought all was settled until that night at Disneyland my card was declined for a purchase. I was shocked as I know I have money on my card I've just started my trip. I looked at my bank statement and it had under $30 in there. So I rang the bank mind you this is Australia bank so different time zones too. And they told me there was a payment of US$435 for room at holiday inn in which means AU$600. So we got back to hotel and asked what the hell? My card = incidentals. My sisters card was for payment. But they had double charged me and my sister. My room on my card and both rooms again on my sisters. Make sure people you check your statements to make sure you haven't been overcharged. Not only that but make sure you don't make it too hard for these people. 
+Their software...My sister used to work for holiday inn and badly wanted to try this new hotel and it's extremely close to the parks so we walked everyday. That was great. As a gift my sister paid for my room but we checked in first and I put my card down for incidentals in the room. I told them that my sister is paying for both rooms on her card and that she will be arriving shortly. When she arrived she paid for both rooms and we thought all was settled until that night at Disneyland my card was declined for a purchase. I was shocked as I know I have money on my card I've just started my trip. I looked at my bank statement and it had under $30 in there. So I rang the bank mind you this is Australia bank so different time zones too. And they told me there was a payment of US$435 for room at holiday inn in which means AU$600. So we got back to hotel and asked what the hell? My card = incidentals. My sisters card was for payment. But they had double charged me and my sister. My room on my card and both rooms again on my sisters. Make sure people you check your statements to make sure you haven't been overcharged. Not only that but make sure you don't make it too hard for these people. Their software is new and apparently the software buggered up. Yep. So I was left with trying to get this money back. In the meantime people have been paying for me. And no this does not do good things for your pride. We complained so much but they did very little to fix the situation. Saying their bank has to release it as does my bank this will take 3 business days. So it had better happen tomorrow. The beginning of this trip has been nightmarish with my luggage being left behind in Sydney and not understanding uber and I fell at the airport and then this at the hotel. This one is the worse I still have nothing in my hand. After many complaints and arranging letters with the banks to talk to each other for money to be released immediately which did not happen by the way. They promised a free nights accomm which they should however I won't see that for a while either. It was cruel and they didn't listen to the customer nor do anything else except apologize which doesn't sit well when it doesn't accompany actions. They refused to give me a free night accomm in cash to help me because it was paid originally by credit card. Never staying here again. Merissa.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>My sister used to work for holiday inn and badly wanted to try this new hotel and it's extremely close to the parks so we walked everyday. That was great. As a gift my sister paid for my room but we checked in first and I put my card down for incidentals in the room. I told them that my sister is paying for both rooms on her card and that she will be arriving shortly. When she arrived she paid for both rooms and we thought all was settled until that night at Disneyland my card was declined for a purchase. I was shocked as I know I have money on my card I've just started my trip. I looked at my bank statement and it had under $30 in there. So I rang the bank mind you this is Australia bank so different time zones too. And they told me there was a payment of US$435 for room at holiday inn in which means AU$600. So we got back to hotel and asked what the hell? My card = incidentals. My sisters card was for payment. But they had double charged me and my sister. My room on my card and both rooms again on my sisters. Make sure people you check your statements to make sure you haven't been overcharged. Not only that but make sure you don't make it too hard for these people. 
+Their software...My sister used to work for holiday inn and badly wanted to try this new hotel and it's extremely close to the parks so we walked everyday. That was great. As a gift my sister paid for my room but we checked in first and I put my card down for incidentals in the room. I told them that my sister is paying for both rooms on her card and that she will be arriving shortly. When she arrived she paid for both rooms and we thought all was settled until that night at Disneyland my card was declined for a purchase. I was shocked as I know I have money on my card I've just started my trip. I looked at my bank statement and it had under $30 in there. So I rang the bank mind you this is Australia bank so different time zones too. And they told me there was a payment of US$435 for room at holiday inn in which means AU$600. So we got back to hotel and asked what the hell? My card = incidentals. My sisters card was for payment. But they had double charged me and my sister. My room on my card and both rooms again on my sisters. Make sure people you check your statements to make sure you haven't been overcharged. Not only that but make sure you don't make it too hard for these people. Their software is new and apparently the software buggered up. Yep. So I was left with trying to get this money back. In the meantime people have been paying for me. And no this does not do good things for your pride. We complained so much but they did very little to fix the situation. Saying their bank has to release it as does my bank this will take 3 business days. So it had better happen tomorrow. The beginning of this trip has been nightmarish with my luggage being left behind in Sydney and not understanding uber and I fell at the airport and then this at the hotel. This one is the worse I still have nothing in my hand. After many complaints and arranging letters with the banks to talk to each other for money to be released immediately which did not happen by the way. They promised a free nights accomm which they should however I won't see that for a while either. It was cruel and they didn't listen to the customer nor do anything else except apologize which doesn't sit well when it doesn't accompany actions. They refused to give me a free night accomm in cash to help me because it was paid originally by credit card. Never staying here again. Merissa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r369542963-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>369542963</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>We will be back</t>
+  </si>
+  <si>
+    <t>We had a great time and a very professional staff and love the walking distance to the park. A hot breakfast was a nice surprise and this hotel is brand new. The pool was nice to unwind after visiting Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>We had a great time and a very professional staff and love the walking distance to the park. A hot breakfast was a nice surprise and this hotel is brand new. The pool was nice to unwind after visiting Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r366916459-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>366916459</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Great breakfast and sleeping arrangements for families with young ones!</t>
+  </si>
+  <si>
+    <t>As all others have said, it's new, clean, and a lovely hotel. The breakfast is extensive including pancakes, sausage, muffins, bagels, toast, cereal, instant oatmeal in a few flavors, juices, milk, coffee, tea, regular &amp; Greek yogurt, apples, oranges, bananas, and there is peanut butter, jelly, &amp; cream cheese.We stayed in a room with 2 queens (the front desk told us all the kings were on the freeway side of the building) also thinking one kid in the 2nd queen and the other on the sofa bed. The sofa has a lounger on one side that we made a toddler bed! Could fit a 2-4 year old there easily! I wedged the sofa cushion between the pull out and my "toddler bed". If you had an infant, the bathroom is large enough for a pack n play if you like to do that. So, you really could fit 2 adults in one queen, 2 kids in a 2nd queen, a kid or 2 on the sofa bed, plus a toddler bed on the sofa lounger, and a pack n play in the bathroom. Lots of options!The walk to Disney was a bit intense, but similar to a lot of other properties in the area. Panera &amp; McDs makes an easy stop on the walk. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>As all others have said, it's new, clean, and a lovely hotel. The breakfast is extensive including pancakes, sausage, muffins, bagels, toast, cereal, instant oatmeal in a few flavors, juices, milk, coffee, tea, regular &amp; Greek yogurt, apples, oranges, bananas, and there is peanut butter, jelly, &amp; cream cheese.We stayed in a room with 2 queens (the front desk told us all the kings were on the freeway side of the building) also thinking one kid in the 2nd queen and the other on the sofa bed. The sofa has a lounger on one side that we made a toddler bed! Could fit a 2-4 year old there easily! I wedged the sofa cushion between the pull out and my "toddler bed". If you had an infant, the bathroom is large enough for a pack n play if you like to do that. So, you really could fit 2 adults in one queen, 2 kids in a 2nd queen, a kid or 2 on the sofa bed, plus a toddler bed on the sofa lounger, and a pack n play in the bathroom. Lots of options!The walk to Disney was a bit intense, but similar to a lot of other properties in the area. Panera &amp; McDs makes an easy stop on the walk. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r366574296-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>366574296</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disney neighbor hotel </t>
+  </si>
+  <si>
+    <t>I liked how close they were to downtown Disney. The staff went above and beyond helpfulness. Our room was very comfortable and the quick pick breakfast was nice to grab before walking or catching shuttle. Quiet floor too. Really we had no issues at all. MoreShow less</t>
+  </si>
+  <si>
+    <t>I liked how close they were to downtown Disney. The staff went above and beyond helpfulness. Our room was very comfortable and the quick pick breakfast was nice to grab before walking or catching shuttle. Quiet floor too. Really we had no issues at all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r365824421-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>365824421</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Perfect location to Disney</t>
+  </si>
+  <si>
+    <t>Brand new so everything clean and fresh. The staff was wonderful and were very gracious with answering all our questions. I hab forgot some items, toothbrush etc., and staff rounded up replacements. The complimentary breakfast was the excellent and all food items were kept full and fresh. As for location, right off I-5 and only a few blocks to Disney main entrance. Great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Brand new so everything clean and fresh. The staff was wonderful and were very gracious with answering all our questions. I hab forgot some items, toothbrush etc., and staff rounded up replacements. The complimentary breakfast was the excellent and all food items were kept full and fresh. As for location, right off I-5 and only a few blocks to Disney main entrance. Great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r362926713-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>362926713</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>Very Nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed for one night and did not arrive until almost midnight.  The staff were very friendly and made us feel very welcome.  I did read in previous reviews about the noise from the highway.  We were on the 5th floor facing the highway and we did hear the noise.  It was not so bad that you could not sleep.  I am a pretty light sleeper and I did ok.  The room was very clean and the breakfast was great. The only complaint I have is the parking, only valet available and cost $15.  But to be honest that is the price with most hotels in the Disneyland area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>We stayed for one night and did not arrive until almost midnight.  The staff were very friendly and made us feel very welcome.  I did read in previous reviews about the noise from the highway.  We were on the 5th floor facing the highway and we did hear the noise.  It was not so bad that you could not sleep.  I am a pretty light sleeper and I did ok.  The room was very clean and the breakfast was great. The only complaint I have is the parking, only valet available and cost $15.  But to be honest that is the price with most hotels in the Disneyland area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r362898394-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>362898394</t>
+  </si>
+  <si>
+    <t>Noise ruined most positives</t>
+  </si>
+  <si>
+    <t>It was a typical Holiday Inn Express I have experienced in the past - clean, comfortable, convenient, and economical (free, hot breakfast was is always a plus). Location was also fantastic - just 10-minute walking distance to Disneyland that you don't have to worry about traffic or fiding a parking space. But the room my family stayed was too noisy because of the heavy traffic right beside the hotel (major thoroughfare was running parallel to the hotel).MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>It was a typical Holiday Inn Express I have experienced in the past - clean, comfortable, convenient, and economical (free, hot breakfast was is always a plus). Location was also fantastic - just 10-minute walking distance to Disneyland that you don't have to worry about traffic or fiding a parking space. But the room my family stayed was too noisy because of the heavy traffic right beside the hotel (major thoroughfare was running parallel to the hotel).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r362800728-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>362800728</t>
+  </si>
+  <si>
+    <t>Top choice for Disney with superb staff</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights with my wife and 3 children.  The hotel is easy to find and very close to Disney, perhaps a 10-15 minute walk, so ideal to save on the parking costs of Disney.  However, the hotel charges $15 per day plus taxes, please like other reviewers have said, just make it a rounded up cost! Valet or no valet, it’s the same cost.
+Check in was easy, IHG level recognised and friendly welcome by Akul. He was great and a credit to the IHG chain.  We were upgraded to a very nice room, super spacious and well equipped.  Very comfy sofa bed too which I would have expected as the hotel is very new.  The room was bright and airy and you can hear the noise from the freeway but for me and the family this was never really an issue as the aircon ‘muffled’ this.  We did have issues with the aircon on one night but it was fixed the next day. Staff were very helpful, smiling and polite and they should be congratulated on their professional approach to customers.
+Breakfast was good, lots of choices, plenty of tables and thankfully families seemed to stagger their arrival! They have a good sized heated pool, jacuzzi and an ok gym with a weights bench, weights and cardio machines.  WiFi is good throughout the hotel.
+Overall, a great hotel, close to Disney, well priced with superb staff...I stayed for 4 nights with my wife and 3 children.  The hotel is easy to find and very close to Disney, perhaps a 10-15 minute walk, so ideal to save on the parking costs of Disney.  However, the hotel charges $15 per day plus taxes, please like other reviewers have said, just make it a rounded up cost! Valet or no valet, it’s the same cost.Check in was easy, IHG level recognised and friendly welcome by Akul. He was great and a credit to the IHG chain.  We were upgraded to a very nice room, super spacious and well equipped.  Very comfy sofa bed too which I would have expected as the hotel is very new.  The room was bright and airy and you can hear the noise from the freeway but for me and the family this was never really an issue as the aircon ‘muffled’ this.  We did have issues with the aircon on one night but it was fixed the next day. Staff were very helpful, smiling and polite and they should be congratulated on their professional approach to customers.Breakfast was good, lots of choices, plenty of tables and thankfully families seemed to stagger their arrival! They have a good sized heated pool, jacuzzi and an ok gym with a weights bench, weights and cardio machines.  WiFi is good throughout the hotel.Overall, a great hotel, close to Disney, well priced with superb staff to welcome you and cater/support you whilst staying there.  Well done IHG MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights with my wife and 3 children.  The hotel is easy to find and very close to Disney, perhaps a 10-15 minute walk, so ideal to save on the parking costs of Disney.  However, the hotel charges $15 per day plus taxes, please like other reviewers have said, just make it a rounded up cost! Valet or no valet, it’s the same cost.
+Check in was easy, IHG level recognised and friendly welcome by Akul. He was great and a credit to the IHG chain.  We were upgraded to a very nice room, super spacious and well equipped.  Very comfy sofa bed too which I would have expected as the hotel is very new.  The room was bright and airy and you can hear the noise from the freeway but for me and the family this was never really an issue as the aircon ‘muffled’ this.  We did have issues with the aircon on one night but it was fixed the next day. Staff were very helpful, smiling and polite and they should be congratulated on their professional approach to customers.
+Breakfast was good, lots of choices, plenty of tables and thankfully families seemed to stagger their arrival! They have a good sized heated pool, jacuzzi and an ok gym with a weights bench, weights and cardio machines.  WiFi is good throughout the hotel.
+Overall, a great hotel, close to Disney, well priced with superb staff...I stayed for 4 nights with my wife and 3 children.  The hotel is easy to find and very close to Disney, perhaps a 10-15 minute walk, so ideal to save on the parking costs of Disney.  However, the hotel charges $15 per day plus taxes, please like other reviewers have said, just make it a rounded up cost! Valet or no valet, it’s the same cost.Check in was easy, IHG level recognised and friendly welcome by Akul. He was great and a credit to the IHG chain.  We were upgraded to a very nice room, super spacious and well equipped.  Very comfy sofa bed too which I would have expected as the hotel is very new.  The room was bright and airy and you can hear the noise from the freeway but for me and the family this was never really an issue as the aircon ‘muffled’ this.  We did have issues with the aircon on one night but it was fixed the next day. Staff were very helpful, smiling and polite and they should be congratulated on their professional approach to customers.Breakfast was good, lots of choices, plenty of tables and thankfully families seemed to stagger their arrival! They have a good sized heated pool, jacuzzi and an ok gym with a weights bench, weights and cardio machines.  WiFi is good throughout the hotel.Overall, a great hotel, close to Disney, well priced with superb staff to welcome you and cater/support you whilst staying there.  Well done IHG More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r358203598-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>358203598</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Family Spring Break Vacation</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new, the room was very spacious and clean, the hotel grounds were nice and new, the pool was still under construction so couldn't use that, the hotel offers free breakfest which was good (the first day was okay the second day seemed better), the hotel has minimual parking so just let them valet for you (it's the same price), only about a 5-10 minute walk to Disney. The only downside to the hotel is it's proximtity to the freeway, little freeway noise if you get a room facing the freeway. Our stay was excellent and the staff was very curtious, even gave us late check-out. The beds seemed to sleep stiff, but after a long day at Disney, it was a non issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julio F, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new, the room was very spacious and clean, the hotel grounds were nice and new, the pool was still under construction so couldn't use that, the hotel offers free breakfest which was good (the first day was okay the second day seemed better), the hotel has minimual parking so just let them valet for you (it's the same price), only about a 5-10 minute walk to Disney. The only downside to the hotel is it's proximtity to the freeway, little freeway noise if you get a room facing the freeway. Our stay was excellent and the staff was very curtious, even gave us late check-out. The beds seemed to sleep stiff, but after a long day at Disney, it was a non issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r357652997-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>357652997</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>After a long day at Disneyland we were exhausted and needed dinner. The valet recommended an Italian restaurant that delivers and the food was amazing. The front staff was helpful and knowledgeable. The rooms were beautiful, spacious, and luxurious. Our leftovers fit into the refrigerator and there was a k cup in the room for morning coffee. The hotel was quite and peaceful. The breakfast in the morning was a perfect variety. We could not have had a better experience. Each staff member treated us as if we were important, I liked that. I felt like they appreciated my business. Overall great end to a great day. Will stay here again!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>After a long day at Disneyland we were exhausted and needed dinner. The valet recommended an Italian restaurant that delivers and the food was amazing. The front staff was helpful and knowledgeable. The rooms were beautiful, spacious, and luxurious. Our leftovers fit into the refrigerator and there was a k cup in the room for morning coffee. The hotel was quite and peaceful. The breakfast in the morning was a perfect variety. We could not have had a better experience. Each staff member treated us as if we were important, I liked that. I felt like they appreciated my business. Overall great end to a great day. Will stay here again!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r357406597-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>357406597</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t>Wonderful new hotel within walking distance of Disneyland. Ignore the bad reviews about the delay in the hotel opening. We had a very spacious room. Two full beds and a very large sleeper sofa. We enjoyed having a table and kitchen area for our take out dinners. Friendly front desk staff. Plenty of options for the free breakfast (eggs, sausage, biscuits, fruit, pancakes, toast, bagels, etc) The only negative would be the bathroom sliding doors. Our toddler likes to open the door and there was no way to lock it from the inside. Parking was $15 a day plus resort taxes and fees which seem excessive for parking.  Just make it a flat rate and don't add an extra $3.50 a day in taxes. We had white noise playing on our phone and could hardly hear the highway. Friendly hotel staff. We will definitely be back! MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel L, General Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Wonderful new hotel within walking distance of Disneyland. Ignore the bad reviews about the delay in the hotel opening. We had a very spacious room. Two full beds and a very large sleeper sofa. We enjoyed having a table and kitchen area for our take out dinners. Friendly front desk staff. Plenty of options for the free breakfast (eggs, sausage, biscuits, fruit, pancakes, toast, bagels, etc) The only negative would be the bathroom sliding doors. Our toddler likes to open the door and there was no way to lock it from the inside. Parking was $15 a day plus resort taxes and fees which seem excessive for parking.  Just make it a flat rate and don't add an extra $3.50 a day in taxes. We had white noise playing on our phone and could hardly hear the highway. Friendly hotel staff. We will definitely be back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r352681641-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>352681641</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Great hotel walking distance from Disney parks</t>
+  </si>
+  <si>
+    <t>Valet parking very accomodating.  Friendly staff at front desk. Breakfast was great, saves time when travelling with children. Room is clean, beds comfortable. Spacious room, we have two kids and spend a week in this hotel room.wifi works well and its free!!!Keurig coffee machine in room - excellent for coffee lovers like myself.Microwave and fridge in room for guests use - again very useful when travelling with kids. I would definitely recommend this hotel as I would stay here again!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r352674071-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>352674071</t>
+  </si>
+  <si>
+    <t>New property, short walk to Disneyland</t>
+  </si>
+  <si>
+    <t>Very nice, clean and new hotel. Room was spacious enough for our family of 5. The beds were very comfortable. Our room had a microwave, mini fridge and a keurig. The staff was friendly and helpful. The check-in process was smooth. The parking was limited and the charge is $15 per day. It conflicts with what was on their website. Also, the pool was not open yet so I can't provide a review on that. The breakfast was good. Cereals, oatmeals, fruits, muffins, pancakes, eggs, sausage, biscuits and gravy.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r352271488-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>352271488</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>This is a new HIE near Disneyland. Check in was easy. The room is spacious with comfortable beds. The TV channel selection is good. I had a room that faced the freeway and the noise is quite loud. It didn't bother me, but if you are a light sleeper you should request a room on the other side of the building. I didn't have a car this trip but the previous reviewer is correct about the parking situation. My room overlooked the front lot area and both mornings when I looked outside there were cars double parked all over. Internet worked fine. Bathroom amenities only included shampoo and lotion. The bathroom had good lighting. The breakfast selection is your standard HIE food (pancake machine, cinnamon rolls, sausage, various bread items, yogurt, fruit, etc) The breakfast area is quite large with lots of seating. Pool was still not finished when we checked out but looks like it will be nice when completed. It's about a 10 minute walk to Disneyland with several place to eat close by (Mimi's Cafe, Panera Bread, McD's, Pizza Press, IHOP)Overall this a great new hotel and I would definitely stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new HIE near Disneyland. Check in was easy. The room is spacious with comfortable beds. The TV channel selection is good. I had a room that faced the freeway and the noise is quite loud. It didn't bother me, but if you are a light sleeper you should request a room on the other side of the building. I didn't have a car this trip but the previous reviewer is correct about the parking situation. My room overlooked the front lot area and both mornings when I looked outside there were cars double parked all over. Internet worked fine. Bathroom amenities only included shampoo and lotion. The bathroom had good lighting. The breakfast selection is your standard HIE food (pancake machine, cinnamon rolls, sausage, various bread items, yogurt, fruit, etc) The breakfast area is quite large with lots of seating. Pool was still not finished when we checked out but looks like it will be nice when completed. It's about a 10 minute walk to Disneyland with several place to eat close by (Mimi's Cafe, Panera Bread, McD's, Pizza Press, IHOP)Overall this a great new hotel and I would definitely stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r350631890-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>350631890</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>New hotel</t>
+  </si>
+  <si>
+    <t>Hotel is all new and everything looked great. My room was a spacious suite with plenty of room and a nice tv with for once a decent channel selection. Internet worked alright but was a little laggy.Plenty of outlets to charge up your devices.Bed is comfy and had plenty of pillows.Only thing I thought was missing from the room was a coffee table for the sofa.Rooms was quiet too.They do take a $50 incidental fee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r350001510-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>350001510</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Clean, Quiet but staff not very helpful.</t>
+  </si>
+  <si>
+    <t>The drive to Anaheim is insane so when we arrived earlier than our check in and were told our room wasn't ready (king bed) but could have another (queen bed), we quickly agreed.  The room overlooked what I think was the water or furnace system but we didn't care about the view and it was tucked in a corner so we weren't concerned about noise - especially being near Disneyland we expected lots of families to be there and we were right!  But it was quiet so it turned out to be fine.  And the young woman who checked us in was very nice.  We asked her if there was a shuttle to Disneyland, she said there was for a $5.00 fee (well worth it!) and we asked if it was walking distance.  She said yes and that we would likely see families walking there and back and it was about 1.5 miles.  No problem for my husband and I as we are big walkers (once walked from Torrey Pines to La Jolla - much farther than we thought but I digress....).  We went to the room and got changed and headed out.  When we were leaving we asked the young man at the desk which way to go.  He said left on this street, straight, left right... which was fine until we headed out and there were no signs at all pointing us to Disneyland (had I known that...The drive to Anaheim is insane so when we arrived earlier than our check in and were told our room wasn't ready (king bed) but could have another (queen bed), we quickly agreed.  The room overlooked what I think was the water or furnace system but we didn't care about the view and it was tucked in a corner so we weren't concerned about noise - especially being near Disneyland we expected lots of families to be there and we were right!  But it was quiet so it turned out to be fine.  And the young woman who checked us in was very nice.  We asked her if there was a shuttle to Disneyland, she said there was for a $5.00 fee (well worth it!) and we asked if it was walking distance.  She said yes and that we would likely see families walking there and back and it was about 1.5 miles.  No problem for my husband and I as we are big walkers (once walked from Torrey Pines to La Jolla - much farther than we thought but I digress....).  We went to the room and got changed and headed out.  When we were leaving we asked the young man at the desk which way to go.  He said left on this street, straight, left right... which was fine until we headed out and there were no signs at all pointing us to Disneyland (had I known that I would have paid better attention).  Normally in hotels, when asking directions, they usually pull out a map, show you where you are and where you're going, how long to get there etc.  We got nothing more than very confusing verbal instructions.  We got underway but as we were walking, we realized that the area we were in looked a bit sketchy (maybe it wasn't but it really looked that way - really tacky worn hotels, a trailer park..) We headed off down the main drag in the wrong direction and decided we are likely better off taking the shuttle so we went back to the hotel, got a ticket and off we went.  The shuttle was great, the driver very helpful so it all turned out well.  But I think it would have been much more helpful to have received much better directions and more of an understanding of where we were going.  Very un"Disney like".MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>The drive to Anaheim is insane so when we arrived earlier than our check in and were told our room wasn't ready (king bed) but could have another (queen bed), we quickly agreed.  The room overlooked what I think was the water or furnace system but we didn't care about the view and it was tucked in a corner so we weren't concerned about noise - especially being near Disneyland we expected lots of families to be there and we were right!  But it was quiet so it turned out to be fine.  And the young woman who checked us in was very nice.  We asked her if there was a shuttle to Disneyland, she said there was for a $5.00 fee (well worth it!) and we asked if it was walking distance.  She said yes and that we would likely see families walking there and back and it was about 1.5 miles.  No problem for my husband and I as we are big walkers (once walked from Torrey Pines to La Jolla - much farther than we thought but I digress....).  We went to the room and got changed and headed out.  When we were leaving we asked the young man at the desk which way to go.  He said left on this street, straight, left right... which was fine until we headed out and there were no signs at all pointing us to Disneyland (had I known that...The drive to Anaheim is insane so when we arrived earlier than our check in and were told our room wasn't ready (king bed) but could have another (queen bed), we quickly agreed.  The room overlooked what I think was the water or furnace system but we didn't care about the view and it was tucked in a corner so we weren't concerned about noise - especially being near Disneyland we expected lots of families to be there and we were right!  But it was quiet so it turned out to be fine.  And the young woman who checked us in was very nice.  We asked her if there was a shuttle to Disneyland, she said there was for a $5.00 fee (well worth it!) and we asked if it was walking distance.  She said yes and that we would likely see families walking there and back and it was about 1.5 miles.  No problem for my husband and I as we are big walkers (once walked from Torrey Pines to La Jolla - much farther than we thought but I digress....).  We went to the room and got changed and headed out.  When we were leaving we asked the young man at the desk which way to go.  He said left on this street, straight, left right... which was fine until we headed out and there were no signs at all pointing us to Disneyland (had I known that I would have paid better attention).  Normally in hotels, when asking directions, they usually pull out a map, show you where you are and where you're going, how long to get there etc.  We got nothing more than very confusing verbal instructions.  We got underway but as we were walking, we realized that the area we were in looked a bit sketchy (maybe it wasn't but it really looked that way - really tacky worn hotels, a trailer park..) We headed off down the main drag in the wrong direction and decided we are likely better off taking the shuttle so we went back to the hotel, got a ticket and off we went.  The shuttle was great, the driver very helpful so it all turned out well.  But I think it would have been much more helpful to have received much better directions and more of an understanding of where we were going.  Very un"Disney like".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r347137214-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>347137214</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>It's New and close to Disney!</t>
+  </si>
+  <si>
+    <t>It's a lovely new hotel with location being the best part! Less than a 10 minute walk to Disney! Close to Mimi's restaurant, Panera and McDonald's. The king size suite worked perfectly for our family of three (traveling with a 6 yr old). If you are traveling with infants or toddlers this room did not have a tub. To our surprise, the room also had a small kitchenette. The room lay out worked great for us. The bed was comfortable, the room was quiet even though it faced the freeway. Staff was friendly!Too bad we only stayed one night, but we will definitely be back for more than a one night stay.The hotel is still having some minor construction work being done. The main entrance of the building is still being worked on. The pool and spa areas are not open yet. It will be 5 stars when everything is completed!MoreShow less</t>
+  </si>
+  <si>
+    <t>It's a lovely new hotel with location being the best part! Less than a 10 minute walk to Disney! Close to Mimi's restaurant, Panera and McDonald's. The king size suite worked perfectly for our family of three (traveling with a 6 yr old). If you are traveling with infants or toddlers this room did not have a tub. To our surprise, the room also had a small kitchenette. The room lay out worked great for us. The bed was comfortable, the room was quiet even though it faced the freeway. Staff was friendly!Too bad we only stayed one night, but we will definitely be back for more than a one night stay.The hotel is still having some minor construction work being done. The main entrance of the building is still being worked on. The pool and spa areas are not open yet. It will be 5 stars when everything is completed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r340166816-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>340166816</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel experience of my life. ruined my trip!!!</t>
+  </si>
+  <si>
+    <t>This hotel is off to a TERRIBLE start. after reading the other tripadvisor reviews I was concerned about the hotel not being opened for my stay so i called on January 8th to confirm my reservation. I spoke with a man AT the hotel and he confirmed my reservation was squared away. 2 weeks before my trip I get an email that the hotel isn't open yet. How is this so considering I had CALLED and spoken with someone and he CONFIRMED my reservation? When calling IHG corporate office to complain, they tried (very very poorly) to make up for their HUGE mistake. The rooms that they offered me at other hotels are a JOKE. the OTHER holiday inn is FURTHER away than this one AND cheaper, but their emailed reply told me "they would honor my price" OF COURSE you will because my price is MORE expensive. The other option is a hotel that would cost $63 MORE per night and it doesn't have breakfast and its not walking distance to the park! (Nor did they offer to match my price) Why would I want to pay more to receive less and be further away from my destination? This situation has 100% turned me off from any hotel in the intercontinental hotel group, since their corporate office is unable to offer more than an apology and insult my intelligence by trying to charge me more for a sub par...This hotel is off to a TERRIBLE start. after reading the other tripadvisor reviews I was concerned about the hotel not being opened for my stay so i called on January 8th to confirm my reservation. I spoke with a man AT the hotel and he confirmed my reservation was squared away. 2 weeks before my trip I get an email that the hotel isn't open yet. How is this so considering I had CALLED and spoken with someone and he CONFIRMED my reservation? When calling IHG corporate office to complain, they tried (very very poorly) to make up for their HUGE mistake. The rooms that they offered me at other hotels are a JOKE. the OTHER holiday inn is FURTHER away than this one AND cheaper, but their emailed reply told me "they would honor my price" OF COURSE you will because my price is MORE expensive. The other option is a hotel that would cost $63 MORE per night and it doesn't have breakfast and its not walking distance to the park! (Nor did they offer to match my price) Why would I want to pay more to receive less and be further away from my destination? This situation has 100% turned me off from any hotel in the intercontinental hotel group, since their corporate office is unable to offer more than an apology and insult my intelligence by trying to charge me more for a sub par hotel experience. I hope that other people will read this and they will spend their money ELSEWHERE at ANY other NON IHG hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded January 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is off to a TERRIBLE start. after reading the other tripadvisor reviews I was concerned about the hotel not being opened for my stay so i called on January 8th to confirm my reservation. I spoke with a man AT the hotel and he confirmed my reservation was squared away. 2 weeks before my trip I get an email that the hotel isn't open yet. How is this so considering I had CALLED and spoken with someone and he CONFIRMED my reservation? When calling IHG corporate office to complain, they tried (very very poorly) to make up for their HUGE mistake. The rooms that they offered me at other hotels are a JOKE. the OTHER holiday inn is FURTHER away than this one AND cheaper, but their emailed reply told me "they would honor my price" OF COURSE you will because my price is MORE expensive. The other option is a hotel that would cost $63 MORE per night and it doesn't have breakfast and its not walking distance to the park! (Nor did they offer to match my price) Why would I want to pay more to receive less and be further away from my destination? This situation has 100% turned me off from any hotel in the intercontinental hotel group, since their corporate office is unable to offer more than an apology and insult my intelligence by trying to charge me more for a sub par...This hotel is off to a TERRIBLE start. after reading the other tripadvisor reviews I was concerned about the hotel not being opened for my stay so i called on January 8th to confirm my reservation. I spoke with a man AT the hotel and he confirmed my reservation was squared away. 2 weeks before my trip I get an email that the hotel isn't open yet. How is this so considering I had CALLED and spoken with someone and he CONFIRMED my reservation? When calling IHG corporate office to complain, they tried (very very poorly) to make up for their HUGE mistake. The rooms that they offered me at other hotels are a JOKE. the OTHER holiday inn is FURTHER away than this one AND cheaper, but their emailed reply told me "they would honor my price" OF COURSE you will because my price is MORE expensive. The other option is a hotel that would cost $63 MORE per night and it doesn't have breakfast and its not walking distance to the park! (Nor did they offer to match my price) Why would I want to pay more to receive less and be further away from my destination? This situation has 100% turned me off from any hotel in the intercontinental hotel group, since their corporate office is unable to offer more than an apology and insult my intelligence by trying to charge me more for a sub par hotel experience. I hope that other people will read this and they will spend their money ELSEWHERE at ANY other NON IHG hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r333615054-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>333615054</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>What a disappointment</t>
+  </si>
+  <si>
+    <t>I booked a room for the first week in September and another for the first week in December. This hotel was suppose to open in mid summer. After tracking the opening dates, change after change. It was changed to a date after my scheduled arrival date. I was never contacted by IHG letting me know I had no room for my trip. I had to call them to fined out. Trip cancelled! Now moving to my December trip, tracking and seeing the dates change again and again. When I saw the date change to the last day of my trip I contacted IHG. They "GUARANTEED" me a room. They said the hotel would be in it's soft opening phase and I had a room. This was in mid September. Now move to late October just over 4 weeks before my November 27 arrival I was contact by IHG and told the hotel would not open and I had no room around a major holiday. So my warning to anybody who has reservations at this hotel DON'T count on really having a room till they open the doors for business. That could be in January 2016 or not this is for anybody who has a reservation at this hotel. Keep tracking the opening date. Good LuckMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2016</t>
+  </si>
+  <si>
+    <t>I booked a room for the first week in September and another for the first week in December. This hotel was suppose to open in mid summer. After tracking the opening dates, change after change. It was changed to a date after my scheduled arrival date. I was never contacted by IHG letting me know I had no room for my trip. I had to call them to fined out. Trip cancelled! Now moving to my December trip, tracking and seeing the dates change again and again. When I saw the date change to the last day of my trip I contacted IHG. They "GUARANTEED" me a room. They said the hotel would be in it's soft opening phase and I had a room. This was in mid September. Now move to late October just over 4 weeks before my November 27 arrival I was contact by IHG and told the hotel would not open and I had no room around a major holiday. So my warning to anybody who has reservations at this hotel DON'T count on really having a room till they open the doors for business. That could be in January 2016 or not this is for anybody who has a reservation at this hotel. Keep tracking the opening date. Good LuckMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r331008648-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>331008648</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>TOTAL DISASTER</t>
+  </si>
+  <si>
+    <t>This was supposed to be the final destination on a once in a lifetime round the world trip with my family and what a finale this should have been before returning across the Pacific to Aus. I chose this hotel because it was brand new, a short walk to Disneyland and the rooms we had chosen should have been overlooking the fireworks.
+Because this was part of a round the world trip planning and booking accommodation was done in April/May (for a stay in Oct). After several failed attempts at trying to contact the hotel by e-mail (given in the HI Express website) I eventually had to send a mail to the executive management of IHG Americas in order for my questions to be answered. The IHG call centre were of no use at all. All I wanted to know was did they have interconnecting rooms? So, what should have been a simple booking turned into an unnecessary work up. The excuse given by the HI express Anaheim was my e-mails were ending up in their spam box. Simple answer check your spam box once a day to make sure there are no genuine e-mails there. Doesn't take long.
+Anyway, finally booked two interconnecting rooms and thought nothing of it until I received an e-mail two weeks before arrival saying that there were some unexpected delays and the hotel would not be open in time. I was given some numbers...This was supposed to be the final destination on a once in a lifetime round the world trip with my family and what a finale this should have been before returning across the Pacific to Aus. I chose this hotel because it was brand new, a short walk to Disneyland and the rooms we had chosen should have been overlooking the fireworks.Because this was part of a round the world trip planning and booking accommodation was done in April/May (for a stay in Oct). After several failed attempts at trying to contact the hotel by e-mail (given in the HI Express website) I eventually had to send a mail to the executive management of IHG Americas in order for my questions to be answered. The IHG call centre were of no use at all. All I wanted to know was did they have interconnecting rooms? So, what should have been a simple booking turned into an unnecessary work up. The excuse given by the HI express Anaheim was my e-mails were ending up in their spam box. Simple answer check your spam box once a day to make sure there are no genuine e-mails there. Doesn't take long.Anyway, finally booked two interconnecting rooms and thought nothing of it until I received an e-mail two weeks before arrival saying that there were some unexpected delays and the hotel would not be open in time. I was given some numbers to ring to "discuss alternative" - none of which were in the countries I was in at the time and roaming costs are prohibitively expensive so I chose to e-mail the hotel chain. After waiting a reasonable number of days and receiving no replies I had a quick look on the IHG website only to find a very limited choice of hotels available for when we were going to be in LA and time was ticking by so I rang one of the numbers given in the e-mail I was sent on my mobile - I didn't have any other choice, the Intercontinental New York Times Square, where I was staying at the time, were of no use as they said they run on a different system to the HI and I would have to call the IHG help line. After using up all my credit on my mobile phone (I had AUD$95 at the start of the call) I was kept in  queue until my credit ran out so I never got the opportunity to speak to anyone. I also discovered to my horror that the hotel now wasn't due to open until early December so that kind of delay would have meant they would have known months in advance they would not open in time so why tell me two weeks before arrival????So basically I was left on my own to organise my own accommodation and ended up staying down the road at the Sheraton - sorry IHG - you missed out this time but if this is how you treat your Platinum Ambassador members then you don't deserve my patronage. I was eventually contacted by so called HI Guest relations by e-mail (after sending another rocket e-mail to the executive management of IHG Americas) also copied in were the hotel who made no attempt to contact me - that is what infuriated me most.Anyway they offered me the Indigo (another IHG property down the road) but at almost double the price of the HI express so after much ping ponging of e-mails they eventually relented and offered me the same price as the HI express but it was too late as this was only offered two days before my arrival and was committed to staying at the Sheraton.Speaking very frankly this whole saga spoilt what was supposed to be a great finish to a fantastic holiday. As such and I make no apologies for saying this but if there was a change of management of the property I think it has the potential to be a successful hotel particularly with it being so close to Disneyland which is its major draw card.IHG in reading make sure this does not happen again please otherwise I will defect to Hilton Honors or SPG. Both offer a similar product to IHG - oh and BTW had a great stay at the Sheraton!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Anaheim Resort Area, responded to this reviewResponded December 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2015</t>
+  </si>
+  <si>
+    <t>This was supposed to be the final destination on a once in a lifetime round the world trip with my family and what a finale this should have been before returning across the Pacific to Aus. I chose this hotel because it was brand new, a short walk to Disneyland and the rooms we had chosen should have been overlooking the fireworks.
+Because this was part of a round the world trip planning and booking accommodation was done in April/May (for a stay in Oct). After several failed attempts at trying to contact the hotel by e-mail (given in the HI Express website) I eventually had to send a mail to the executive management of IHG Americas in order for my questions to be answered. The IHG call centre were of no use at all. All I wanted to know was did they have interconnecting rooms? So, what should have been a simple booking turned into an unnecessary work up. The excuse given by the HI express Anaheim was my e-mails were ending up in their spam box. Simple answer check your spam box once a day to make sure there are no genuine e-mails there. Doesn't take long.
+Anyway, finally booked two interconnecting rooms and thought nothing of it until I received an e-mail two weeks before arrival saying that there were some unexpected delays and the hotel would not be open in time. I was given some numbers...This was supposed to be the final destination on a once in a lifetime round the world trip with my family and what a finale this should have been before returning across the Pacific to Aus. I chose this hotel because it was brand new, a short walk to Disneyland and the rooms we had chosen should have been overlooking the fireworks.Because this was part of a round the world trip planning and booking accommodation was done in April/May (for a stay in Oct). After several failed attempts at trying to contact the hotel by e-mail (given in the HI Express website) I eventually had to send a mail to the executive management of IHG Americas in order for my questions to be answered. The IHG call centre were of no use at all. All I wanted to know was did they have interconnecting rooms? So, what should have been a simple booking turned into an unnecessary work up. The excuse given by the HI express Anaheim was my e-mails were ending up in their spam box. Simple answer check your spam box once a day to make sure there are no genuine e-mails there. Doesn't take long.Anyway, finally booked two interconnecting rooms and thought nothing of it until I received an e-mail two weeks before arrival saying that there were some unexpected delays and the hotel would not be open in time. I was given some numbers to ring to "discuss alternative" - none of which were in the countries I was in at the time and roaming costs are prohibitively expensive so I chose to e-mail the hotel chain. After waiting a reasonable number of days and receiving no replies I had a quick look on the IHG website only to find a very limited choice of hotels available for when we were going to be in LA and time was ticking by so I rang one of the numbers given in the e-mail I was sent on my mobile - I didn't have any other choice, the Intercontinental New York Times Square, where I was staying at the time, were of no use as they said they run on a different system to the HI and I would have to call the IHG help line. After using up all my credit on my mobile phone (I had AUD$95 at the start of the call) I was kept in  queue until my credit ran out so I never got the opportunity to speak to anyone. I also discovered to my horror that the hotel now wasn't due to open until early December so that kind of delay would have meant they would have known months in advance they would not open in time so why tell me two weeks before arrival????So basically I was left on my own to organise my own accommodation and ended up staying down the road at the Sheraton - sorry IHG - you missed out this time but if this is how you treat your Platinum Ambassador members then you don't deserve my patronage. I was eventually contacted by so called HI Guest relations by e-mail (after sending another rocket e-mail to the executive management of IHG Americas) also copied in were the hotel who made no attempt to contact me - that is what infuriated me most.Anyway they offered me the Indigo (another IHG property down the road) but at almost double the price of the HI express so after much ping ponging of e-mails they eventually relented and offered me the same price as the HI express but it was too late as this was only offered two days before my arrival and was committed to staying at the Sheraton.Speaking very frankly this whole saga spoilt what was supposed to be a great finish to a fantastic holiday. As such and I make no apologies for saying this but if there was a change of management of the property I think it has the potential to be a successful hotel particularly with it being so close to Disneyland which is its major draw card.IHG in reading make sure this does not happen again please otherwise I will defect to Hilton Honors or SPG. Both offer a similar product to IHG - oh and BTW had a great stay at the Sheraton!!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3093,6935 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>165</v>
+      </c>
+      <c r="X19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>237</v>
+      </c>
+      <c r="X30" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>237</v>
+      </c>
+      <c r="X31" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s">
+        <v>250</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>237</v>
+      </c>
+      <c r="X32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>237</v>
+      </c>
+      <c r="X33" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+      <c r="L34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>236</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>237</v>
+      </c>
+      <c r="X34" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>270</v>
+      </c>
+      <c r="X35" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>269</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>270</v>
+      </c>
+      <c r="X36" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>270</v>
+      </c>
+      <c r="X37" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>290</v>
+      </c>
+      <c r="X38" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s">
+        <v>297</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>299</v>
+      </c>
+      <c r="X39" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>229</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>299</v>
+      </c>
+      <c r="X40" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" t="s">
+        <v>310</v>
+      </c>
+      <c r="K41" t="s">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>313</v>
+      </c>
+      <c r="X41" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" t="s">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s">
+        <v>320</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>321</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>322</v>
+      </c>
+      <c r="X42" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>322</v>
+      </c>
+      <c r="X43" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>321</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>336</v>
+      </c>
+      <c r="X44" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" t="s">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s">
+        <v>343</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>321</v>
+      </c>
+      <c r="O45" t="s">
+        <v>187</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>344</v>
+      </c>
+      <c r="X45" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K46" t="s">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s">
+        <v>351</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>321</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>352</v>
+      </c>
+      <c r="X46" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>356</v>
+      </c>
+      <c r="J47" t="s">
+        <v>357</v>
+      </c>
+      <c r="K47" t="s">
+        <v>358</v>
+      </c>
+      <c r="L47" t="s">
+        <v>359</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>360</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>361</v>
+      </c>
+      <c r="X47" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>365</v>
+      </c>
+      <c r="J48" t="s">
+        <v>366</v>
+      </c>
+      <c r="K48" t="s">
+        <v>367</v>
+      </c>
+      <c r="L48" t="s">
+        <v>368</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>360</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>369</v>
+      </c>
+      <c r="X48" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>373</v>
+      </c>
+      <c r="J49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" t="s">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s">
+        <v>375</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>376</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X49" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>379</v>
+      </c>
+      <c r="J50" t="s">
+        <v>380</v>
+      </c>
+      <c r="K50" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" t="s">
+        <v>382</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>283</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>383</v>
+      </c>
+      <c r="X50" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>387</v>
+      </c>
+      <c r="J51" t="s">
+        <v>388</v>
+      </c>
+      <c r="K51" t="s">
+        <v>389</v>
+      </c>
+      <c r="L51" t="s">
+        <v>390</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>391</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>392</v>
+      </c>
+      <c r="X51" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>395</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>396</v>
+      </c>
+      <c r="J52" t="s">
+        <v>397</v>
+      </c>
+      <c r="K52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L52" t="s">
+        <v>399</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>283</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>392</v>
+      </c>
+      <c r="X52" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>401</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>402</v>
+      </c>
+      <c r="J53" t="s">
+        <v>403</v>
+      </c>
+      <c r="K53" t="s">
+        <v>404</v>
+      </c>
+      <c r="L53" t="s">
+        <v>405</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>283</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>406</v>
+      </c>
+      <c r="X53" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>391</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>414</v>
+      </c>
+      <c r="X54" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>417</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>418</v>
+      </c>
+      <c r="J55" t="s">
+        <v>419</v>
+      </c>
+      <c r="K55" t="s">
+        <v>420</v>
+      </c>
+      <c r="L55" t="s">
+        <v>421</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>422</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>423</v>
+      </c>
+      <c r="X55" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>427</v>
+      </c>
+      <c r="J56" t="s">
+        <v>428</v>
+      </c>
+      <c r="K56" t="s">
+        <v>429</v>
+      </c>
+      <c r="L56" t="s">
+        <v>430</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>391</v>
+      </c>
+      <c r="O56" t="s">
+        <v>229</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>431</v>
+      </c>
+      <c r="X56" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>434</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>435</v>
+      </c>
+      <c r="J57" t="s">
+        <v>436</v>
+      </c>
+      <c r="K57" t="s">
+        <v>437</v>
+      </c>
+      <c r="L57" t="s">
+        <v>438</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>391</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>431</v>
+      </c>
+      <c r="X57" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>441</v>
+      </c>
+      <c r="J58" t="s">
+        <v>442</v>
+      </c>
+      <c r="K58" t="s">
+        <v>443</v>
+      </c>
+      <c r="L58" t="s">
+        <v>444</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>391</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>431</v>
+      </c>
+      <c r="X58" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>447</v>
+      </c>
+      <c r="J59" t="s">
+        <v>448</v>
+      </c>
+      <c r="K59" t="s">
+        <v>449</v>
+      </c>
+      <c r="L59" t="s">
+        <v>450</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>451</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>452</v>
+      </c>
+      <c r="X59" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>455</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>456</v>
+      </c>
+      <c r="J60" t="s">
+        <v>457</v>
+      </c>
+      <c r="K60" t="s">
+        <v>458</v>
+      </c>
+      <c r="L60" t="s">
+        <v>459</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>391</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>460</v>
+      </c>
+      <c r="X60" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>463</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>464</v>
+      </c>
+      <c r="J61" t="s">
+        <v>465</v>
+      </c>
+      <c r="K61" t="s">
+        <v>466</v>
+      </c>
+      <c r="L61" t="s">
+        <v>467</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>451</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>468</v>
+      </c>
+      <c r="X61" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>471</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>472</v>
+      </c>
+      <c r="J62" t="s">
+        <v>473</v>
+      </c>
+      <c r="K62" t="s">
+        <v>474</v>
+      </c>
+      <c r="L62" t="s">
+        <v>475</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>451</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>476</v>
+      </c>
+      <c r="X62" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>481</v>
+      </c>
+      <c r="K63" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>451</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>484</v>
+      </c>
+      <c r="X63" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>487</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>488</v>
+      </c>
+      <c r="J64" t="s">
+        <v>481</v>
+      </c>
+      <c r="K64" t="s">
+        <v>489</v>
+      </c>
+      <c r="L64" t="s">
+        <v>490</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>451</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>484</v>
+      </c>
+      <c r="X64" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>492</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>493</v>
+      </c>
+      <c r="J65" t="s">
+        <v>494</v>
+      </c>
+      <c r="K65" t="s">
+        <v>495</v>
+      </c>
+      <c r="L65" t="s">
+        <v>496</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>451</v>
+      </c>
+      <c r="O65" t="s">
+        <v>187</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>497</v>
+      </c>
+      <c r="X65" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>500</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>501</v>
+      </c>
+      <c r="J66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K66" t="s">
+        <v>503</v>
+      </c>
+      <c r="L66" t="s">
+        <v>504</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>451</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>505</v>
+      </c>
+      <c r="X66" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>508</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>509</v>
+      </c>
+      <c r="J67" t="s">
+        <v>502</v>
+      </c>
+      <c r="K67" t="s">
+        <v>510</v>
+      </c>
+      <c r="L67" t="s">
+        <v>511</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>505</v>
+      </c>
+      <c r="X67" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>513</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>514</v>
+      </c>
+      <c r="J68" t="s">
+        <v>502</v>
+      </c>
+      <c r="K68" t="s">
+        <v>515</v>
+      </c>
+      <c r="L68" t="s">
+        <v>516</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>451</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>505</v>
+      </c>
+      <c r="X68" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>518</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>519</v>
+      </c>
+      <c r="J69" t="s">
+        <v>520</v>
+      </c>
+      <c r="K69" t="s">
+        <v>64</v>
+      </c>
+      <c r="L69" t="s">
+        <v>521</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>451</v>
+      </c>
+      <c r="O69" t="s">
+        <v>187</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>505</v>
+      </c>
+      <c r="X69" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>523</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>524</v>
+      </c>
+      <c r="J70" t="s">
+        <v>525</v>
+      </c>
+      <c r="K70" t="s">
+        <v>526</v>
+      </c>
+      <c r="L70" t="s">
+        <v>527</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>451</v>
+      </c>
+      <c r="O70" t="s">
+        <v>187</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>505</v>
+      </c>
+      <c r="X70" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>529</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>530</v>
+      </c>
+      <c r="J71" t="s">
+        <v>531</v>
+      </c>
+      <c r="K71" t="s">
+        <v>532</v>
+      </c>
+      <c r="L71" t="s">
+        <v>533</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>376</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>534</v>
+      </c>
+      <c r="X71" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>537</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>538</v>
+      </c>
+      <c r="J72" t="s">
+        <v>531</v>
+      </c>
+      <c r="K72" t="s">
+        <v>539</v>
+      </c>
+      <c r="L72" t="s">
+        <v>540</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>376</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>534</v>
+      </c>
+      <c r="X72" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>542</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>543</v>
+      </c>
+      <c r="J73" t="s">
+        <v>544</v>
+      </c>
+      <c r="K73" t="s">
+        <v>545</v>
+      </c>
+      <c r="L73" t="s">
+        <v>546</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>376</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>534</v>
+      </c>
+      <c r="X73" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>548</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>549</v>
+      </c>
+      <c r="J74" t="s">
+        <v>550</v>
+      </c>
+      <c r="K74" t="s">
+        <v>551</v>
+      </c>
+      <c r="L74" t="s">
+        <v>552</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>376</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>553</v>
+      </c>
+      <c r="X74" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>556</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>557</v>
+      </c>
+      <c r="J75" t="s">
+        <v>558</v>
+      </c>
+      <c r="K75" t="s">
+        <v>559</v>
+      </c>
+      <c r="L75" t="s">
+        <v>560</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>376</v>
+      </c>
+      <c r="O75" t="s">
+        <v>229</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>561</v>
+      </c>
+      <c r="X75" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>564</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>565</v>
+      </c>
+      <c r="J76" t="s">
+        <v>566</v>
+      </c>
+      <c r="K76" t="s">
+        <v>567</v>
+      </c>
+      <c r="L76" t="s">
+        <v>568</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>376</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>569</v>
+      </c>
+      <c r="X76" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>572</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>573</v>
+      </c>
+      <c r="J77" t="s">
+        <v>574</v>
+      </c>
+      <c r="K77" t="s">
+        <v>575</v>
+      </c>
+      <c r="L77" t="s">
+        <v>576</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>577</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>578</v>
+      </c>
+      <c r="X77" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>582</v>
+      </c>
+      <c r="J78" t="s">
+        <v>574</v>
+      </c>
+      <c r="K78" t="s">
+        <v>583</v>
+      </c>
+      <c r="L78" t="s">
+        <v>584</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>577</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>578</v>
+      </c>
+      <c r="X78" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>586</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>587</v>
+      </c>
+      <c r="J79" t="s">
+        <v>574</v>
+      </c>
+      <c r="K79" t="s">
+        <v>588</v>
+      </c>
+      <c r="L79" t="s">
+        <v>589</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>577</v>
+      </c>
+      <c r="O79" t="s">
+        <v>187</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>578</v>
+      </c>
+      <c r="X79" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>591</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>592</v>
+      </c>
+      <c r="J80" t="s">
+        <v>593</v>
+      </c>
+      <c r="K80" t="s">
+        <v>594</v>
+      </c>
+      <c r="L80" t="s">
+        <v>595</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>577</v>
+      </c>
+      <c r="O80" t="s">
+        <v>187</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>578</v>
+      </c>
+      <c r="X80" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>597</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>598</v>
+      </c>
+      <c r="J81" t="s">
+        <v>599</v>
+      </c>
+      <c r="K81" t="s">
+        <v>600</v>
+      </c>
+      <c r="L81" t="s">
+        <v>601</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>577</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>602</v>
+      </c>
+      <c r="X81" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>605</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>606</v>
+      </c>
+      <c r="J82" t="s">
+        <v>607</v>
+      </c>
+      <c r="K82" t="s">
+        <v>608</v>
+      </c>
+      <c r="L82" t="s">
+        <v>609</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>577</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>602</v>
+      </c>
+      <c r="X82" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>611</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>612</v>
+      </c>
+      <c r="J83" t="s">
+        <v>613</v>
+      </c>
+      <c r="K83" t="s">
+        <v>614</v>
+      </c>
+      <c r="L83" t="s">
+        <v>615</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>616</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>617</v>
+      </c>
+      <c r="X83" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>620</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>621</v>
+      </c>
+      <c r="J84" t="s">
+        <v>622</v>
+      </c>
+      <c r="K84" t="s">
+        <v>623</v>
+      </c>
+      <c r="L84" t="s">
+        <v>624</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>616</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>625</v>
+      </c>
+      <c r="X84" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>628</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>629</v>
+      </c>
+      <c r="J85" t="s">
+        <v>630</v>
+      </c>
+      <c r="K85" t="s">
+        <v>631</v>
+      </c>
+      <c r="L85" t="s">
+        <v>632</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>633</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>634</v>
+      </c>
+      <c r="X85" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>637</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>638</v>
+      </c>
+      <c r="J86" t="s">
+        <v>639</v>
+      </c>
+      <c r="K86" t="s">
+        <v>640</v>
+      </c>
+      <c r="L86" t="s">
+        <v>641</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>633</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>643</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>644</v>
+      </c>
+      <c r="J87" t="s">
+        <v>645</v>
+      </c>
+      <c r="K87" t="s">
+        <v>646</v>
+      </c>
+      <c r="L87" t="s">
+        <v>647</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>633</v>
+      </c>
+      <c r="O87" t="s">
+        <v>229</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>648</v>
+      </c>
+      <c r="X87" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>651</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>652</v>
+      </c>
+      <c r="J88" t="s">
+        <v>653</v>
+      </c>
+      <c r="K88" t="s">
+        <v>654</v>
+      </c>
+      <c r="L88" t="s">
+        <v>655</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>633</v>
+      </c>
+      <c r="O88" t="s">
+        <v>187</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>656</v>
+      </c>
+      <c r="X88" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>659</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>660</v>
+      </c>
+      <c r="J89" t="s">
+        <v>661</v>
+      </c>
+      <c r="K89" t="s">
+        <v>662</v>
+      </c>
+      <c r="L89" t="s">
+        <v>663</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>633</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>664</v>
+      </c>
+      <c r="X89" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>667</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>668</v>
+      </c>
+      <c r="J90" t="s">
+        <v>661</v>
+      </c>
+      <c r="K90" t="s">
+        <v>669</v>
+      </c>
+      <c r="L90" t="s">
+        <v>670</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>633</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>664</v>
+      </c>
+      <c r="X90" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>672</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>673</v>
+      </c>
+      <c r="J91" t="s">
+        <v>674</v>
+      </c>
+      <c r="K91" t="s">
+        <v>675</v>
+      </c>
+      <c r="L91" t="s">
+        <v>676</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>677</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>664</v>
+      </c>
+      <c r="X91" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>679</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>680</v>
+      </c>
+      <c r="J92" t="s">
+        <v>681</v>
+      </c>
+      <c r="K92" t="s">
+        <v>682</v>
+      </c>
+      <c r="L92" t="s">
+        <v>683</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>677</v>
+      </c>
+      <c r="O92" t="s">
+        <v>229</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>684</v>
+      </c>
+      <c r="X92" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>687</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>688</v>
+      </c>
+      <c r="J93" t="s">
+        <v>689</v>
+      </c>
+      <c r="K93" t="s">
+        <v>690</v>
+      </c>
+      <c r="L93" t="s">
+        <v>691</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>677</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>692</v>
+      </c>
+      <c r="X93" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>695</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>696</v>
+      </c>
+      <c r="J94" t="s">
+        <v>697</v>
+      </c>
+      <c r="K94" t="s">
+        <v>698</v>
+      </c>
+      <c r="L94" t="s">
+        <v>699</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>677</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>700</v>
+      </c>
+      <c r="X94" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>703</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>704</v>
+      </c>
+      <c r="J95" t="s">
+        <v>705</v>
+      </c>
+      <c r="K95" t="s">
+        <v>706</v>
+      </c>
+      <c r="L95" t="s">
+        <v>707</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>677</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>708</v>
+      </c>
+      <c r="X95" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>711</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>712</v>
+      </c>
+      <c r="J96" t="s">
+        <v>713</v>
+      </c>
+      <c r="K96" t="s">
+        <v>714</v>
+      </c>
+      <c r="L96" t="s">
+        <v>715</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>708</v>
+      </c>
+      <c r="X96" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>717</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>718</v>
+      </c>
+      <c r="J97" t="s">
+        <v>719</v>
+      </c>
+      <c r="K97" t="s">
+        <v>720</v>
+      </c>
+      <c r="L97" t="s">
+        <v>721</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>722</v>
+      </c>
+      <c r="O97" t="s">
+        <v>187</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>723</v>
+      </c>
+      <c r="X97" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>726</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>727</v>
+      </c>
+      <c r="J98" t="s">
+        <v>728</v>
+      </c>
+      <c r="K98" t="s">
+        <v>729</v>
+      </c>
+      <c r="L98" t="s">
+        <v>730</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>677</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>731</v>
+      </c>
+      <c r="X98" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>734</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>735</v>
+      </c>
+      <c r="J99" t="s">
+        <v>728</v>
+      </c>
+      <c r="K99" t="s">
+        <v>736</v>
+      </c>
+      <c r="L99" t="s">
+        <v>737</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>722</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>738</v>
+      </c>
+      <c r="X99" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>741</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>742</v>
+      </c>
+      <c r="J100" t="s">
+        <v>728</v>
+      </c>
+      <c r="K100" t="s">
+        <v>743</v>
+      </c>
+      <c r="L100" t="s">
+        <v>744</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>677</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>738</v>
+      </c>
+      <c r="X100" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>746</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>747</v>
+      </c>
+      <c r="J101" t="s">
+        <v>748</v>
+      </c>
+      <c r="K101" t="s">
+        <v>749</v>
+      </c>
+      <c r="L101" t="s">
+        <v>750</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>722</v>
+      </c>
+      <c r="O101" t="s">
+        <v>60</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>751</v>
+      </c>
+      <c r="X101" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>754</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>755</v>
+      </c>
+      <c r="J102" t="s">
+        <v>756</v>
+      </c>
+      <c r="K102" t="s">
+        <v>420</v>
+      </c>
+      <c r="L102" t="s">
+        <v>757</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>722</v>
+      </c>
+      <c r="O102" t="s">
+        <v>60</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>759</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>760</v>
+      </c>
+      <c r="J103" t="s">
+        <v>761</v>
+      </c>
+      <c r="K103" t="s">
+        <v>762</v>
+      </c>
+      <c r="L103" t="s">
+        <v>763</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>722</v>
+      </c>
+      <c r="O103" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>764</v>
+      </c>
+      <c r="X103" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>767</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>768</v>
+      </c>
+      <c r="J104" t="s">
+        <v>769</v>
+      </c>
+      <c r="K104" t="s">
+        <v>770</v>
+      </c>
+      <c r="L104" t="s">
+        <v>771</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>772</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>773</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>774</v>
+      </c>
+      <c r="J105" t="s">
+        <v>769</v>
+      </c>
+      <c r="K105" t="s">
+        <v>775</v>
+      </c>
+      <c r="L105" t="s">
+        <v>776</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>772</v>
+      </c>
+      <c r="O105" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>777</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>778</v>
+      </c>
+      <c r="J106" t="s">
+        <v>779</v>
+      </c>
+      <c r="K106" t="s">
+        <v>780</v>
+      </c>
+      <c r="L106" t="s">
+        <v>781</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>772</v>
+      </c>
+      <c r="O106" t="s">
+        <v>60</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>783</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>784</v>
+      </c>
+      <c r="J107" t="s">
+        <v>785</v>
+      </c>
+      <c r="K107" t="s">
+        <v>786</v>
+      </c>
+      <c r="L107" t="s">
+        <v>787</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>772</v>
+      </c>
+      <c r="O107" t="s">
+        <v>788</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>789</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>790</v>
+      </c>
+      <c r="J108" t="s">
+        <v>791</v>
+      </c>
+      <c r="K108" t="s">
+        <v>792</v>
+      </c>
+      <c r="L108" t="s">
+        <v>793</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>772</v>
+      </c>
+      <c r="O108" t="s">
+        <v>187</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>794</v>
+      </c>
+      <c r="X108" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>797</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>798</v>
+      </c>
+      <c r="J109" t="s">
+        <v>799</v>
+      </c>
+      <c r="K109" t="s">
+        <v>800</v>
+      </c>
+      <c r="L109" t="s">
+        <v>801</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>772</v>
+      </c>
+      <c r="O109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>803</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>804</v>
+      </c>
+      <c r="J110" t="s">
+        <v>805</v>
+      </c>
+      <c r="K110" t="s">
+        <v>806</v>
+      </c>
+      <c r="L110" t="s">
+        <v>807</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>808</v>
+      </c>
+      <c r="O110" t="s">
+        <v>187</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>809</v>
+      </c>
+      <c r="X110" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>812</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>813</v>
+      </c>
+      <c r="J111" t="s">
+        <v>814</v>
+      </c>
+      <c r="K111" t="s">
+        <v>815</v>
+      </c>
+      <c r="L111" t="s">
+        <v>816</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>817</v>
+      </c>
+      <c r="X111" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>64180</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>820</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>821</v>
+      </c>
+      <c r="J112" t="s">
+        <v>822</v>
+      </c>
+      <c r="K112" t="s">
+        <v>823</v>
+      </c>
+      <c r="L112" t="s">
+        <v>824</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>825</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>826</v>
+      </c>
+      <c r="X112" t="s">
+        <v>827</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>828</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_362.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_362.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="939">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>marmarhar</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Shaziah B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r588905430-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>somethingclevr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r585873840-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>All the staff members I came in contact with were very friendly and helpful. The hotel is very clean and well laid out. It is any easy walk to Disneyland which is one of the reasons we chose to stay here. Only two negatives and they were very minor. Parking is an extra $15 per day which seems to be the going rate for the area. We arrived late and had to park quite a ways away (it almost seemed like it was in the adjacent hotel parking lot) so the only thing is if they are busy and you arrive late you may not get a parking spot because there doesn’t seem like there is a ton of parking.The only other thing was that our room was facing the expressway which was quite noisey. I’m a light sleeper and even though they had a white noise machine in the room (which was a nice touch) I still had to wear earplugs to drown out the noise which thankfully I had a pair with me.Otherwise this hotel was great and I would definitely recommend and would stay here again. Just request a room not on the expressway side if you can.More</t>
   </si>
   <si>
+    <t>leslie s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r566954183-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -244,6 +256,9 @@
   </si>
   <si>
     <t>After a not so fabulous stay in the Thousand Oaks area, this hotel felt like a soft cozy landing on a beach following a boat ride through a horrific storm. It is new-ish and super clean. The beds are wonderful and cozy. The staff is incredibly pleasant. The breakfast was great. I'm just so, so happy and thankful.If you are looking for a place to stay near Disneyland, you won't be disappointed with the Holiday Inn Express. The only negative was that they charge for parking. But, due to the quality of the accommodations, I am happy to pay it.More</t>
+  </si>
+  <si>
+    <t>amberkelle</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r566575637-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -271,6 +286,9 @@
 The room was really big and there was a lovey lounge area (there was only two of us travelling so more than enough room) however people before us looked like they had been forcing chargers that didn't fit into the charging points...We head to Anaheim once every year or few years. This hotel looked beautiful from the photos and the reviews were good so even though it was not as close as we normally like to stay to Disneyland we were looking forward to trying somewhere new. We arrived tired and early from NZ (about 11am) but despite the hotel being really quiet weren't able to get a room early so they held our bags and booked us in, took our ID etc and we were told they would take our suitcases up to the room once it was ready which was a really nice gesture. So we went for a walk and had lunch at downtown Disney. Came back to the hotel about 4pm but had to check in and repeat what we had done when we first arrived. They they rolled the suitcases out from the back room.... which were never taken up to the room...so the first point of customer service contact was all show no follow through. Nothing was said about the hotel gym or pool - if there was a laundry and hours ect - we really were left to look for everything ourselves. The room was really big and there was a lovey lounge area (there was only two of us travelling so more than enough room) however people before us looked like they had been forcing chargers that didn't fit into the charging points next to the bed so we couldn't use them.The breakfast area was really clean and choices were great for a quick breakfast. It would have been nice to have the tea and coffee near the reception area so once you come home from the park you could grab a quick hot drink. There are no vending machines (they have a small show by receptions but it is expensive) The biggest bug for us was the distance to and from Disneyland. We knew this was not as close as we normally stay but thought the new building/breakfast ect was an insentive but after the long days in the park it was just to far away for us. You can cut a triangle corner off by cutting through a car park but not much. The hotel staff never greeted us when we passed through reception nor the valet at the door - which was noticeable as we would walk past the Tropicana Inn and Suites and could hear them chatting to their customers EVERY EVENING. A quick 'welcome back' would go a long way. Same when we were checking out the key cards were handed back and that was that really. If the hotel staff delivered on friendly service and there was a hotel shuttle (like the candy cane inn) this would be an AMAZING spot but until then we'll pick somewhere closer next year.More</t>
   </si>
   <si>
+    <t>Meredith L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r561796926-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
     <t>I have been to Disneyland many times and stayed in an array of places and I have to say I would stay here again. The location was fantastic - an easy walk to the park and right next to Mimi's which is a great restaurant for a family dinner. The hotel was clean and bright with Disney movies playing in the lobby. The cleaning service of our room was A+ every time. The pool area was clean and relaxing and had a great little spray area for the kids. The breakfast had something for all and though it's not gourmet or extravagant, it filled our bellies each morning and we were happy. And finally, the front lobby staff were always friendly, no matter who was on shift and they always wished us a good day, and welcomed us back. Absolutely recommend.More</t>
   </si>
   <si>
+    <t>Kabalguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r548855758-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -317,6 +338,9 @@
   </si>
   <si>
     <t>So this will be interesting. I'm going to do a live review of this property.I'm a little hot right now, but I realize I am so I'm going to try and keep that in mind.Arrived last night and was greeted by very friendly staff. Got our room and it is quite a nice set up with 2 queen beds and a large sitting area.Then came 11pm. After being up since 4am, flying and then visiting LA, a family came back to their room and were yelling and screaming. Banging doors and walls. Hotel claims to have a quiet time and 2 strike policy. Took everything in my power to not going banging on doors and I called the front desk. I know the hotel doesn't have complete control over their guests but I will go out of my way to book Holiday Inn because of the rooms and staff. They said they apologized and would take care of it.Rest of the night was fairly quiet...until 5:30. When they were at it again. Spoke to front desk this morning and we're going to move rooms. Hopefully things improve....to be continued.More</t>
+  </si>
+  <si>
+    <t>Allmanjoy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r547450608-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -353,6 +377,9 @@
 Overall, a nice hotel which could be better with a few tweaks. Nice breakfast, great staff, nice pool/hot tub/splash pad area. Close to Disney, reasonable price, modern and clean decor, nice beds. Just wish with a large family of 4 kids the rooms could make more sense. If only designers...Overall a nice property. Not my favorite Disney area hotel, but a good option. There are a couple of design flaws that really bothered me.1: we stayed in the grand suite, which is one of their larger rooms. The unfortunate part was, it’s just one big room. Although there are seating areas, there is nothing that separates the beds from the living area. Would be really nice to separate those two spaces. As it is with kids—you all go to bed at the same time. Rally makes a large room like this pointless. 2: The bathroom is just a sliding door, that does not lock. Again, with families, bathroom door that locks is pretty important.3: Our room faces the freeway. We were able to fall asleep to the sound of semi trucks, honking horns, and emergency cars on the freeway all night long. It’s very loud! 4: Parking lot is awful. 95% of the spaces are reserved for valet, So you are sort of forced to ballet. The good news is, valet and self parking are the same price, so we just got used to Valet’ing every night.Overall, a nice hotel which could be better with a few tweaks. Nice breakfast, great staff, nice pool/hot tub/splash pad area. Close to Disney, reasonable price, modern and clean decor, nice beds. Just wish with a large family of 4 kids the rooms could make more sense. If only designers knew the challenges of traveling with kids...More</t>
   </si>
   <si>
+    <t>tandalat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r547254488-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -368,6 +395,9 @@
     <t>The high ceiling is quite nice and its walking distance to Disneyland gate makes it easy schedule your time around activities at the park. You can probably get back to get a siesta and dash back in to catch some night shows etc. The breakfast is decent, not a lot of options but expected for this range of hotels. The pool is rather small. Lots of kids though!</t>
   </si>
   <si>
+    <t>SeattleFamily2020</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r544090239-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -386,6 +416,9 @@
     <t>This hotel is a fantastic place to stay, especially if you are visiting the Disney Parks. The main entrance to Disneyland and California Adventure Park is just a short walk from the hotel. By far, the most noticeable thing about this hotel is the kindness and attention we receive from the staff. Led by the manager, Akul, the staff is super courteous and energetic at all hours of the day. We have stayed at this Holiday Inn Express many times since it opened and every time it has been great. The location is a plus, but it is the staff that keeps us coming back. We use the valet parking and it is fast and convenient. Even the members of the house keeping crew are kind and helpful. The amenities are great and are family friendly. Rooms are spacious and there is a nice pool and hot tub. The free breakfast is well staffed and has lots of food options. For business or pleasure, we highly recommend this hotel!More</t>
   </si>
   <si>
+    <t>mellettfam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r543719386-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -401,6 +434,9 @@
     <t xml:space="preserve">Stayed here with a group of 4 plus a one year old. The service could not be better. Found a room that was available for us far before check in, pulled milk from the kitchen for us (free of charge) late at night for the baby, brought a crib to the room, stored our luggage all day after check out. Only about 1/2 mile from Disneyland the location is awesome. Room was new, clean, large! FREE breakfast was tasty and filling! Going to make this my regular hotel for Disneyland! </t>
   </si>
   <si>
+    <t>my3sons88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r541647988-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -425,6 +461,9 @@
     <t>Newer hotel in the area, clean, convenient (about 10mins walk to main gate). Our room was very spacious at 650sq ft for our family of 5. Negatives: has shared parking lot with hotels/motels in the area, rather confusing; front desk staff needs more customer service training (over promised, under delivered); bathroom lacked towel racks/hooks; no place to hang wet towels/clothing except on the shower curtain rod.  Overall it is what is expected of a budget hotel.More</t>
   </si>
   <si>
+    <t>JolieAnnePhoto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r537495009-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
   </si>
   <si>
     <t>Large, clean rooms and super quiet..Beds were comfortable and the pillows..and ac that actually works really well...I like it cold at night..I had no noise issues. We could see the fireworks from our room and loved it! See more of my travels at @jolieannephoto on instagram.The pool was great although a little chilly. Nice, small gym. That was my only complaint. My 13 year old son runs cross country and he was not allowed to run on the treadmill without a parent but there was no where I could sit to watch him run in place for an hour.The breakfast was awesome. I had my greek yogurt, scrambled eggs and pork sausage to stick with my low sugar diet and my boys had cinnamon rolls, fruit, yogurt, pancakes...etc..seating was nice in the dining area too.Staff was super nice and I loved that valet is included in the parking fee. There were plenty of luggage carts. From the 2nd floor elevator to the ticket entrance at Disney it was a 18 minute walk and I do not walk fast. We hit up the Mcdonalds every night on the way back for some cheap food but  Mimis, Panera, Dennys etc are in walking distance.More</t>
+  </si>
+  <si>
+    <t>nzTrina</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r536214165-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -474,6 +516,9 @@
 I also enjoyed the breakfast which is part of your hotel room cost. It wasn't flash, and it didn't have a huge amount of variety, but it had what is needed at breakfast and was quick and easy. We were able to grab a bite to eat without worrying about cost, before heading out for the day which was...We stayed here for 6 days while we enjoyed the Las Angeles experience. It was brilliant. So close to Disneyland that we walked each day and didn't need to worry about parking. Also close enough to walk to a strip of restaurants including places like the Cheesecake factory. Plus things like chemists and souvenir shops all close as well.The rooms are wonderful. I would highly recommend getting the room we had which is right on the end of the hotel, and has a circular area with living room. The Penthouse suite. it sounds expensive, but wasn't that much more than a standard room and is soooooo worth it!It gave us so much more room and allowed us to see Fireworks from Disneyland when they were on.The part I loved the most was being able to do our washing in the laundry area for a reasonable price instead of having to pay for it to be outsourced. The washing machine was huge. It allowed me to do a single load of 4 people from a week of travelling. Brilliant.I also enjoyed the breakfast which is part of your hotel room cost. It wasn't flash, and it didn't have a huge amount of variety, but it had what is needed at breakfast and was quick and easy. We were able to grab a bite to eat without worrying about cost, before heading out for the day which was great.The pool was excellent. The kids enjoyed it a lot, and there was even a small water feature  for the kids to run around in. Perfect to keep them entertained and still have some down time.Back to the room, it was clean and tidy. Looked new. And the cleaners did a good job of making beds etc. I had heard reviews that people were worried about walking back to the hotel after a day at Disneyland, but have no idea why they would think this. It is very close and well lit. Howard Johnson's is just across the road, and another hotel just in front of it, so there were always people about. The road itself was clean and tidy and it was just a nice place to be. We had no reason to worry at all!To park your car is $15 per day whether you do it yourself or have it valet. The people manning the valet station were friendly and helpful and always quick. The main reception was staffed by wonderful people too. Always with a smile on their face and remembering us. So much nicer than many other places I've stayed. We used this hotel as our base and then did day trips to Universal Studios and Santa Monica. Depending on the day and traffic you'll get varying times to get to these places. But it still made it worth staying here in one place than moving around.There is only one downside to this hotel that I can think of, its proximity to the freeway. But we didn't notice much noise, so it didn't affect us. Considering how loud all of America seems to be (there is always noise somewhere), this was nothing!Wifi was part of the package, and was easy to use.I really loved this hotel and I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Sarah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r533163863-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>clarke3011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r529749033-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -507,6 +555,9 @@
     <t>We booked the Holiday Inn Express and Suites in Anaheim since it was a great price, is so close to Disneyland and included a hot breakfast.  Our stay was terrific from the time we arrived starting with the very friendly and helpful staff.  They went above and beyond!  We enjoyed the large rooms (we had two adjoining rooms) with fridge, coffee maker and microwave as well as the pool and water feature (for the kids).  This is a great family hotel and will stay here again!</t>
   </si>
   <si>
+    <t>Bob M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r527445863-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -525,6 +576,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Sabrena W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r527384581-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -546,6 +600,9 @@
     <t>Our travel plans changed and when I called to cancel our reservation, I was told that I would be charged the full amount of the hotel room.  Basically there is no option to cancel.  BEWARE! It's a scam.  Holiday Inn became a nightmare. STAY AWAY!More</t>
   </si>
   <si>
+    <t>Edouard P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r521981701-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -567,6 +624,9 @@
     <t>We (family of 4) stayed at this hotel for 3 nights during a trip to Disneyland.  I typically stay at the large chain hotels (IHG, Hilton, Starwood, or Hyatt) so I know what to expect.  This hotel did NOT let me down.  The distance to the Disneyland gates is great; just a short walk of less than 10 minutes.  The hotel is very clean.  The room we stayed in was VERY large for our family (considering we had a crib in the room).  The breakfast area was large so plenty of room for a lot of guests.  The food options were what  you expect out of a HIX (the staff could probably clean up tables a little faster; minor inconvenience).  They offer valet parking, but since you can walk to Disney, we just self-parked and left the car until departure.  Oh yeah, there were available outlets all over the place in the room (SCORE!).  For future trips to Disneyland, this is now my go-to hotel due to 1) price (cost (or points) is reasonable for HIX), 2 location, 3) cleanliness/size..  Well done!More</t>
   </si>
   <si>
+    <t>longwellck98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r519500721-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -585,6 +645,9 @@
     <t>We stayed at the hotel from August 22 - 27.  We picked this hotel because of previous great experiences with Holiday Inn Express Hotels, the location to Disneyland and the breakfast.  It was myself, husband, 18 month old and 6 year old.  I reached out to the hotel a few weeks before our trip to see if they could help us decorate the room for our daughter's birthday.  They responded very quickly and helped us surprise our daughter with birthday decorations for the room.  She was so excited and it was the perfect way to kick off our trip.  We had 2 queen bed room with a pull out sofa bed.  It was the perfect size and we had plenty of room for our stuff and a big stroller.  The beds were comfortable and plenty of pillows to choose from...after spending all day in the parks it was nice to come back and crash.  This hotel was a quick 10 minute (if that!) walk to Disneyland.  We were able to partially see the fireworks from our room.  Having been to Disney World multiple times, it was nice to not have to unload the kids from the stroller and fold it up to get on a bus...especially after the end of a long day!  The breakfast was fantastic, we found plenty of seating.  The front desk staff was always pleasant, greeting us in the morning and on our way back each...We stayed at the hotel from August 22 - 27.  We picked this hotel because of previous great experiences with Holiday Inn Express Hotels, the location to Disneyland and the breakfast.  It was myself, husband, 18 month old and 6 year old.  I reached out to the hotel a few weeks before our trip to see if they could help us decorate the room for our daughter's birthday.  They responded very quickly and helped us surprise our daughter with birthday decorations for the room.  She was so excited and it was the perfect way to kick off our trip.  We had 2 queen bed room with a pull out sofa bed.  It was the perfect size and we had plenty of room for our stuff and a big stroller.  The beds were comfortable and plenty of pillows to choose from...after spending all day in the parks it was nice to come back and crash.  This hotel was a quick 10 minute (if that!) walk to Disneyland.  We were able to partially see the fireworks from our room.  Having been to Disney World multiple times, it was nice to not have to unload the kids from the stroller and fold it up to get on a bus...especially after the end of a long day!  The breakfast was fantastic, we found plenty of seating.  The front desk staff was always pleasant, greeting us in the morning and on our way back each night.  They'd say hi to our kids and truly made our trip hassle free.  I had a box of diapers shipped out a few days before our trip and our rental stroller was delivered a few hours before we got there.  We loved the little touches of Disney throughout the hotel.  I cannot say enough good things about this hotel, when we make our return trip to Disneyland we will definitely be booking this hotel again.More</t>
   </si>
   <si>
+    <t>luv2takepics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r517166905-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -606,6 +669,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>MrBigg505</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r504908823-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -621,6 +687,9 @@
     <t xml:space="preserve">Great Location, Great Views, Great Staff, Clean Rooms and an amazing pool. The guy at the front desk Matt was the best, he was friendly, Professional, and helped us out with all our questions. He upgraded us from a regular room to a penthouse suite at no extra cost. The Spanish guy with glasses that works valet on the evening shift was great as well. Very professional, Friendly, and he answered all my questions I had with no problems. Because of Him and Matt, I will definitely go back and stay there again. I just hope they are still working there next time I go to California. </t>
   </si>
   <si>
+    <t>AustinsMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r503934980-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -639,6 +708,9 @@
     <t>Just came home from 3 nights at this hotel.  I rented the Grande Suite.Pros:  Very spacious comfortable room.  At first I was concerned that the bed was very hard, but surprisingly I slept great.  The room does face the highway but I never heard a sound.  Breakfast was perfect for us.  It was in a large comfortable room.   All of the staff were very friendly.  Cons: THE BATHROOM.   I did not like how the bathroom was right next to the bed.  And it was barn door style and didn't lock.  I did not see any bathroom photos on the site and was surprised that the door was so odd.  There was no way to open and close the door quietly.   The walk to Disneyland was farther than I expected, about 15 minutes.   I assumed (my fault) that I would be able to cut through hotels to Harbor Blvd.   Nope.  We had to walk around.  Harbor Blvd is fine, but I did not feel safe walking down Manchester at midnight.   I am not sure if I would stay here again due to the walk in areas I don't feel safe.  I don't know the bathroom door situation in the other rooms, but I would definitely not rent the Grande Suite again because of the door.More</t>
   </si>
   <si>
+    <t>Castaway22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r502525990-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -652,6 +724,9 @@
   </si>
   <si>
     <t>Typically have stated at Grand Californian or Disneyland Hotel.  Thought we would give this a try.  Room great, free breakfast solid, staff friendly, location really good.  Walk to park entrances is similar in time to walk from Disneyland Hotel.  Ty at the front desk about as good as it gets.  Very helpful, friendly, energetic and proud of his hotel.</t>
+  </si>
+  <si>
+    <t>Satnam B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r500069736-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -676,6 +751,9 @@
 The in check in was fast, friendly and a delight. They have a very large breakfast bar with complementary tea, coffee, hot chocolate available at all times and breakfast starting at 6.30am (oatmeal, bagels, English muffin, fresh fruit, chobani/ yoplait yogurt, bread, peanut butter, cream cheese, jams) on the ground floor along with a fitness room (2 adjustable benches, abdominal ball, free weights 5-50 lb dumbbells, 3 cardio machines-treadmill, elliptical and bike) plus large tv, towels and a cold/hot water dispenser). This is a nice addition if you want to get your pump on...My family of four decided to visit Anaheim to visit California adventure theme park and read a lot of reviews (Trip advisor, Expedia, Yelp, etc). Our requirements were close to theme park, double queen beds, coach/chaise lounge, free Wi-Fi in Room vs just lobby, free continental breakfast, gym onsite, microwave and mini refrigerator in room, clean and easy parking.We narrowed it down to Holiday Inn Express &amp; Suites which is a short 6-7min walk from Disney park. There is a $15+tax per night charge for either self or valet parking. Disney parking is $20. So you can park and walk to Disney, our van was safe here for one night and during the day. The valet is convenient, nothing was taken from our van and no dings or scratches on the vehicle. They do move the vehicles to self parking if you chose valet service. The in check in was fast, friendly and a delight. They have a very large breakfast bar with complementary tea, coffee, hot chocolate available at all times and breakfast starting at 6.30am (oatmeal, bagels, English muffin, fresh fruit, chobani/ yoplait yogurt, bread, peanut butter, cream cheese, jams) on the ground floor along with a fitness room (2 adjustable benches, abdominal ball, free weights 5-50 lb dumbbells, 3 cardio machines-treadmill, elliptical and bike) plus large tv, towels and a cold/hot water dispenser). This is a nice addition if you want to get your pump on after the drive up or early morning workout prior to the park. You will need your key card. They also have an outdoor pool and you can see the Disney fireworks at 9pm if your room faces the park. We chose a room with two queen beds, chaise lounge, which was perfect. Very large, comfortable. Beds were firm. It comfortable, pillows were decent, and AC worked like a champ. Mini refrigerator was very quiet, did not make a rattle when it turned on, they even had a mini sink in room which was very nice. In room safe in closet was very handy if you are staying multiple nights. Bathroom has the usual toiletries (bar soap, lotion, shampoo, conditioner, facial tissues). Hairdryer in bathroom. Living room had a nice sofa, chaise lounge, coffee table, flatscreen tv with HBO, office table and chair. Bedroom was very clean, inviting and comfortable after a long drive or after a long day at the park. Staff were generally helpful when asked questions. I was really impressed with the location, level of comfort, amenities here and would easily stay here again if visiting Disney parks. 5 stars overall.More</t>
   </si>
   <si>
+    <t>Cwpappa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r499679280-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -694,6 +772,9 @@
     <t>I would love to give this place 5 stars for the staff, comfortable and clean rooms, and relatively short walking distance to Disneyland and California Adventure. Unfortunately, breakfast made me lower my rating to 4 stars.  The breakfast was standard Holiday Inn Express food (not great but ok). The problem, though, is that this hotel placed pancakes on top of the eggs so that my daughter could not eat them due to a gluten-food allergy.  The serving utensil was also being used for both items by some guests. Other hotels of the exact same brand had a pancake machine for guests to make their own pancakes (which eliminates this problem).  Also, during our travels one Holiday Inn Express provided wrapped gluten-free bagels.  Not so at this hotel.  It is disappointing because we state our allergy upfront in reservation notes, and it's in my guest profile.  Plus, we were given a list when we checked in of gluten-free items on the buffet...but the list doesn't work if cross-contamination occurs.  My suggestion is to at least provide single-serve gluten-free Chex or gluten-free Lucky Charms cereal, gluten-free bread upon request (very common at other hotels we have stayed at), and keep gluten/wheat items from having direct contact with gluten-free items. More</t>
   </si>
   <si>
+    <t>jats9900</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r497572681-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -718,6 +799,9 @@
     <t>We checked in for two nights staying in a two queen enchanted suite. The room wasn't very big and had a small half wall divider to split the sofa bed area which was a hand lengths away from the other queen bed. When we opened the sofa bed we found dirty sheets on it! So disgusting I called housekeeping and they came up with some new ones right away. The other beds were clean. I found no signs of bed bugs upon my searching for them by the headboards and under mattresses. (I always do a check upon my arrival at a property) The rest of the room was clean but there was a bug stain on the chair in the room and furniture looked worn for being a newer property. The breakfast area was clean and had a variety if good items to choose from. They have a small outdoor pool but it was clean. This property is a good location within walking distance of Disney. I was charged a rate of $230 a night for a small room which they called a suite. The room was not very sound proof and we heard people above us all night long and again in the mornings.I was online the second night and saw they were offering the same room type for $159. Parking around the back of the other connecting hotel is $15 a day. To park in their lot...We checked in for two nights staying in a two queen enchanted suite. The room wasn't very big and had a small half wall divider to split the sofa bed area which was a hand lengths away from the other queen bed. When we opened the sofa bed we found dirty sheets on it! So disgusting I called housekeeping and they came up with some new ones right away. The other beds were clean. I found no signs of bed bugs upon my searching for them by the headboards and under mattresses. (I always do a check upon my arrival at a property) The rest of the room was clean but there was a bug stain on the chair in the room and furniture looked worn for being a newer property. The breakfast area was clean and had a variety if good items to choose from. They have a small outdoor pool but it was clean. This property is a good location within walking distance of Disney. I was charged a rate of $230 a night for a small room which they called a suite. The room was not very sound proof and we heard people above us all night long and again in the mornings.I was online the second night and saw they were offering the same room type for $159. Parking around the back of the other connecting hotel is $15 a day. To park in their lot you have to valet park which is a real joke since the parking lot isn't very big but they reserve it for valet.More</t>
   </si>
   <si>
+    <t>Matt C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r491481349-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -739,6 +823,9 @@
     <t>This place is amazing. I travel a lot and this hotel was clean, looked brand new, staff very helpful and happy, and excellently situated! I was amazed at how comfortable the king bed was and I slept like a baby!! Also quiet rooms unlike some HI's where you can hear the guy in the next room sneeze!  Nice modern lounge area to plug in and work (had a meeting with a colleague there).  Breakfast is the only thing which I think let's down HI's as that would have made this hotel A1, to be able to order eggs etc - here you get the standard cereal etc. I walked to Mimi's Cafe around the corner from the hotel for a higher quality breakfast experience. Wifi also very strong here.  I would definitely bring my family here if we were to go to Disneyland in the future - it's literally 4-5 mins walk around the corner. And, the pool area looked great with nice loungers etc. Congratulations on such a nice hotel experience you give your guests. More</t>
   </si>
   <si>
+    <t>Vedran N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r488997351-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -766,6 +853,9 @@
     <t>Room was excellent. Big, clean, with a lot of light. Food was great, lot of food available. Great to stay if you visit Disneyland. Staff was really pulite and helpfull (thanks to all of them once more).More</t>
   </si>
   <si>
+    <t>gbmateo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r488298542-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -784,6 +874,9 @@
     <t>I recently finished a week long stay here with grandparents and a child and would highly recommend to families to come back again#1: Short walk to Disney, ~15min. to the main security gate on a busy, well lit street. There is only a small section when you walk off Harbor past the Courtyard that isn't as busy, well-lite as would be ideal#2: Large, clean, up to date rooms and Hotel.  The whole family loved it#3: Staff was very friendly.  They helped me get access to the hotel next door to do laundry when there's was broken#4: Breakfast bar was great.  That said, I recommend the management opening up a 6am.  6:30am is on the later side for those wanting to start at the parks early.#5: Several restaurants nearby where you can walk and the Anaheim Garden Walk Mall is a ~5-8min. drive away, easy to do takeoutMore</t>
   </si>
   <si>
+    <t>Darlene A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r487546691-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -820,6 +913,9 @@
     <t>Loved this hotel!  Excellent front desk staff, public areas were extremely clean and room was modern, comfortable and spotless.  A close walk to the Disney attractions.  Hotel has a quiet policy between 10 PM and 7 AM that is well posted and much appreciated.  I wish more hotels did this!  Only complaint was that some breakfast items were not hot enough, but the selection was typical for a Holiday Inn Express and was well stocked.  Very large breakfast area with plenty of seating.  24 hour coffee was always hot and full.  Everyone we encountered at this hotel was extremely nice and helpful.More</t>
   </si>
   <si>
+    <t>CobraKy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r482193864-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -838,6 +934,9 @@
     <t>The location is great for a close walk to Disneyland (less than 10 mins). Friendly staff that recognized IHG status and upgraded to beautiful suite with an entire wall of windows which happened to look perfectly in the direction of the nightly fireworks at Disneyland. Very clean and well kept hotel. Nice, buffet-style, free breakfast with many an array of options both hot and cold. Nice private pool with splash-pad and hot tub. My one, and only, complaint is the parking. $15 per day regardless of hotel status. Overall, a great choice for Disneyland area hotel. Will stay again.More</t>
   </si>
   <si>
+    <t>HeartDoc76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r478072872-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -865,6 +964,9 @@
     <t>We stayed there earlier this month during our trip to Disneyland. First off, we did not spend much time there accept to sleep. All in all, a good experience. The walk to Disney is about 7-10 minutes...but after a long day of walking, it seemed longer. The breakfast area is well stocked and big. We had one of the largest rooms in sqft. The maid service was good. We did not like the sliding door in front of the bathroom as it did not give much in a sense of privacy. But, its whats "in" now and this is a newer hotel. We had a stroller delivered and picked up from the hotel without issue. I did wish that breakfast would start at 6AM instead of 0630. When you have your early day at Disney (7AM), you want hurry up and eat and get there. We did have an issue with the second TV in our room that was not resolved and the first night and the maintenance guy never came back. But, we never used the TVs after the first night. We enjoyed our stay and would stay there again.More</t>
   </si>
   <si>
+    <t>Jed F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r477858878-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -883,6 +985,9 @@
     <t>After checking in, we found a small minor setback within our room. I want to commend Front Desk Agent Nick (Friday, 4/21) for his quality hospitable service; and having us upgraded to an awesome suite. Thanks!More</t>
   </si>
   <si>
+    <t>Asl154</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r474335189-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -901,6 +1006,9 @@
     <t>Room was big and hotel was clean. Service was good and staff was helpful. Very convenient and close to Disneyland. Onsite laundry was very convenient. Breakfast was simple but good enough for us. Overall, it was one of the best HIE we've stayed in.More</t>
   </si>
   <si>
+    <t>Tina H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r471993140-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -925,6 +1033,9 @@
     <t>Loved this hotel! So clean. Great breakfast. Staff is friendly and helpful. Disney is in walking distance. Will stay here again. Hope to get a room on the Disney side next time. The other side of the hotel is next to a busy highway. A little loud. More</t>
   </si>
   <si>
+    <t>Andrew N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r467428643-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -952,6 +1063,9 @@
     <t>New hotel, the reception staff and car valets were all friendly and helpful, rooms were really nice as hotel is fairly new, only a 10 minute walk from Disney. We ordered food in from Panda House - hotel had menus, it was excellent !More</t>
   </si>
   <si>
+    <t>scottcburns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r466396432-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -970,6 +1084,9 @@
     <t>Really taken back by what Holiday Inn  Express is offering up.  Really great rooms, reasonable price and breakfast.  The Staff was friendly and very helpful. This hotel is in a resort area but a really great find for business travelers. I will certainly look for this these properties in the future.More</t>
   </si>
   <si>
+    <t>Tiffany Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r463960566-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -994,6 +1111,9 @@
     <t>Stayed at the Holiday Inn for 3 nights in February and loved it! We were 3 adults staying in a 2 queen bed (enchanted) suite and it was perfect with the pull out sofa bed. The rooms are a decent size with enough room for everyone and our luggage.The hotel is new so everything feels clean and welcoming. The breakfast is included and offers anything you could need to get your day started.It's about a 10-15 min walk to the gates of Disneyland with lots of families and people walking back and forth at all times it was very safe. The reason I only gave 4 stars is because we had a room with an adjoining door and on the second night we could hear everything our neighbor was saying as if they were in the room with us. On the last night of our stay someone got checked into the room at 3am and we woken up by them moving around and chatting for an hour which was very disappointing.The bathroom only has one hook for a single towel and when they encourage you not to get new towels everyday it would be nice to have somewhere to hang them.Other than that the hotel was great and I would stay again if I could request a room that didn't have an adjoining door.More</t>
   </si>
   <si>
+    <t>globetrottermin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r463359517-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1021,6 +1141,9 @@
     <t>Had an extremely great experience and stay here for our trip to Disneyland. Property is brand new and it shows, our room was pristine and spacious!! All areas of the hotel from the pool to the breakfast areas were very clean and well-maintained. Everyone from the housekeeping staff to the front desk were great, We are glad we took Tyler's advice and took Uber to LAX, it ended up being very economical. Will definitely stay here again for future visits!More</t>
   </si>
   <si>
+    <t>shansmith110</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r462333653-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1039,6 +1162,9 @@
     <t>We had he queen suite rooms which were very spacious and clean. Small fridge with microwave and Keurig coffee machine in room was very useful. Newly remodeled. Very comfortable beds.Breakfast room was very nice and plenty of room. Nice hot breakfast buffet was included. Make your own pancakes, scrambled eggs, veggie omelette (pre-made), sausage, breads, pastries etc. made for a great start to the day. Staff was very friendly and accommodating.Pool was heated - even enough for kids on a chilly February day.....small but nice and clean. Small "sprinkler" area for kids to play in water area.More</t>
   </si>
   <si>
+    <t>4xST</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r458955076-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1063,6 +1189,9 @@
     <t>Great hotel. Highly recommend it. We stayed 3 nights for a trip to Disneyland with our 3 and 5 year olds. The staff was so friendly and helpful. Valet remembered us every time but still checked IDs for safety. My 3 and 5 year olds had no problem with the walk from Disneyland to the hotel. One of the days we decided to drive to Disneyland instead of walk since it was supposed to rain at the end of the day and it took 3x as long to get to the parking garage, park, walk to the tram, walk through downtown Disney and get to the gate. Walking from the hotel is so much better/faster. We even walked back to hotel from the park around 3pm and let the kids nap and eat and then walked back that evening for another round of fun. It was perfect. The included breakfast was great. Coffee available all the time in the lobby. The room was very spacious, we had a sectional, desk, 2 queen beds, a kitchenette with sink, microwave and mini fridge that came in handy. There are lots of restaurants within walking distance and a target down the road you can drive or ride the ART shuttle to. We would be happy to stay there again and will if we ever decide to visit Disneyland again.More</t>
   </si>
   <si>
+    <t>Tracey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r457913137-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1087,6 +1216,9 @@
     <t>My husband and I stayed two nights here last weekend, and we had such a great time. Some friends set up our vacation, and they chose this hotel for us because of its close proximity to Disneyland. We loved being so close to the park, and the special treatment I received on my birthday. Our friends called to ask if the hotel staff could do something special for my birthday, so we came back and found the room decorated with balloons, a happy birthday sign, and a bag of chocolate. The staff was wonderfully friendly!More</t>
   </si>
   <si>
+    <t>RoadtripMommyOf4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r457390384-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1111,6 +1243,9 @@
     <t>Pros: Great stay! Excellent value. Friendly staff. Clean comfortable large room with nice, well thought out amenities. Very quiet. We appreciated the "2 strike" noise policy posted at elevators. USB ports on the nightstand outlets offered plenty of convenient charging options for devices. Breakfast exceeded expectations with offerings and service. Staff was constantly replenishing and cleaning up at breakfast. Perfect location - 10 minute walk from main gate, so no need to wait for a shuttle. Plenty of self parking was available during our stay during the off season.Cons: This is very minor. Guest laundry has only one washer and one dryer. We tried three different times to wash clothes and it was in use every time. We ended up purchasing additional clothes for our youngest child instead. Just be aware that although this hotel does offer guest laundry, it may very well not be available and pack accordingly. Overall, an excellent property. We will definitely stay here again!More</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r452510121-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1136,6 +1271,9 @@
   </si>
   <si>
     <t>We booked an Enchanted 2 Queen Suite, which easily sleeps 4 with 2 queen beds and a foldout couch bed. It was so quiet and the beds were excellent. We probably got the best sleep we've ever had in a hotel. Breakfast options are enough to have something different every morning for a few days. From here, it's about an 8-10 minute walk to Disneyland. So convenient not to have to take a shuttle! Shower had good water pressure and it was nice having a tub and a quiet fridge. We could see the top of Space Mountain from our room and apart from the Disneyland fireworks, we didn't hear any outside noise the whole night. Another plus, towels are provided at the pool. This hotel posts a 2 strike noise policy at the elevators, which I love! Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>Benjamin W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r452031834-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1174,6 +1312,9 @@
 ***NOTE*** If you're using your Magic Morning on check...My wife and 2 kids chose to stay here as opposed to the Disneyland Resort and were not disappointed. Checked in and learned all guests must valet their vehicle. $15/day but that was no problem. I came and went a few times over the next 3 days and the valet literally ran to my vehicle every time. The room had 2 queen beds and a sleeper couch. Plenty of room for 2 adults and probably up to 3-4 kids. Satellite TV, WiFi, nice bathroom. Room was in nice condition and we had plenty of pillows (a deal breaker for me and hotels). Complimentary breakfast buffet starting at 6:30. Wide range of hot items, cold cereal, eggs prepared 3 different ways, bagels, fruits (which are wrapped and can be taken), etc. Could walk from the hotel to the security check gates at Disneyland in 20 minutes. Even if you park in the satellite lot that shuttles you to your car, you could walk from the shuttle pickup location to the room in less time than it would take the shuttle to get to your car. Lastly, you can buy an additional day of parking for your last day at Disneyland for the $15 valet charge, and that only applies if you're there past 1 pm. But it's $22 (I think) to park in the Toy Story lot and it was more inconvenient. ***NOTE*** If you're using your Magic Morning on check out day, I HIGHLY recommend just parking at the hotel so you can arrive at the park on your own terms. We lost 20 minutes of our early hour because we didn't just pay the extra day of valet at the hotel and I regret that decision. We parked in the Toy Story lot which opens at 8 (and we still had to shuttle over after that) and that was also the time we could've gone into the park. Great hotel, great amenities, budget conscious, would absolutely recommend to anyone doing a multi-day stay at Disneyland or just travelling with family. More</t>
   </si>
   <si>
+    <t>kaeandyreviews</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r452020182-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1192,6 +1333,9 @@
     <t>Good for first-timers going to Disneyland.Close to the parks and makes good time for a family with a short time.Nice hot tub as well.As said before, Great for Families who just want a magical time.Amazing hotel.More</t>
   </si>
   <si>
+    <t>debbiedavemesa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r446376595-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1214,6 +1358,9 @@
   </si>
   <si>
     <t>We took a quick trip to Disneyland and decided to stay at this Holiday Inn Express. It's new, even smells new when you walk into the room. Breakfast is your typical Holiday Inn fare. The beds were comfortable. The rooms were quiet, for the most part. They have signs posted saying quiet time is from 10 pm to 7 am, and people seemed to honor that but they are definitely noisy (letting kids run down the halls, banging on doors to other rooms, and slamming doors) as soon as it hits 7 am. Everyone is nice. You pay for parking. It's $15 whether you self park or valet park. I highly recommend valet. The valet attendants were nice. There was one that was slacking a bit but it was fine. He was always in the back room. You are about a 15 minute walk from the main gate of Disneyland. It's only a long walk when you have been at the park for 10 hours then have to walk back, then it seems like it takes forever. We enjoyed this property. Very nice, quiet for the most part, friendly staff, clean, comfy. The one suggestion I would make is to have towel racks in the bathroom. There were three of us in our room and there is one hook on the door. There is no place to hang towels. I just thought that was strange. Would recommend.More</t>
+  </si>
+  <si>
+    <t>Trent H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r445654449-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1257,6 +1404,9 @@
 parking spots that are close by.  I declined and found there were always plenty of spots to park on the other side of the motel next door and it was only a 30 second walk to the front door of the hotel. I would much rather have been told how easy it was to park where I did and save on the valet rather than the valet that was working the front desk try to pad his wallet. I appreciate customer service that looks out for the customer...I was very disappointed with this hotel.Here are my reasons why.1. Open porn channels. REALLY? I do not want my kids to happen upon porn and I do not know any families that do.  If you are a family friendly hotel then do away with the porn channel or at the least advise families and give them the option to block it. For this 1 reason alone, I will never return to this hotel nor will I reccommend it.2. Hot tub water was extremely dirty.  You would come out smelling like dirty feet.3. Bathroom has a sliding door that can not be locked. Terrible for privacy.4. The noise from I-5 in the room was horrendous.  I felt like my bed was in the middle of the freeway.  Terrible sleep.5. Was strongly encouraged to pay for Valet parking and was told that it was hard to find parking spots that are close by.  I declined and found there were always plenty of spots to park on the other side of the motel next door and it was only a 30 second walk to the front door of the hotel. I would much rather have been told how easy it was to park where I did and save on the valet rather than the valet that was working the front desk try to pad his wallet. I appreciate customer service that looks out for the customer and not themselves. Positives1. Kitchen Staff is awesome2. Hotel is close to DisneylandMore</t>
   </si>
   <si>
+    <t>Jenny L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r445082713-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1273,6 +1423,9 @@
   </si>
   <si>
     <t>Excellent front desk staff, both helpful and friendly.  Our room was clean and quiet even with families in the rooms surrounding us.  The breakfast was actually wonderful quality with a large variety of selections.The walk to Disney was around 7/8 minutes to the Disneyland street entrance and another 7/8 minutes to the actual entrance to the parks.  We walked back to the hotel each evening around 11:30pm and there were quite a few families walking around also which made us feel safer.  It was a nice area to be around.  We actually took a kiddo nap break from the parks each afternoon and it was a quick enough walk to do so easily.  Many people around were scrambling for busses and it was nice to not have to worry about catching one and unloading all our gear from our double stroller.Parking is the same price whether or not you use valet or not and it was a shared lot with the motel next door.  We also used the self service laundry rooms and had no trouble with washing and drying our clothes.More</t>
+  </si>
+  <si>
+    <t>AustinGal2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r443292862-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1309,6 +1462,9 @@
 All in...We stayed here with our 5 and 7 yr old sons and had a great time. The rooms were quite large and comfortable- we had two queen beds then a couch area that could have been used as a bed if needed. We also had a little kitchen area with a fridge, microwave, coffee maker and some cabinet space. The only thing that was awkward was the bathroom door was right up against the entry door so you had to be careful not to bump doors.Breakfast is served each morning from 6:30-9:30 every morning and they really had a nice selection. The offered scrambled eggs, sausage patties and sausage and biscuits every morning along with oatmeal, cereals, yogurts, fresh fruit, toast, bagels and cinnamon rolls. They had free coffee/tea/hot chocolate available around the clock. The hotel is about a 10-15 minute walk to the gates of Disneyland. On our early entry morning, we were able to grab a quick breakfast to go at 6:30, walk to DL (with a 5 and 7 yr old!), clear security and get in line at the gate by 6:50!The only drawback was the valet parking. I'm not sure why it's needed, as the lot is right there in front of the door. It was awkward to have to remember the parking ticket and walk down to the valet guys every time you wanted to get something out of your car.All in all, though, this hotel is a gem! It's super clean and very close to Disneyland. The free breakfast saved us both money and time every morning.  We would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Mike N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r441953824-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1333,6 +1489,9 @@
     <t>We have stayed at the Anaheim Fairfield Inn a few times in the past.  The HI Express, next door (facing I-5) is hands down superior.  What it lacks (an extra 5 minute walk to Disneyland when compared to Fairfield) is more than made up with a great free breakfast, better nightly rates, and the comfortable rooms.  The noise from I-5 was not noticeable to me but our AC was on most the time at night.  Front desk staff accommodated us quickly with extra pillows and blankets.  Will stay here again.More</t>
   </si>
   <si>
+    <t>kat_from_calgary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r435460129-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1360,6 +1519,9 @@
     <t>Great hotel, very clean, not too close to Disney that it's wild and crazy but close enough for a rental car to go enjoy the day. Nice and clean. Staff was super friendly. We also seen a Disney shuttle and airport shuttle service. More</t>
   </si>
   <si>
+    <t>Amy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r430918321-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1384,6 +1546,9 @@
     <t>The hotel room was nice, comfortable bed and nice staff.  My only problem is the accounting process.  When I checked in, my confirmation was under one name with me as a secondary guest.  I asked that my room be changed to my name, using my IHG Reward Club number, and gave my credit card to associate for my room.  The front desk manager assured me he would update my room. Day two, I asked to confirm the changes had been made and I was assured all was all in order.  At check out, my VISA was charged however, I did not get the IHG Reward Club points. When I called to follow up, I was told the reservation had not been updated and someone else received my points.  I will never allow anyone else to make my reservations for me again, because IHG is not capable of dealing with business travelers.  This was not a complex issue, however IHG made it that way.  Very disappointed, I was cheated out of my points.More</t>
   </si>
   <si>
+    <t>Tinny66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r430630991-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1402,6 +1567,9 @@
     <t>Stayed one night after a long flight from Sydney Australia. Checked in around 8:30am room not ready as expected so spent a few hours in Disneyland. The staff were great and helpful. Returned at 2pm and got to the room it was nice and clean and well worth the price. Would be the first place I would look for the next trip.More</t>
   </si>
   <si>
+    <t>Carolyn K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r428991900-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1420,6 +1588,9 @@
     <t>We had a great time here. Excellent rooms, great pool, very clean and such friendly staff. The hotel is very new and modern and the breakfasts were great too. A pleasure to stay here. Will be back again. More</t>
   </si>
   <si>
+    <t>Jodi M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r426112401-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1447,6 +1618,9 @@
     <t>What a great experience at this Holiday Inn Express.  Rooms were very clean and spacious.  Beds were very comfortable and staff was very friendly and accommodating.   About a 10-15 min walk to the gates and very accessible.  Would definitely stay here again.   Pricing was reasonable considering the surrounding hotels.  More</t>
   </si>
   <si>
+    <t>Donna D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r425627354-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1471,6 +1645,9 @@
     <t>Staff members where great and very helpful . Great location for Disney only a five min walk . Close to restaurants . Breakfast bit disappointing not many options , but still enjoyable. Room was clean and very modern . Great for family's More</t>
   </si>
   <si>
+    <t>SHARKBITE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r422887306-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1495,6 +1672,9 @@
     <t>I booked the Penthouse Suite for my family of 5 for a 4 night stay, eight months ago.  The listing says that it accommodates 6 people, after a few months I called to see how does it fit 6 people when there are only two beds, and the very long couch is curved.  I was told that it only accommodates 4, and I could not have 5 stay there.  They offered to give me a much smaller room without the views and perks of the penthouse for $20 per night credit.  My family was so excited about having the fireworks views since we will be arriving after dark on our first night.  I could do better than $20 off by rebooking it myself.  So basically I was offered nothing for their error.  (Site still says accommodates 6, and I made them aware 3 months ago.)This is actually my second time trying to stay there, last year I booked in October, but the hotel was not built yet, and they had to cancel my reservation just a few weeks out, which left me with very limited choices for our trip.  The management needs to get their act together.More</t>
   </si>
   <si>
+    <t>Carmen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r421315084-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1519,6 +1699,9 @@
     <t>we just got back from a 7 night stay there and I just had to share it was amazing!!  It's a new hotel, opened in February so everything is still shiney and new feeling.   The staff were so nice, totally above and beyond.   It was about a ten minute walk to the park which you can cross and walk alone (not in the pack of people) on harbor.   The best part about the hotel is free breakfast!  The downside is if you have a car they charge to park and the towels were a bit rough.   This hotel really met all of our wants so I had to share. :)  We will be back next year!More</t>
   </si>
   <si>
+    <t>Schnazbot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r420004601-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1543,6 +1726,9 @@
     <t>We travel.  A lot. We are pretty easy going, but expect quality and value. We stay in wide range of price points, from inexpensive to the Four Seasons and the Ritz. The LO LOVES hotels. First of all, make sure you have the correct Holiday Inn, there's like 4 of them around. This is a pretty new property near Disneyland. The lobby is clean and new.  There's only valet parking and you have to pay for it. The room (king with sofa bed) is clean and comfortable, if a bit expensive for what I expect from IHG. It was quiet for the LO to nap. The weird thing about this hotel is that there is no tub/shower, only a shower. It was tough because the LO only wants to take a bath. The breakfast is surprisingly good.  I've eaten at a lot of Holiday Inn's and I prefer not to eat anything but oatmeal or cereal. This property was a welcome change. Maybe the whole chain is changing. The eggs were fresher and lighter, the sausage (link and patty) were decent. I actually sat down for a breakfast snack. Well worth it.  We'll be backMore</t>
   </si>
   <si>
+    <t>Nathan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r419980016-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1558,6 +1744,9 @@
     <t>This hotel is in good walking distance to the parks about a 10 minute stroll. It's reasonably new so it is very clean and up to date. Breakfast is good and included all you can eat. The pancakes more than satisfied the kids. Staff are friendly and the choice of pillows is great, I always find it hard in hotels to get good pillows but this hotel has plenty to choose from.  Only complaint was the aircon is a bit fidely it's either off or cold. Pool is sufficient as well. Let's be honest the only reason you are here is for Disneyland and this hotel is amongst so many but if your looking for a cheaper option which includes breakfast it ticks all the boxes. We would consider staying here again.More</t>
   </si>
   <si>
+    <t>cuaman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r418480601-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1582,6 +1771,9 @@
     <t>My wife and I stayed here for our trip to Disneyland.  When we checked in, the front desk staff was very nice, they even gave us a room upgrade since we were platinum members.  The rooms are very clean spacious and has everything you would need including a fridge and microwave.  Location was excellent.  You can easily walk to Disneyland.  It is as convenient as staying at the Disneyland Hotel at 1/5th the price.  It is a newer hotel so you don't have to stay in a dump like some of the motels around the park.  I considered not writing a review because I wanted to keep this place a secret, but the people here are great and they deserve a good review.More</t>
   </si>
   <si>
+    <t>BizzleRN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r417767884-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1606,6 +1798,9 @@
     <t>Recently stayed here. The front desk staff were very friendly. Check-in went smoothly. The hotel is a quick walk to Disneyland and there are numerous restaurants around the area to enjoy. Rooms are large and clean. My only disappointment was the breakfast area had no cinnamon rolls due to an out of order warmer. Hopefully one is on its way! Overall great stay and I will be staying here again for my next Disney trip! More</t>
   </si>
   <si>
+    <t>Betsy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r417763745-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1621,6 +1816,9 @@
     <t>This hotel is just a 5 minute walk to Disneyland.  The proximity is great for families with young children.  We even had a front row seat to the Disney fireworks from our hotel room window.  It does face the Santa Ana Freeway, but you can not hear the traffic from inside the hotel.  This is a brand new hotel so it was very clean and updated.  The breakfast room is very large, which did make it a bit noisy, but the breakfast was excellent.  The staff was very accommodating and friendly.  I would stay here again.    More</t>
   </si>
   <si>
+    <t>Elizabeth A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r417509471-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1636,6 +1834,9 @@
     <t>Stayed here to do the Disneyland Half Marathon. Was so impressed with the facilities and service.  Danny set us up in a room away from the freeway so it was quite and was so welcoming.  The room was large enough that 4 people did not feel in each others way.  The room and bathroom were clean, the bed comfy, pillows comfortable, air at just the right temp. The cleaning staff was exceptional and checked on us later in the day to make sure all was satisfactory.  The breakfast was delicious and substantial.  Upon coming back from the Half marathon they had a goody bag of fruit, granola bar and water for our enjoyment.  The staff was really helpful, when we needed something out of the car they brought it to us and expected nothing in return.  The walk to the front gates of Disneyland was only a 10min walk, which really was a bonus after doing all the races we did!  We will definitely stay here again when coming to Disneyland!More</t>
   </si>
   <si>
+    <t>wendy j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r417193005-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1651,6 +1852,9 @@
     <t>Only a few minutes walk to Disney. This hotel is very friendly, clean. Room are very large 2 queen bed sand sofa. They supply a free breakfast which is adaquate. Pool area nice and clean. Would highly recommend a stay here very good.More</t>
   </si>
   <si>
+    <t>AyrFer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r416778192-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1667,6 +1871,9 @@
   </si>
   <si>
     <t>This is a very nice hotel located at a 15 minutes or less walk to Disneyland.  The staff is very polite and the room was very comfortable.  The breakfast was also included and it was very good.  If you prefer not to drive, there are several options to visit other areas outside of Anaheim.  You can use the city and the state transportation systems.  You can also use Uber, Lyft, and Super Shuttle, among other companies.  I used Lyft to get from the LAX airport to the hotel.  I used Uber to go to Irvine, Los Angeles, and Newport Beach. I also used Super Shuttle to go to the LAX airport.  There are also several restaurants at a walking distance from the hotel.  Great hotel with a very nice staff and at a great location.More</t>
+  </si>
+  <si>
+    <t>65Rambler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r411212639-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1697,6 +1904,9 @@
 Staff were friendly. The room price was better than for nearby hotels, especially when including the free breakfast and lower price for parking. The hotel is a bit further from Disneyland entrance than other hotels along Harbor Blvd, but it is still only a 15 minute walk to the park. On hot afternoons, it was nice having a McDonalds in between the park and hotel for...This is a new hotel, open about 1 year. Our room was spacious – with a couch that could serve as bed if necessary. The bathroom was spacious and functioned well, although the clothing hook on the bathroom door was at a height that nearly hit my eye when I opened the bathroom door and leaned out. There is a small sink adjacent to the room refrigerator which was convenient when more than one person needed a sink. The room seemed well-insulated from external noises. Air conditioning was effective and relatively quiet. Beds were very comfortable and room was quiet. Wi-Fi was fine for our basic needs.The breakfast room was spacious with good variety of hot foods, including sausage or bacon, biscuits and gravy, scrambled eggs, warm cinnamon buns, cold cereal, bananas and apples, mini-muffins, yogurt and juice. The room was never crowded before 730AM. Coffee was available 24-7. Having the breakfast gave us lots of energy for Disneyland and saved us money and time over having to eat at a sit-down restaurant.Staff were friendly. The room price was better than for nearby hotels, especially when including the free breakfast and lower price for parking. The hotel is a bit further from Disneyland entrance than other hotels along Harbor Blvd, but it is still only a 15 minute walk to the park. On hot afternoons, it was nice having a McDonalds in between the park and hotel for a quick refreshing treat. Our west-facing room on the 2nd floor had a view of the fireworks despite having another hotel between us and Disneyland. The hotel was comfortable and a good value for Disneyland-area lodging.More</t>
   </si>
   <si>
+    <t>BrittanyNicoleG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r411073434-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1712,6 +1922,9 @@
     <t>After reading reviews on Trip Advisor I decided to book our one night stay at the Holiday Inn. The three of us were pleasantly surprised with our room and the hotel grounds. We were exhausted from our Disney day and were happy that breakfast was served until 9:30, this allowed us to sleep in a little. Looking forward to staying here again!More</t>
   </si>
   <si>
+    <t>robyn14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r410040300-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1728,6 +1941,9 @@
   </si>
   <si>
     <t>This hotel was clean, well laid out, with amazing firm beds. The location is great-- it was an easy walk to come back to the hotel mid-day to relax and then return to the parks for the evening. Breakfast was a zoo during prime time, but we made a point of going down as soon as we woke up to avoid the crowds.More</t>
+  </si>
+  <si>
+    <t>TheVerro</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r404729121-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1758,6 +1974,9 @@
 Like all HI Expresses, this hotel offered a few breakfast, and it was the standard HI Express fare.  The only thing that they...Just came back from a wonderful 9 night stay at this hotel.  I think it would be very difficult to do better then this property if visiting Disneyland and the other SoCal or LA sights.We arrived and were greeted by a nice and professional front desk person and got checked in very quickly.  Was fortunate to get an upgrade to a "Enchanted Suite".  Room was very good size, did not have a separate living area as such, but 2 queen beds and a large L-shaped couch which doubled as a pull out.  Basically had the pull out open the entire time and still had plenty of space to move around.  Rooms was exceptionally clean and well equipped.  Many lamps, good iron and ironing board, kurig machine, good sized mini fridge, microwave, USB plugs, ect.  Had a nice large HD TV with tons and tons of channels, including some premium movie channels.  More channels actually than I had ever seen at a hotel.  Temperature was easily controlled.  Bathroom was regular sized the a curved shower curtain and lots of hot (or cool after a day at the park!) water.  I'd say the only thing that was lacking in the room is drawer space, but I assume that most people don't stay here as long as we did.Like all HI Expresses, this hotel offered a few breakfast, and it was the standard HI Express fare.  The only thing that they seems to change was that they would alternate the bacon and the sausage.  Tons of choices, but.. did get a little monotonous after 10 mornings.. staff were super nice and kept everything fully stocked all the time.  And the breakfast area is very large, we never had an issue getting a table.The common spaces were also beautiful and very modern.  There is a big lounge right in front of the front desk which has a TV running mostly kids movies.  By the front desk is also where the business centers is.  I was presently surprised to see that the computers and printers worked perfectly, and obviously they keep them "clean", as I saved something on the desktop and forgot to remove it, and it was gone the next morning.  Near front desk is also where they have the "vending" items (no vending machines) which I know is the new trend at hotels.  The was quite a bit of variety, only thing missing was ice cream items.  Hotel also had a really nice pool area with incredibly comfortable loungers (I could have slept over night there lol) a fairly deep pool (up to 5ft), very hot hot tub and a small kids spray park.  Hotel also had a small gym and laundry facilities.  (see pics)From a location perspective, hotel is perfect.  It's a quick 8 minute walk to Disney and there are quite a few restaurants on the way there (or back) including the yummy pizza press.  Hotel is also close to the on-ramps for highway 5, so it's convenient if you are heading south to the beaches or north toward LA or Universal.We had a car for 4 of the days and did the valet parking.  $15 a day which is in line with other hotels in the area.  All valet staff were very pleasant and my car was always ready when I got down.  They have a very simple way of managing the cars, you text your car number some 10 minutes before you are ready to go and they text you back to let you know your car is ready.And all the front desk staff that I came across were really outstanding.  Very courteous and knowledgeable.  I'd always get a "have a great day" on the way out and a "how was your day?" on the way back.  Everyone seemed genuinely happy to be working there.      So there you have it, again great new hotel that I would absolutely recommend.  I've included quite a few photos as they seemed to be lacking.More</t>
   </si>
   <si>
+    <t>Sheilla23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r404166486-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1782,6 +2001,9 @@
     <t>Clean/ new place. Professional staff. If i come again, i use here. For future: It was useful if they have kettle inside. Some ppl don't drink coffee but tea. They use paper made plates and glasses for breakfast. it is good. But I suggest them to totally replace the plastic knives and spoons and other glasses with paper bags. Please be environmentally friendly it goes a long way. I understand this is H I policy.More</t>
   </si>
   <si>
+    <t>Funnymommy74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r403829071-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1804,6 +2026,9 @@
   </si>
   <si>
     <t>I really liked this hotel.  It was new, clean and had breakfast included.  It is a bit of a walk to the park for younger families and the shuttle is a short walk away.  The room was spacious and had a great bed, I liked the room layout and the furnishings and art.  There is quite a bit of noise from the freeway that you can hear in the room and they could use some white noise machines or offer earplugs. The breakfast was scrambled eggs, sausage, yogurt, toast and jam, juice milk and coffee.  Its all pre-made or steam cooked but its quick and easy.  The front desk staff were nice as well as the fellows parking the cars.  I plan on staying here again.More</t>
+  </si>
+  <si>
+    <t>l2227225</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r400259736-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1837,6 +2062,9 @@
 We truly enjoyed our stay and would definitely stay there again, however there are a few things I guess they could improve. The most important, the laundry room!! there is only ONE washer and ONE dryer for the entire hotel. Another thing is the...New hotel, nice and very clean. Rooms very spacious and beds are really comfortable. Easy walk to Disneyland's main entrance. Staff are friendly; we were checked in by Rebecca who checked us in very quickly. We stayed for 6 nights at one of the Enchanted 2 Queen Suites, I called a couple of days prior to arrival and spoke to Savannah, I asked her if we could request a room on a higher floor not facing the freeway. She explained they can't guarantee anything as the rooms are assigned on the day of arrival, however that she would put a request on our reservation, she even said there are few of those rooms that have a view of the fireworks. I was so pleased to be put on a room that had a great view of the fireworks! We just had to open the curtains, turn the lights off, lay on the sofa and enjoy them......THANKS SO MUCH Savannah!!The rooms have modern amenities like MANY plugs (really needed now days with every member of the family carrying at least two electronic devices), there are even two USB plugs directly on the wall between the beds. We truly enjoyed our stay and would definitely stay there again, however there are a few things I guess they could improve. The most important, the laundry room!! there is only ONE washer and ONE dryer for the entire hotel. Another thing is the lighting in the rooms, there is one lamp between the beds, however no reading lights above the beds.More</t>
   </si>
   <si>
+    <t>Rachel N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r400220180-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1852,6 +2080,9 @@
     <t>+ modern hotel+ 10 minute walk from the Disneyland-entrance+ crispy clean rooms+ good matrasses+ WiFi works fineN selfservice breakfast: toast, waffles, cereals, fruit, yoghurt etc.N bathroom with shower and bathN Valetparking available- not much of a view from the roomMore</t>
   </si>
   <si>
+    <t>Yabbie76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r400202279-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1867,6 +2098,9 @@
     <t>We stayed here at the end of July 2016 for 3 nights. It's a relatively new hotel from what we could tell. The room was spacious and we used the pool and gym which were good. It was a good base for visiting Disneyland for 2 days.Breakfast was included, however this let the hotel down. Everything was plastic or served in plastic. The plates, the cutlery, all the food &amp; condiments were served in plastic. Unfortunately the breakfast tasted like plastic too.We felt that environmentally, this was very poor of the hotel to choose this path in serving breakfast and could be improved on compared to Holiday Inn Express' we have stayed in, in other countries.More</t>
   </si>
   <si>
+    <t>kcmelb2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r397136638-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1885,6 +2119,9 @@
     <t>New hotel only 10 minute walk from Disneyland. Room was spacious and front desk staff friendly and helpful.Hotel room was spacious, modern and clean.Breakfast could be better organised as there a long queue to access the food which was on only one side of the room.More</t>
   </si>
   <si>
+    <t>TheREALDarkLord</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r394500697-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1909,6 +2146,9 @@
     <t>This is a great hotel. I went with my family to Disneyland and it wasn't long at all. I had a great vacation here. The staff of super nice an the free breakfast is great. I would gladly recommend. Thanks Holiday Inn!!!More</t>
   </si>
   <si>
+    <t>Christopher A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r393252946-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1927,6 +2167,9 @@
     <t>My family loved this hotel! The hotel is brand new, beds were comfy, the free breakfast is great! The pool is really nice and relaxing. The staff was great! This park is within walking distance to Disneyland. My only complaint is they charge $15+tax for parking. It ends up costing the same as parking at Disneyland but it does save the hassle of the parking garage and the trams. I definitely would stay here again.More</t>
   </si>
   <si>
+    <t>nicelynicely02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r382602932-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1952,6 +2195,9 @@
   </si>
   <si>
     <t>We stayed here last weekend for a surprise birthday trip for my son. Customer service was great. The GM checked us in and got us a room even though we arrived at 11am. One morning when I sat down with my 1-year-old one of the breakfast staff was there almost instantly with a high chair without me even asking. The room cam with plenty of outlets for all the gadgets, a refrigerator, microwave, coffee machine, and a sink outside the bathroom. These are all the things that a modern hotel room should include now and they have it. Some have complained about the noise, but we faced the freeway and I didn't notice it at all. The location is fantastic, you can get out without having to drive right next to Disneyland and avoid traffic. The walk to disneyland is shorter than the walk from Disneyland's own parking structure, so location was really great. We will be returning on future trips!More</t>
+  </si>
+  <si>
+    <t>Christopher W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r379727556-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1980,6 +2226,9 @@
 The breakfast is a great starter for your day, the one minute pancake and warm cinnamon rolls were amazing. The only negative about the breakfast, and I only say this to give some advice with the summer coming up and business will be booming for this hotel, is there...We had an amazing experience staying at this hotel.  We were checked in by Rebecca and Miquel who were so accommodating and friendly. We requested a crib and since we checked in at right around 5 pm we told them we were going to go eat and would just get it on our way back in from dinner; since we are season pass holders we decided after dinner to just go ahead and go to Disney for the parades and fireworks. WE were not expecting there to be a crib waiting for us. However once we got to our room not only was there a crib there but it was already set up and they even had a little blanket for our 14 month old girl. When we checked in I told them we were visiting for my wife's Birthday which was the next day.  The morning of my wife's birthday as the party of 6 was all getting ready we hear a knock at the door and the hotel had brought up a red velvet cupcake and a birthday card for my wife. completely unexpected but so special to her. The breakfast is a great starter for your day, the one minute pancake and warm cinnamon rolls were amazing. The only negative about the breakfast, and I only say this to give some advice with the summer coming up and business will be booming for this hotel, is there were no high chairs. I hope when we come back in September that this has changed as it is very hard to get a toddler to sit still to eat her breakfast.  (But this in no way deserved to remove a star from a wonderful hotel). We stayed on the 3rd floor room 310 (Enchanted room) which is directly across from the elevators and not only could we not hear the freeway, other guest in their room or running in the halls we also could not hear the elevator or the families waiting in the foyer for the elevator. I have stayed at 4 different hotels in Disney this year and the walls have been so thin I could hear in one hotel the person snoring, another hotel I actually knew what time families were going to leave and arrive back at the hotel (good thing I am not a criminal) the fact that this hotel was so quiet has now officially made it our Disney Hotel. Our room was well sized for 5 adults and a toddler. there were 2 places to place the crib plus her stroller. plenty of drawer and cubicle space and hangers for a 3-4 day trip. Bathroom was big enough for 2 ladies to get ready in the morning.Parking, a lot of reviews have complained about paying for parking, I do not understand that if the hotels did not charge for parking then the Disney guest would just park at your hotel taking away your ability to park 10-15 dollars a day is the standard I have seen and some hotels charge up to 18. There was ample parking and the valet greeter was very accommodating.  During our stay we had the opportunity to interact with Rebecca, Miguel, Danny, Akul and Nick and all were polite, friendly, professional and gave great customer service.There is a little drink and food shoppe next to the check in area for any snack items or medicines you may need and they can be charged to the room. Finally the walk to Disneyland was awesome 10 minutes no crowds easy walk. A piece of advice to anyone going to Disney for the first time. While Captain Kidds Buffet sounds like a great idea being as it is directly across from Disneyland cross walk, go to McDonalds or Ihop and save your money because that place was disgusting, the staff was rude and actually pushed over my daughter stroller when I put it where they told me to , after we even collapsed it.More</t>
   </si>
   <si>
+    <t>nataleej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r378767093-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2007,6 +2256,9 @@
     <t>Stayed here with our two little girls on a trip to disneyland. The walk to and from Disney was about 15 minutes, only a few hotels closer. It's off the path so not a lot of traffic or people walking around making noise which made for a quiet stay. The hotel room was very new and clean. I had no worries about cleanliness and they even provided my baby with a crib, so one less thing to bring with us! Breakfast is free and definitely enough to fill you up before heading out to Disneyland. Staff was polite and helpful too.More</t>
   </si>
   <si>
+    <t>Maggie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r376246960-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2025,6 +2277,9 @@
     <t>The hotel is a short walking distance to Disneyland.  We stayed in the penthouse suite which was very roomy but it would have been nice if the living area was actually separated by a partial wall so that we didn't have to whisper while my granddaughter was sleeping.  The room had big windows from which we could see the Disney fireworks.  A big con was that the suite did not have a bathtub only a large shower. Made it difficult to bath a 2 year old.  There was a kitchenette but it had no utencils, plates or dishcloths.  The suite had a couple of tables but they were not really suitable to sit around and eat a meal.  There were not much in the way of closet or dresser space for a room that size.  Breakfast was fine.  Valet parking was good (fee is $15 per day for parking).  The front desk staff (especially Akul) was friendly and helpful. The hotel was very new so it was nice that all the areas were clean and fresh.  I would stay there again.More</t>
   </si>
   <si>
+    <t>HIEF M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r374898245-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2049,6 +2304,9 @@
     <t>Clean &amp; New hotel. The staff here was awesome! Savannah especially! Very professional with a good sense of leadership! Made my stay absolutely perfect! Will definitely stay here again when travelling on business!More</t>
   </si>
   <si>
+    <t>371cherylk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r373144207-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2073,6 +2331,9 @@
     <t>We were on the quiet side away from the freeway. Room was nice, people next door were pretty noisy and could hear everything they were saying. They had small children which was understandable but took no measures to keep them quiet! Room itself was clean and had everything we needed. Breakfast was good. Great walking distance to Disneyland and restaurants.More</t>
   </si>
   <si>
+    <t>RelaxedYo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r371853884-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2097,6 +2358,9 @@
     <t>This is a new hotel that is about a 10 minute walk to the front gate of Disneyland. The lobby is very nicely set up and the front desk clerk that check us in was very nice and accommodating. They let us checked in early and we were given the exact room that we reserved. The room was a large 2 queen bedroom with a pull out couch and everything had a very clean and modern feel to it. The pool is very nice and a good stop for relaxing entertainment before or after Disneyland. The breakfast was good and the staff was very friendly and tried to meet request the best that they could. The business center was beneficial and worked well to get checked into our flight. I would stay at this hotel again in a heart beat and even though this hotel isn't rated high yet take note that the negative reviews were about the hotel not opening on-time.More</t>
   </si>
   <si>
+    <t>thekneal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r371834196-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2112,6 +2376,9 @@
     <t>Although I only stayed one night, I really enjoyed my experience at this hotel. The hotel is clean with new, very modern, furnishings. The staff was all very friendly and helpful. It is within walking distance of the Disneyland Resort, however ART picks up at the Howard Johnson across the street if a shuttle is needed. This hotel is great for couples and families, however young children might get bored with the pool as compared to other pools and water playgrounds at some of the other area hotels. More</t>
   </si>
   <si>
+    <t>Kate778</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r371575226-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2133,6 +2400,9 @@
     <t>New hotel, opened February 2016. We transferred here from another Holiday Inn a few miles away. The staff were very helpful in finding us a good room at short notice. The room was large with 2 queen beds, separate large seating area with coffee table &amp; sink, fridge,microwave &amp; coffee maker.(no kettle) Disposable plates, cutlery inc. All very clean. Beds very comfortable and choice of pillows. Coffee available from restaurant all day foc. Standard breakfast choice but always well presented hot &amp; plentiful. Lovely outside pool although not heated, pleasant seating area. Excellent friendly staff. Within walking distance of Disney, tour booking office &amp; plenty choice restaurants. Taxi service available to take you on excursions or out to dinner, we also used them to return us to the airport. Ask at reception for Rafael or Fernando. Also printers available to print your return boarding cards.More</t>
   </si>
   <si>
+    <t>MamaFram</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r370248977-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2155,6 +2425,9 @@
   </si>
   <si>
     <t>Not all rooms were available at predetermined check in time. At breakfast, a few times staff needed to be notified to refill empty food containers. Rooms were clean, safe, and of decent size.Gym had no water fountain nor fan. Reasonable distance to walk to Disneyland. Quiet and safe.More</t>
+  </si>
+  <si>
+    <t>missymooch</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r369986224-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -2183,6 +2456,9 @@
 Their software...My sister used to work for holiday inn and badly wanted to try this new hotel and it's extremely close to the parks so we walked everyday. That was great. As a gift my sister paid for my room but we checked in first and I put my card down for incidentals in the room. I told them that my sister is paying for both rooms on her card and that she will be arriving shortly. When she arrived she paid for both rooms and we thought all was settled until that night at Disneyland my card was declined for a purchase. I was shocked as I know I have money on my card I've just started my trip. I looked at my bank statement and it had under $30 in there. So I rang the bank mind you this is Australia bank so different time zones too. And they told me there was a payment of US$435 for room at holiday inn in which means AU$600. So we got back to hotel and asked what the hell? My card = incidentals. My sisters card was for payment. But they had double charged me and my sister. My room on my card and both rooms again on my sisters. Make sure people you check your statements to make sure you haven't been overcharged. Not only that but make sure you don't make it too hard for these people. Their software is new and apparently the software buggered up. Yep. So I was left with trying to get this money back. In the meantime people have been paying for me. And no this does not do good things for your pride. We complained so much but they did very little to fix the situation. Saying their bank has to release it as does my bank this will take 3 business days. So it had better happen tomorrow. The beginning of this trip has been nightmarish with my luggage being left behind in Sydney and not understanding uber and I fell at the airport and then this at the hotel. This one is the worse I still have nothing in my hand. After many complaints and arranging letters with the banks to talk to each other for money to be released immediately which did not happen by the way. They promised a free nights accomm which they should however I won't see that for a while either. It was cruel and they didn't listen to the customer nor do anything else except apologize which doesn't sit well when it doesn't accompany actions. They refused to give me a free night accomm in cash to help me because it was paid originally by credit card. Never staying here again. Merissa.More</t>
   </si>
   <si>
+    <t>mikestrek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r369542963-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2207,6 +2483,9 @@
     <t>We had a great time and a very professional staff and love the walking distance to the park. A hot breakfast was a nice surprise and this hotel is brand new. The pool was nice to unwind after visiting Disneyland.More</t>
   </si>
   <si>
+    <t>Aleasha S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r366916459-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2231,6 +2510,9 @@
     <t>As all others have said, it's new, clean, and a lovely hotel. The breakfast is extensive including pancakes, sausage, muffins, bagels, toast, cereal, instant oatmeal in a few flavors, juices, milk, coffee, tea, regular &amp; Greek yogurt, apples, oranges, bananas, and there is peanut butter, jelly, &amp; cream cheese.We stayed in a room with 2 queens (the front desk told us all the kings were on the freeway side of the building) also thinking one kid in the 2nd queen and the other on the sofa bed. The sofa has a lounger on one side that we made a toddler bed! Could fit a 2-4 year old there easily! I wedged the sofa cushion between the pull out and my "toddler bed". If you had an infant, the bathroom is large enough for a pack n play if you like to do that. So, you really could fit 2 adults in one queen, 2 kids in a 2nd queen, a kid or 2 on the sofa bed, plus a toddler bed on the sofa lounger, and a pack n play in the bathroom. Lots of options!The walk to Disney was a bit intense, but similar to a lot of other properties in the area. Panera &amp; McDs makes an easy stop on the walk. More</t>
   </si>
   <si>
+    <t>Bergind</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r366574296-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2249,6 +2531,9 @@
     <t>I liked how close they were to downtown Disney. The staff went above and beyond helpfulness. Our room was very comfortable and the quick pick breakfast was nice to grab before walking or catching shuttle. Quiet floor too. Really we had no issues at all. More</t>
   </si>
   <si>
+    <t>dmillerpac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r365824421-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2276,6 +2561,9 @@
     <t>Brand new so everything clean and fresh. The staff was wonderful and were very gracious with answering all our questions. I hab forgot some items, toothbrush etc., and staff rounded up replacements. The complimentary breakfast was the excellent and all food items were kept full and fresh. As for location, right off I-5 and only a few blocks to Disney main entrance. Great stay!More</t>
   </si>
   <si>
+    <t>Crissy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r362926713-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2300,6 +2588,9 @@
     <t>We stayed for one night and did not arrive until almost midnight.  The staff were very friendly and made us feel very welcome.  I did read in previous reviews about the noise from the highway.  We were on the 5th floor facing the highway and we did hear the noise.  It was not so bad that you could not sleep.  I am a pretty light sleeper and I did ok.  The room was very clean and the breakfast was great. The only complaint I have is the parking, only valet available and cost $15.  But to be honest that is the price with most hotels in the Disneyland area.More</t>
   </si>
   <si>
+    <t>foipop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r362898394-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2319,6 +2610,9 @@
   </si>
   <si>
     <t>It was a typical Holiday Inn Express I have experienced in the past - clean, comfortable, convenient, and economical (free, hot breakfast was is always a plus). Location was also fantastic - just 10-minute walking distance to Disneyland that you don't have to worry about traffic or fiding a parking space. But the room my family stayed was too noisy because of the heavy traffic right beside the hotel (major thoroughfare was running parallel to the hotel).More</t>
+  </si>
+  <si>
+    <t>scopie100</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r362800728-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -2342,6 +2636,9 @@
 Overall, a great hotel, close to Disney, well priced with superb staff...I stayed for 4 nights with my wife and 3 children.  The hotel is easy to find and very close to Disney, perhaps a 10-15 minute walk, so ideal to save on the parking costs of Disney.  However, the hotel charges $15 per day plus taxes, please like other reviewers have said, just make it a rounded up cost! Valet or no valet, it’s the same cost.Check in was easy, IHG level recognised and friendly welcome by Akul. He was great and a credit to the IHG chain.  We were upgraded to a very nice room, super spacious and well equipped.  Very comfy sofa bed too which I would have expected as the hotel is very new.  The room was bright and airy and you can hear the noise from the freeway but for me and the family this was never really an issue as the aircon ‘muffled’ this.  We did have issues with the aircon on one night but it was fixed the next day. Staff were very helpful, smiling and polite and they should be congratulated on their professional approach to customers.Breakfast was good, lots of choices, plenty of tables and thankfully families seemed to stagger their arrival! They have a good sized heated pool, jacuzzi and an ok gym with a weights bench, weights and cardio machines.  WiFi is good throughout the hotel.Overall, a great hotel, close to Disney, well priced with superb staff to welcome you and cater/support you whilst staying there.  Well done IHG More</t>
   </si>
   <si>
+    <t>Rayford W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r358203598-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2366,6 +2663,9 @@
     <t>The hotel is fairly new, the room was very spacious and clean, the hotel grounds were nice and new, the pool was still under construction so couldn't use that, the hotel offers free breakfest which was good (the first day was okay the second day seemed better), the hotel has minimual parking so just let them valet for you (it's the same price), only about a 5-10 minute walk to Disney. The only downside to the hotel is it's proximtity to the freeway, little freeway noise if you get a room facing the freeway. Our stay was excellent and the staff was very curtious, even gave us late check-out. The beds seemed to sleep stiff, but after a long day at Disney, it was a non issue.More</t>
   </si>
   <si>
+    <t>Christy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r357652997-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2381,6 +2681,9 @@
     <t>After a long day at Disneyland we were exhausted and needed dinner. The valet recommended an Italian restaurant that delivers and the food was amazing. The front staff was helpful and knowledgeable. The rooms were beautiful, spacious, and luxurious. Our leftovers fit into the refrigerator and there was a k cup in the room for morning coffee. The hotel was quite and peaceful. The breakfast in the morning was a perfect variety. We could not have had a better experience. Each staff member treated us as if we were important, I liked that. I felt like they appreciated my business. Overall great end to a great day. Will stay here again!!!!!More</t>
   </si>
   <si>
+    <t>Jennifer W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r357406597-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2405,6 +2708,9 @@
     <t>Wonderful new hotel within walking distance of Disneyland. Ignore the bad reviews about the delay in the hotel opening. We had a very spacious room. Two full beds and a very large sleeper sofa. We enjoyed having a table and kitchen area for our take out dinners. Friendly front desk staff. Plenty of options for the free breakfast (eggs, sausage, biscuits, fruit, pancakes, toast, bagels, etc) The only negative would be the bathroom sliding doors. Our toddler likes to open the door and there was no way to lock it from the inside. Parking was $15 a day plus resort taxes and fees which seem excessive for parking.  Just make it a flat rate and don't add an extra $3.50 a day in taxes. We had white noise playing on our phone and could hardly hear the highway. Friendly hotel staff. We will definitely be back! More</t>
   </si>
   <si>
+    <t>Nadz164</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r352681641-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2423,6 +2729,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>firefightnchk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r352674071-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2435,6 +2744,9 @@
     <t>Very nice, clean and new hotel. Room was spacious enough for our family of 5. The beds were very comfortable. Our room had a microwave, mini fridge and a keurig. The staff was friendly and helpful. The check-in process was smooth. The parking was limited and the charge is $15 per day. It conflicts with what was on their website. Also, the pool was not open yet so I can't provide a review on that. The breakfast was good. Cereals, oatmeals, fruits, muffins, pancakes, eggs, sausage, biscuits and gravy.  I would stay here again.</t>
   </si>
   <si>
+    <t>mamason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r352271488-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2453,6 +2765,9 @@
     <t>This is a new HIE near Disneyland. Check in was easy. The room is spacious with comfortable beds. The TV channel selection is good. I had a room that faced the freeway and the noise is quite loud. It didn't bother me, but if you are a light sleeper you should request a room on the other side of the building. I didn't have a car this trip but the previous reviewer is correct about the parking situation. My room overlooked the front lot area and both mornings when I looked outside there were cars double parked all over. Internet worked fine. Bathroom amenities only included shampoo and lotion. The bathroom had good lighting. The breakfast selection is your standard HIE food (pancake machine, cinnamon rolls, sausage, various bread items, yogurt, fruit, etc) The breakfast area is quite large with lots of seating. Pool was still not finished when we checked out but looks like it will be nice when completed. It's about a 10 minute walk to Disneyland with several place to eat close by (Mimi's Cafe, Panera Bread, McD's, Pizza Press, IHOP)Overall this a great new hotel and I would definitely stay here in the future.More</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r350631890-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2471,6 +2786,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>1WickedFaerie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r350001510-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2495,6 +2813,9 @@
     <t>The drive to Anaheim is insane so when we arrived earlier than our check in and were told our room wasn't ready (king bed) but could have another (queen bed), we quickly agreed.  The room overlooked what I think was the water or furnace system but we didn't care about the view and it was tucked in a corner so we weren't concerned about noise - especially being near Disneyland we expected lots of families to be there and we were right!  But it was quiet so it turned out to be fine.  And the young woman who checked us in was very nice.  We asked her if there was a shuttle to Disneyland, she said there was for a $5.00 fee (well worth it!) and we asked if it was walking distance.  She said yes and that we would likely see families walking there and back and it was about 1.5 miles.  No problem for my husband and I as we are big walkers (once walked from Torrey Pines to La Jolla - much farther than we thought but I digress....).  We went to the room and got changed and headed out.  When we were leaving we asked the young man at the desk which way to go.  He said left on this street, straight, left right... which was fine until we headed out and there were no signs at all pointing us to Disneyland (had I known that...The drive to Anaheim is insane so when we arrived earlier than our check in and were told our room wasn't ready (king bed) but could have another (queen bed), we quickly agreed.  The room overlooked what I think was the water or furnace system but we didn't care about the view and it was tucked in a corner so we weren't concerned about noise - especially being near Disneyland we expected lots of families to be there and we were right!  But it was quiet so it turned out to be fine.  And the young woman who checked us in was very nice.  We asked her if there was a shuttle to Disneyland, she said there was for a $5.00 fee (well worth it!) and we asked if it was walking distance.  She said yes and that we would likely see families walking there and back and it was about 1.5 miles.  No problem for my husband and I as we are big walkers (once walked from Torrey Pines to La Jolla - much farther than we thought but I digress....).  We went to the room and got changed and headed out.  When we were leaving we asked the young man at the desk which way to go.  He said left on this street, straight, left right... which was fine until we headed out and there were no signs at all pointing us to Disneyland (had I known that I would have paid better attention).  Normally in hotels, when asking directions, they usually pull out a map, show you where you are and where you're going, how long to get there etc.  We got nothing more than very confusing verbal instructions.  We got underway but as we were walking, we realized that the area we were in looked a bit sketchy (maybe it wasn't but it really looked that way - really tacky worn hotels, a trailer park..) We headed off down the main drag in the wrong direction and decided we are likely better off taking the shuttle so we went back to the hotel, got a ticket and off we went.  The shuttle was great, the driver very helpful so it all turned out well.  But I think it would have been much more helpful to have received much better directions and more of an understanding of where we were going.  Very un"Disney like".More</t>
   </si>
   <si>
+    <t>gigistaff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r347137214-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2513,6 +2834,9 @@
     <t>It's a lovely new hotel with location being the best part! Less than a 10 minute walk to Disney! Close to Mimi's restaurant, Panera and McDonald's. The king size suite worked perfectly for our family of three (traveling with a 6 yr old). If you are traveling with infants or toddlers this room did not have a tub. To our surprise, the room also had a small kitchenette. The room lay out worked great for us. The bed was comfortable, the room was quiet even though it faced the freeway. Staff was friendly!Too bad we only stayed one night, but we will definitely be back for more than a one night stay.The hotel is still having some minor construction work being done. The main entrance of the building is still being worked on. The pool and spa areas are not open yet. It will be 5 stars when everything is completed!More</t>
   </si>
   <si>
+    <t>LoveToTravel795</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r340166816-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2540,6 +2864,9 @@
     <t>This hotel is off to a TERRIBLE start. after reading the other tripadvisor reviews I was concerned about the hotel not being opened for my stay so i called on January 8th to confirm my reservation. I spoke with a man AT the hotel and he confirmed my reservation was squared away. 2 weeks before my trip I get an email that the hotel isn't open yet. How is this so considering I had CALLED and spoken with someone and he CONFIRMED my reservation? When calling IHG corporate office to complain, they tried (very very poorly) to make up for their HUGE mistake. The rooms that they offered me at other hotels are a JOKE. the OTHER holiday inn is FURTHER away than this one AND cheaper, but their emailed reply told me "they would honor my price" OF COURSE you will because my price is MORE expensive. The other option is a hotel that would cost $63 MORE per night and it doesn't have breakfast and its not walking distance to the park! (Nor did they offer to match my price) Why would I want to pay more to receive less and be further away from my destination? This situation has 100% turned me off from any hotel in the intercontinental hotel group, since their corporate office is unable to offer more than an apology and insult my intelligence by trying to charge me more for a sub par...This hotel is off to a TERRIBLE start. after reading the other tripadvisor reviews I was concerned about the hotel not being opened for my stay so i called on January 8th to confirm my reservation. I spoke with a man AT the hotel and he confirmed my reservation was squared away. 2 weeks before my trip I get an email that the hotel isn't open yet. How is this so considering I had CALLED and spoken with someone and he CONFIRMED my reservation? When calling IHG corporate office to complain, they tried (very very poorly) to make up for their HUGE mistake. The rooms that they offered me at other hotels are a JOKE. the OTHER holiday inn is FURTHER away than this one AND cheaper, but their emailed reply told me "they would honor my price" OF COURSE you will because my price is MORE expensive. The other option is a hotel that would cost $63 MORE per night and it doesn't have breakfast and its not walking distance to the park! (Nor did they offer to match my price) Why would I want to pay more to receive less and be further away from my destination? This situation has 100% turned me off from any hotel in the intercontinental hotel group, since their corporate office is unable to offer more than an apology and insult my intelligence by trying to charge me more for a sub par hotel experience. I hope that other people will read this and they will spend their money ELSEWHERE at ANY other NON IHG hotel.More</t>
   </si>
   <si>
+    <t>Tim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r333615054-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -2562,6 +2889,9 @@
   </si>
   <si>
     <t>I booked a room for the first week in September and another for the first week in December. This hotel was suppose to open in mid summer. After tracking the opening dates, change after change. It was changed to a date after my scheduled arrival date. I was never contacted by IHG letting me know I had no room for my trip. I had to call them to fined out. Trip cancelled! Now moving to my December trip, tracking and seeing the dates change again and again. When I saw the date change to the last day of my trip I contacted IHG. They "GUARANTEED" me a room. They said the hotel would be in it's soft opening phase and I had a room. This was in mid September. Now move to late October just over 4 weeks before my November 27 arrival I was contact by IHG and told the hotel would not open and I had no room around a major holiday. So my warning to anybody who has reservations at this hotel DON'T count on really having a room till they open the doors for business. That could be in January 2016 or not this is for anybody who has a reservation at this hotel. Keep tracking the opening date. Good LuckMore</t>
+  </si>
+  <si>
+    <t>TAtraveller66</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d7802561-r331008648-Holiday_Inn_Express_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -3097,43 +3427,47 @@
       <c r="A2" t="n">
         <v>64180</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>191899</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3147,50 +3481,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64180</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>191900</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3204,50 +3542,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64180</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>191901</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3261,50 +3603,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64180</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>191902</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3320,56 +3666,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64180</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>191903</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3385,56 +3735,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64180</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>191904</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3454,50 +3808,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64180</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>191905</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3509,56 +3867,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64180</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>191906</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3570,47 +3932,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64180</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>191907</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -3629,50 +3995,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64180</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>191908</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3692,50 +4062,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64180</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>191909</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3749,50 +4123,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64180</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>191910</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3810,56 +4188,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64180</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>191911</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3877,50 +4259,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64180</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>191912</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3938,50 +4324,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64180</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>16153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3999,50 +4389,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64180</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>191913</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -4060,50 +4454,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64180</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>773</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4117,50 +4515,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64180</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>191914</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4174,56 +4576,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="X19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64180</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>191915</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4237,50 +4643,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64180</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>191916</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4300,50 +4710,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64180</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>191917</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4361,50 +4775,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64180</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>191918</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4418,50 +4836,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64180</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>191919</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4481,50 +4903,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64180</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>191920</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O25" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4544,50 +4970,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64180</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>191921</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4601,50 +5031,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64180</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>191922</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4658,50 +5092,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64180</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>191923</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4717,56 +5155,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64180</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>27811</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4780,50 +5222,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64180</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>191924</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4841,56 +5287,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="X30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="Y30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64180</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>191925</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4908,56 +5358,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="X31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="Y31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64180</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>12783</v>
+      </c>
+      <c r="C32" t="s">
+        <v>276</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4975,56 +5429,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="X32" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="Y32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64180</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>191916</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -5042,56 +5500,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="X33" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="Y33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64180</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>191926</v>
+      </c>
+      <c r="C34" t="s">
+        <v>289</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="J34" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5109,56 +5571,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="X34" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64180</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>191927</v>
+      </c>
+      <c r="C35" t="s">
+        <v>296</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5174,56 +5640,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="X35" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="Y35" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64180</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>191928</v>
+      </c>
+      <c r="C36" t="s">
+        <v>306</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="J36" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5241,56 +5711,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="X36" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="Y36" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64180</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>191929</v>
+      </c>
+      <c r="C37" t="s">
+        <v>313</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="J37" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5302,56 +5776,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="X37" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64180</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>34086</v>
+      </c>
+      <c r="C38" t="s">
+        <v>320</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5363,56 +5841,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="X38" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64180</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>49032</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="J39" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5424,56 +5906,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="X39" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="Y39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64180</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>191930</v>
+      </c>
+      <c r="C40" t="s">
+        <v>339</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5489,56 +5975,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="X40" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="Y40" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64180</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>191931</v>
+      </c>
+      <c r="C41" t="s">
+        <v>346</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="J41" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="K41" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5550,56 +6040,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="X41" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="Y41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64180</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>191932</v>
+      </c>
+      <c r="C42" t="s">
+        <v>355</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="J42" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="K42" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="L42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5611,56 +6105,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="X42" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="Y42" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64180</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>191933</v>
+      </c>
+      <c r="C43" t="s">
+        <v>365</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="J43" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="K43" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5672,56 +6170,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="X43" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64180</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>191934</v>
+      </c>
+      <c r="C44" t="s">
+        <v>372</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="K44" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5733,56 +6235,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="X44" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="Y44" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64180</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>55811</v>
+      </c>
+      <c r="C45" t="s">
+        <v>381</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="J45" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O45" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5794,56 +6300,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="X45" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="Y45" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64180</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>191935</v>
+      </c>
+      <c r="C46" t="s">
+        <v>390</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5855,56 +6365,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="X46" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="Y46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64180</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>22459</v>
+      </c>
+      <c r="C47" t="s">
+        <v>399</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K47" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5916,56 +6430,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="X47" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="Y47" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64180</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>99563</v>
+      </c>
+      <c r="C48" t="s">
+        <v>409</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="J48" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="K48" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="L48" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5977,56 +6495,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="X48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="Y48" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64180</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>191936</v>
+      </c>
+      <c r="C49" t="s">
+        <v>418</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6044,56 +6566,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="X49" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="Y49" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64180</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>191937</v>
+      </c>
+      <c r="C50" t="s">
+        <v>425</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="J50" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="K50" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6111,56 +6637,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="X50" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="Y50" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64180</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>191938</v>
+      </c>
+      <c r="C51" t="s">
+        <v>434</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6172,56 +6702,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="X51" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="Y51" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64180</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>814</v>
+      </c>
+      <c r="C52" t="s">
+        <v>444</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J52" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="K52" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="L52" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6233,56 +6767,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="X52" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="Y52" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64180</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>191939</v>
+      </c>
+      <c r="C53" t="s">
+        <v>451</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="J53" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="K53" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="L53" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6300,56 +6838,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="X53" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="Y53" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64180</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>34442</v>
+      </c>
+      <c r="C54" t="s">
+        <v>460</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="J54" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K54" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="L54" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6361,56 +6903,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="X54" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="Y54" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64180</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>191940</v>
+      </c>
+      <c r="C55" t="s">
+        <v>469</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="J55" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="K55" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="L55" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6422,56 +6968,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="X55" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="Y55" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64180</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>5563</v>
+      </c>
+      <c r="C56" t="s">
+        <v>479</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="J56" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K56" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="L56" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O56" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6489,56 +7039,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="X56" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="Y56" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64180</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>191941</v>
+      </c>
+      <c r="C57" t="s">
+        <v>488</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="J57" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="K57" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="L57" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6550,56 +7104,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="X57" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="Y57" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64180</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C58" t="s">
+        <v>495</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
+        <v>496</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>497</v>
+      </c>
+      <c r="J58" t="s">
+        <v>498</v>
+      </c>
+      <c r="K58" t="s">
+        <v>499</v>
+      </c>
+      <c r="L58" t="s">
+        <v>500</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
         <v>440</v>
       </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
-        <v>441</v>
-      </c>
-      <c r="J58" t="s">
-        <v>442</v>
-      </c>
-      <c r="K58" t="s">
-        <v>443</v>
-      </c>
-      <c r="L58" t="s">
-        <v>444</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>391</v>
-      </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6611,56 +7169,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="X58" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="Y58" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64180</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C59" t="s">
+        <v>502</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="J59" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="K59" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="L59" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6672,56 +7234,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="X59" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="Y59" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64180</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>7852</v>
+      </c>
+      <c r="C60" t="s">
+        <v>512</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="J60" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="K60" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="L60" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6733,56 +7299,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="X60" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="Y60" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64180</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>191942</v>
+      </c>
+      <c r="C61" t="s">
+        <v>521</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="J61" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="K61" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="L61" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6796,56 +7366,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="X61" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="Y61" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64180</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>40443</v>
+      </c>
+      <c r="C62" t="s">
+        <v>530</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="J62" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="K62" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="L62" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6857,56 +7431,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="X62" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="Y62" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64180</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>191943</v>
+      </c>
+      <c r="C63" t="s">
+        <v>539</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="J63" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="K63" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="L63" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6924,56 +7502,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="X63" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="Y63" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64180</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>37569</v>
+      </c>
+      <c r="C64" t="s">
+        <v>548</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="J64" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="K64" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="L64" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6985,56 +7567,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="X64" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="Y64" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64180</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>191944</v>
+      </c>
+      <c r="C65" t="s">
+        <v>554</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="J65" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="K65" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="L65" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O65" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7052,56 +7638,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="X65" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="Y65" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64180</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>191945</v>
+      </c>
+      <c r="C66" t="s">
+        <v>563</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="J66" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="K66" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="L66" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7113,47 +7703,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="X66" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="Y66" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64180</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>11424</v>
+      </c>
+      <c r="C67" t="s">
+        <v>572</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="J67" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="K67" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="L67" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -7170,56 +7764,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="X67" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="Y67" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64180</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>78745</v>
+      </c>
+      <c r="C68" t="s">
+        <v>578</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="J68" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="K68" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="L68" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -7235,56 +7833,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="X68" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="Y68" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64180</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>191946</v>
+      </c>
+      <c r="C69" t="s">
+        <v>584</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="J69" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="K69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L69" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O69" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7300,56 +7902,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="X69" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="Y69" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64180</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>191947</v>
+      </c>
+      <c r="C70" t="s">
+        <v>590</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="J70" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="K70" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="L70" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O70" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7361,56 +7967,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="X70" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="Y70" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64180</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>191948</v>
+      </c>
+      <c r="C71" t="s">
+        <v>597</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="J71" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="K71" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="L71" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7426,56 +8036,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="X71" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="Y71" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64180</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>191949</v>
+      </c>
+      <c r="C72" t="s">
+        <v>606</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="J72" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="K72" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
       <c r="L72" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7493,56 +8107,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="X72" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="Y72" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64180</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>191950</v>
+      </c>
+      <c r="C73" t="s">
+        <v>612</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="J73" t="s">
-        <v>544</v>
+        <v>615</v>
       </c>
       <c r="K73" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
       <c r="L73" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7554,56 +8172,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="X73" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="Y73" t="s">
-        <v>547</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>64180</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>191951</v>
+      </c>
+      <c r="C74" t="s">
+        <v>619</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="J74" t="s">
-        <v>550</v>
+        <v>622</v>
       </c>
       <c r="K74" t="s">
-        <v>551</v>
+        <v>623</v>
       </c>
       <c r="L74" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="O74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7619,56 +8241,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>553</v>
+        <v>625</v>
       </c>
       <c r="X74" t="s">
-        <v>554</v>
+        <v>626</v>
       </c>
       <c r="Y74" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64180</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>191952</v>
+      </c>
+      <c r="C75" t="s">
+        <v>628</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="J75" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="K75" t="s">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="L75" t="s">
-        <v>560</v>
+        <v>633</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="O75" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="n">
@@ -7684,56 +8310,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
       <c r="X75" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="Y75" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>64180</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>191953</v>
+      </c>
+      <c r="C76" t="s">
+        <v>637</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="J76" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="K76" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="L76" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7751,56 +8381,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="X76" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="Y76" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>64180</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>191954</v>
+      </c>
+      <c r="C77" t="s">
+        <v>646</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="J77" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="K77" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="L77" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7816,56 +8450,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="X77" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="Y77" t="s">
-        <v>580</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>64180</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>22073</v>
+      </c>
+      <c r="C78" t="s">
+        <v>656</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="J78" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="K78" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="L78" t="s">
-        <v>584</v>
+        <v>660</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7877,56 +8515,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="X78" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="Y78" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>64180</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>191955</v>
+      </c>
+      <c r="C79" t="s">
+        <v>662</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="J79" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="K79" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="L79" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="O79" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7938,56 +8580,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="X79" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="Y79" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>64180</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>191956</v>
+      </c>
+      <c r="C80" t="s">
+        <v>668</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="J80" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="K80" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="L80" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="O80" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8005,56 +8651,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="X80" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="Y80" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>64180</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>191957</v>
+      </c>
+      <c r="C81" t="s">
+        <v>675</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="J81" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="K81" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="L81" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -8072,56 +8722,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="X81" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="Y81" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>64180</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>40231</v>
+      </c>
+      <c r="C82" t="s">
+        <v>684</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="J82" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="K82" t="s">
-        <v>608</v>
+        <v>688</v>
       </c>
       <c r="L82" t="s">
-        <v>609</v>
+        <v>689</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8133,56 +8787,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="X82" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="Y82" t="s">
-        <v>610</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>64180</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>191958</v>
+      </c>
+      <c r="C83" t="s">
+        <v>691</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="J83" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="K83" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="L83" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8200,56 +8858,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="X83" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="Y83" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>64180</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>15828</v>
+      </c>
+      <c r="C84" t="s">
+        <v>701</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>620</v>
+        <v>702</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="J84" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="K84" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
       <c r="L84" t="s">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8265,56 +8927,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>625</v>
+        <v>707</v>
       </c>
       <c r="X84" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="Y84" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>64180</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>191959</v>
+      </c>
+      <c r="C85" t="s">
+        <v>710</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>628</v>
+        <v>711</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>629</v>
+        <v>712</v>
       </c>
       <c r="J85" t="s">
-        <v>630</v>
+        <v>713</v>
       </c>
       <c r="K85" t="s">
-        <v>631</v>
+        <v>714</v>
       </c>
       <c r="L85" t="s">
-        <v>632</v>
+        <v>715</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="n">
@@ -8330,56 +8996,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>634</v>
+        <v>717</v>
       </c>
       <c r="X85" t="s">
-        <v>635</v>
+        <v>718</v>
       </c>
       <c r="Y85" t="s">
-        <v>636</v>
+        <v>719</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>64180</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>105132</v>
+      </c>
+      <c r="C86" t="s">
+        <v>720</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="J86" t="s">
-        <v>639</v>
+        <v>723</v>
       </c>
       <c r="K86" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="L86" t="s">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="n">
@@ -8399,50 +9069,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>642</v>
+        <v>726</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>64180</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>191960</v>
+      </c>
+      <c r="C87" t="s">
+        <v>727</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>643</v>
+        <v>728</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
       <c r="J87" t="s">
-        <v>645</v>
+        <v>730</v>
       </c>
       <c r="K87" t="s">
-        <v>646</v>
+        <v>731</v>
       </c>
       <c r="L87" t="s">
-        <v>647</v>
+        <v>732</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="O87" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8458,56 +9132,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>648</v>
+        <v>733</v>
       </c>
       <c r="X87" t="s">
-        <v>649</v>
+        <v>734</v>
       </c>
       <c r="Y87" t="s">
-        <v>650</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>64180</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>191961</v>
+      </c>
+      <c r="C88" t="s">
+        <v>736</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>651</v>
+        <v>737</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>652</v>
+        <v>738</v>
       </c>
       <c r="J88" t="s">
-        <v>653</v>
+        <v>739</v>
       </c>
       <c r="K88" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
       <c r="L88" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="O88" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8523,56 +9201,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>656</v>
+        <v>742</v>
       </c>
       <c r="X88" t="s">
-        <v>657</v>
+        <v>743</v>
       </c>
       <c r="Y88" t="s">
-        <v>658</v>
+        <v>744</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>64180</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>191962</v>
+      </c>
+      <c r="C89" t="s">
+        <v>745</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>659</v>
+        <v>746</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>660</v>
+        <v>747</v>
       </c>
       <c r="J89" t="s">
-        <v>661</v>
+        <v>748</v>
       </c>
       <c r="K89" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
       <c r="L89" t="s">
-        <v>663</v>
+        <v>750</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="n">
@@ -8590,56 +9272,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="X89" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="Y89" t="s">
-        <v>666</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>64180</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>191963</v>
+      </c>
+      <c r="C90" t="s">
+        <v>754</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>667</v>
+        <v>755</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>668</v>
+        <v>756</v>
       </c>
       <c r="J90" t="s">
-        <v>661</v>
+        <v>748</v>
       </c>
       <c r="K90" t="s">
-        <v>669</v>
+        <v>757</v>
       </c>
       <c r="L90" t="s">
-        <v>670</v>
+        <v>758</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8651,56 +9337,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="X90" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="Y90" t="s">
-        <v>671</v>
+        <v>759</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>64180</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>191964</v>
+      </c>
+      <c r="C91" t="s">
+        <v>760</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="J91" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="K91" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="L91" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="O91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8716,56 +9406,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="X91" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="Y91" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>64180</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>191965</v>
+      </c>
+      <c r="C92" t="s">
+        <v>768</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="J92" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="K92" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="L92" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="O92" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -8777,56 +9471,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="X92" t="s">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="Y92" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>64180</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>191966</v>
+      </c>
+      <c r="C93" t="s">
+        <v>777</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>687</v>
+        <v>778</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>688</v>
+        <v>779</v>
       </c>
       <c r="J93" t="s">
-        <v>689</v>
+        <v>780</v>
       </c>
       <c r="K93" t="s">
-        <v>690</v>
+        <v>781</v>
       </c>
       <c r="L93" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="O93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8838,56 +9536,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="X93" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="Y93" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>64180</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>191967</v>
+      </c>
+      <c r="C94" t="s">
+        <v>786</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="J94" t="s">
-        <v>697</v>
+        <v>789</v>
       </c>
       <c r="K94" t="s">
-        <v>698</v>
+        <v>790</v>
       </c>
       <c r="L94" t="s">
-        <v>699</v>
+        <v>791</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="O94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8905,56 +9607,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>700</v>
+        <v>792</v>
       </c>
       <c r="X94" t="s">
-        <v>701</v>
+        <v>793</v>
       </c>
       <c r="Y94" t="s">
-        <v>702</v>
+        <v>794</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>64180</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>191968</v>
+      </c>
+      <c r="C95" t="s">
+        <v>795</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>703</v>
+        <v>796</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>704</v>
+        <v>797</v>
       </c>
       <c r="J95" t="s">
-        <v>705</v>
+        <v>798</v>
       </c>
       <c r="K95" t="s">
-        <v>706</v>
+        <v>799</v>
       </c>
       <c r="L95" t="s">
-        <v>707</v>
+        <v>800</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="O95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -8966,47 +9672,51 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>708</v>
+        <v>801</v>
       </c>
       <c r="X95" t="s">
-        <v>709</v>
+        <v>802</v>
       </c>
       <c r="Y95" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>64180</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>191969</v>
+      </c>
+      <c r="C96" t="s">
+        <v>804</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>711</v>
+        <v>805</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>712</v>
+        <v>806</v>
       </c>
       <c r="J96" t="s">
-        <v>713</v>
+        <v>807</v>
       </c>
       <c r="K96" t="s">
-        <v>714</v>
+        <v>808</v>
       </c>
       <c r="L96" t="s">
-        <v>715</v>
+        <v>809</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
@@ -9023,56 +9733,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>708</v>
+        <v>801</v>
       </c>
       <c r="X96" t="s">
-        <v>709</v>
+        <v>802</v>
       </c>
       <c r="Y96" t="s">
-        <v>716</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>64180</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>191970</v>
+      </c>
+      <c r="C97" t="s">
+        <v>811</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>717</v>
+        <v>812</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>718</v>
+        <v>813</v>
       </c>
       <c r="J97" t="s">
-        <v>719</v>
+        <v>814</v>
       </c>
       <c r="K97" t="s">
-        <v>720</v>
+        <v>815</v>
       </c>
       <c r="L97" t="s">
-        <v>721</v>
+        <v>816</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="O97" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9090,56 +9804,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>723</v>
+        <v>818</v>
       </c>
       <c r="X97" t="s">
-        <v>724</v>
+        <v>819</v>
       </c>
       <c r="Y97" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>64180</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>191971</v>
+      </c>
+      <c r="C98" t="s">
+        <v>821</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>726</v>
+        <v>822</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>727</v>
+        <v>823</v>
       </c>
       <c r="J98" t="s">
-        <v>728</v>
+        <v>824</v>
       </c>
       <c r="K98" t="s">
-        <v>729</v>
+        <v>825</v>
       </c>
       <c r="L98" t="s">
-        <v>730</v>
+        <v>826</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="O98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="n">
@@ -9157,56 +9875,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>731</v>
+        <v>827</v>
       </c>
       <c r="X98" t="s">
-        <v>732</v>
+        <v>828</v>
       </c>
       <c r="Y98" t="s">
-        <v>733</v>
+        <v>829</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>64180</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>191972</v>
+      </c>
+      <c r="C99" t="s">
+        <v>830</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>734</v>
+        <v>831</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>735</v>
+        <v>832</v>
       </c>
       <c r="J99" t="s">
-        <v>728</v>
+        <v>824</v>
       </c>
       <c r="K99" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="L99" t="s">
-        <v>737</v>
+        <v>834</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="O99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="s"/>
@@ -9218,56 +9940,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>738</v>
+        <v>835</v>
       </c>
       <c r="X99" t="s">
-        <v>739</v>
+        <v>836</v>
       </c>
       <c r="Y99" t="s">
-        <v>740</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>64180</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>191973</v>
+      </c>
+      <c r="C100" t="s">
+        <v>838</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
       <c r="J100" t="s">
-        <v>728</v>
+        <v>824</v>
       </c>
       <c r="K100" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
       <c r="L100" t="s">
-        <v>744</v>
+        <v>842</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="O100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s"/>
@@ -9283,56 +10009,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>738</v>
+        <v>835</v>
       </c>
       <c r="X100" t="s">
-        <v>739</v>
+        <v>836</v>
       </c>
       <c r="Y100" t="s">
-        <v>745</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>64180</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>191974</v>
+      </c>
+      <c r="C101" t="s">
+        <v>844</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>747</v>
+        <v>846</v>
       </c>
       <c r="J101" t="s">
-        <v>748</v>
+        <v>847</v>
       </c>
       <c r="K101" t="s">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="L101" t="s">
-        <v>750</v>
+        <v>849</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="O101" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -9348,56 +10078,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>751</v>
+        <v>850</v>
       </c>
       <c r="X101" t="s">
-        <v>752</v>
+        <v>851</v>
       </c>
       <c r="Y101" t="s">
-        <v>753</v>
+        <v>852</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>64180</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>191975</v>
+      </c>
+      <c r="C102" t="s">
+        <v>853</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>754</v>
+        <v>854</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>755</v>
+        <v>855</v>
       </c>
       <c r="J102" t="s">
-        <v>756</v>
+        <v>856</v>
       </c>
       <c r="K102" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="L102" t="s">
-        <v>757</v>
+        <v>857</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="O102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="n">
@@ -9415,50 +10149,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>758</v>
+        <v>858</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>64180</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>6764</v>
+      </c>
+      <c r="C103" t="s">
+        <v>859</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>759</v>
+        <v>860</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
       <c r="J103" t="s">
-        <v>761</v>
+        <v>862</v>
       </c>
       <c r="K103" t="s">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c r="L103" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="O103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9470,56 +10208,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c r="X103" t="s">
-        <v>765</v>
+        <v>866</v>
       </c>
       <c r="Y103" t="s">
-        <v>766</v>
+        <v>867</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>64180</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>191976</v>
+      </c>
+      <c r="C104" t="s">
+        <v>868</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>767</v>
+        <v>869</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>768</v>
+        <v>870</v>
       </c>
       <c r="J104" t="s">
-        <v>769</v>
+        <v>871</v>
       </c>
       <c r="K104" t="s">
-        <v>770</v>
+        <v>872</v>
       </c>
       <c r="L104" t="s">
-        <v>771</v>
+        <v>873</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="O104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9537,50 +10279,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>771</v>
+        <v>873</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>64180</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>191977</v>
+      </c>
+      <c r="C105" t="s">
+        <v>875</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>773</v>
+        <v>876</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="J105" t="s">
-        <v>769</v>
+        <v>871</v>
       </c>
       <c r="K105" t="s">
-        <v>775</v>
+        <v>878</v>
       </c>
       <c r="L105" t="s">
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="O105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="n">
@@ -9600,50 +10346,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>776</v>
+        <v>879</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>64180</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>191978</v>
+      </c>
+      <c r="C106" t="s">
+        <v>880</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>777</v>
+        <v>881</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>778</v>
+        <v>882</v>
       </c>
       <c r="J106" t="s">
-        <v>779</v>
+        <v>883</v>
       </c>
       <c r="K106" t="s">
-        <v>780</v>
+        <v>884</v>
       </c>
       <c r="L106" t="s">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="O106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -9657,50 +10407,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>782</v>
+        <v>886</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>64180</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>191979</v>
+      </c>
+      <c r="C107" t="s">
+        <v>887</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>783</v>
+        <v>888</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>784</v>
+        <v>889</v>
       </c>
       <c r="J107" t="s">
-        <v>785</v>
+        <v>890</v>
       </c>
       <c r="K107" t="s">
-        <v>786</v>
+        <v>891</v>
       </c>
       <c r="L107" t="s">
-        <v>787</v>
+        <v>892</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="O107" t="s">
-        <v>788</v>
+        <v>893</v>
       </c>
       <c r="P107" t="s"/>
       <c r="Q107" t="s"/>
@@ -9714,50 +10468,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>787</v>
+        <v>892</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>64180</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>191980</v>
+      </c>
+      <c r="C108" t="s">
+        <v>894</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>789</v>
+        <v>895</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>790</v>
+        <v>896</v>
       </c>
       <c r="J108" t="s">
-        <v>791</v>
+        <v>897</v>
       </c>
       <c r="K108" t="s">
-        <v>792</v>
+        <v>898</v>
       </c>
       <c r="L108" t="s">
-        <v>793</v>
+        <v>899</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="O108" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="s"/>
@@ -9775,56 +10533,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>794</v>
+        <v>900</v>
       </c>
       <c r="X108" t="s">
-        <v>795</v>
+        <v>901</v>
       </c>
       <c r="Y108" t="s">
-        <v>796</v>
+        <v>902</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>64180</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>191981</v>
+      </c>
+      <c r="C109" t="s">
+        <v>903</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>797</v>
+        <v>904</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>798</v>
+        <v>905</v>
       </c>
       <c r="J109" t="s">
-        <v>799</v>
+        <v>906</v>
       </c>
       <c r="K109" t="s">
-        <v>800</v>
+        <v>907</v>
       </c>
       <c r="L109" t="s">
-        <v>801</v>
+        <v>908</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="O109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P109" t="s"/>
       <c r="Q109" t="s"/>
@@ -9838,50 +10600,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>802</v>
+        <v>909</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>64180</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>191982</v>
+      </c>
+      <c r="C110" t="s">
+        <v>910</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>803</v>
+        <v>911</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>804</v>
+        <v>912</v>
       </c>
       <c r="J110" t="s">
-        <v>805</v>
+        <v>913</v>
       </c>
       <c r="K110" t="s">
-        <v>806</v>
+        <v>914</v>
       </c>
       <c r="L110" t="s">
-        <v>807</v>
+        <v>915</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>808</v>
+        <v>916</v>
       </c>
       <c r="O110" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P110" t="s"/>
       <c r="Q110" t="s"/>
@@ -9895,47 +10661,51 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>809</v>
+        <v>917</v>
       </c>
       <c r="X110" t="s">
-        <v>810</v>
+        <v>918</v>
       </c>
       <c r="Y110" t="s">
-        <v>811</v>
+        <v>919</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>64180</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>13602</v>
+      </c>
+      <c r="C111" t="s">
+        <v>920</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>812</v>
+        <v>921</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>813</v>
+        <v>922</v>
       </c>
       <c r="J111" t="s">
-        <v>814</v>
+        <v>923</v>
       </c>
       <c r="K111" t="s">
-        <v>815</v>
+        <v>924</v>
       </c>
       <c r="L111" t="s">
-        <v>816</v>
+        <v>925</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
@@ -9952,56 +10722,60 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>817</v>
+        <v>926</v>
       </c>
       <c r="X111" t="s">
-        <v>818</v>
+        <v>927</v>
       </c>
       <c r="Y111" t="s">
-        <v>819</v>
+        <v>928</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>64180</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>191983</v>
+      </c>
+      <c r="C112" t="s">
+        <v>929</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>820</v>
+        <v>930</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>821</v>
+        <v>931</v>
       </c>
       <c r="J112" t="s">
-        <v>822</v>
+        <v>932</v>
       </c>
       <c r="K112" t="s">
-        <v>823</v>
+        <v>933</v>
       </c>
       <c r="L112" t="s">
-        <v>824</v>
+        <v>934</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>825</v>
+        <v>935</v>
       </c>
       <c r="O112" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P112" t="s"/>
       <c r="Q112" t="s"/>
@@ -10013,13 +10787,13 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>826</v>
+        <v>936</v>
       </c>
       <c r="X112" t="s">
-        <v>827</v>
+        <v>937</v>
       </c>
       <c r="Y112" t="s">
-        <v>828</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
